--- a/static/data/INSA_DB.xlsx
+++ b/static/data/INSA_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows11\OneDrive\문서\GitHub\Dong.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C91B3-E8E0-4935-A575-F249026605E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213090CF-F690-4BF9-97A6-BB8EEB43A1E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12060" xr2:uid="{C4BC394A-5E3E-4523-9751-1113843B2127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>성명</t>
   </si>
@@ -246,6 +246,43 @@
   <si>
     <t>KEY_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 팔달구 고화로 14번길14,302호</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로 268 1204호</t>
+  </si>
+  <si>
+    <t>인천 광역시 부평구 부영로 165, 101동 117호</t>
+  </si>
+  <si>
+    <t>서울 구로구 우마 1길 10-450</t>
+  </si>
+  <si>
+    <t>서울 특별시 구로구 구로동로 82-3 203호</t>
+  </si>
+  <si>
+    <t>서울 특별시 구로구 구로동로 22번길 69-1, 401호</t>
+  </si>
+  <si>
+    <t>서울 특별시 구로구 구로동로 5번길 13-30</t>
+  </si>
+  <si>
+    <t>인천 광역시 부평구 세월천로 40번길 24, 1-605호</t>
+  </si>
+  <si>
+    <t>인천 광역시 부평구 주부토로 69, 404호</t>
+  </si>
+  <si>
+    <t>인천 광역시 부평구 부평문화로 115번길 11, 203호</t>
+  </si>
+  <si>
+    <t>인천 광역시 미추홀구 동주길 29번길 37-1, 202호</t>
   </si>
 </sst>
 </file>
@@ -647,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307FE49-C5C3-4956-B7B7-3A163CB4DBCA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I15" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -659,9 +696,10 @@
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,16 +716,19 @@
         <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -695,16 +736,19 @@
         <v>60</v>
       </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -720,17 +764,20 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,17 +793,20 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -772,17 +822,20 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -798,17 +851,20 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -822,17 +878,20 @@
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -846,17 +905,20 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -870,17 +932,20 @@
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -894,17 +959,20 @@
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -918,17 +986,20 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -942,17 +1013,20 @@
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -966,13 +1040,16 @@
       <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>58</v>
       </c>
     </row>

--- a/static/data/INSA_DB.xlsx
+++ b/static/data/INSA_DB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N980"/>
+  <dimension ref="A1:P981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>2024-08-14(퇴근)</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-15(출근)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-15(퇴근)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +560,16 @@
           <t>2024-08-14 19:10</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2024-08-15 10:44</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2024-08-15 10:45</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +616,8 @@
           <t>2024-08-14 19:26</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -634,6 +656,8 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,6 +696,8 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +740,8 @@
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -752,6 +780,8 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -790,6 +820,8 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -828,6 +860,8 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -866,6 +900,8 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +940,8 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -942,6 +980,8 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -976,6 +1016,8 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1010,6 +1052,8 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1092,8 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,6 +1132,8 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1124,6 +1172,8 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1158,6 +1208,8 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1196,6 +1248,8 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1234,6 +1288,8 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1272,6 +1328,8 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1310,6 +1368,8 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1344,6 +1404,8 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1382,6 +1444,8 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1420,6 +1484,8 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1454,6 +1520,8 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1488,6 +1556,8 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1526,6 +1596,8 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1564,6 +1636,8 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1598,6 +1672,8 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1636,6 +1712,8 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1670,6 +1748,8 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1704,6 +1784,8 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1742,6 +1824,8 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1780,6 +1864,8 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1818,6 +1904,8 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1856,6 +1944,8 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1894,6 +1984,8 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1932,6 +2024,8 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1970,6 +2064,8 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2008,6 +2104,8 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2046,6 +2144,8 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2080,6 +2180,8 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2118,6 +2220,8 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2152,6 +2256,8 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2186,6 +2292,8 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2220,6 +2328,8 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2254,6 +2364,8 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2292,6 +2404,8 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2330,6 +2444,8 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2368,6 +2484,8 @@
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2406,6 +2524,8 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2444,6 +2564,8 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2478,6 +2600,8 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2516,6 +2640,8 @@
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2550,6 +2676,8 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2584,6 +2712,8 @@
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2618,6 +2748,8 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2652,6 +2784,8 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2686,6 +2820,8 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2720,6 +2856,8 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2754,6 +2892,8 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2788,6 +2928,8 @@
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2816,6 +2958,8 @@
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2844,6 +2988,8 @@
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2872,6 +3018,8 @@
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2900,6 +3048,8 @@
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2928,6 +3078,8 @@
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2956,6 +3108,8 @@
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2984,6 +3138,8 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3012,6 +3168,8 @@
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3040,6 +3198,8 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3068,6 +3228,8 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3096,6 +3258,8 @@
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3124,6 +3288,8 @@
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3152,6 +3318,8 @@
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3180,6 +3348,8 @@
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3218,6 +3388,8 @@
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3256,6 +3428,8 @@
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3294,6 +3468,8 @@
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3328,6 +3504,8 @@
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3366,6 +3544,8 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3404,6 +3584,8 @@
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3438,6 +3620,8 @@
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3476,6 +3660,8 @@
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3514,6 +3700,8 @@
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3552,6 +3740,8 @@
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3586,6 +3776,8 @@
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3620,6 +3812,8 @@
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3654,6 +3848,8 @@
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3688,6 +3884,8 @@
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3722,6 +3920,8 @@
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3760,6 +3960,8 @@
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3794,6 +3996,8 @@
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3828,6 +4032,8 @@
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3862,6 +4068,8 @@
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3896,6 +4104,8 @@
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3930,6 +4140,8 @@
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3964,6 +4176,8 @@
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3998,6 +4212,8 @@
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4032,6 +4248,8 @@
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4066,6 +4284,8 @@
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4100,6 +4320,8 @@
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4134,6 +4356,8 @@
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4162,6 +4386,8 @@
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4190,6 +4416,8 @@
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4218,6 +4446,8 @@
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4246,6 +4476,8 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4274,6 +4506,8 @@
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4308,6 +4542,8 @@
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4342,6 +4578,8 @@
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4376,6 +4614,8 @@
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4410,6 +4650,8 @@
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4448,6 +4690,8 @@
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4482,6 +4726,8 @@
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4516,6 +4762,8 @@
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4550,6 +4798,8 @@
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4588,6 +4838,8 @@
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4622,6 +4874,8 @@
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4650,6 +4904,8 @@
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4684,6 +4940,8 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4718,6 +4976,8 @@
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4752,6 +5012,8 @@
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4786,6 +5048,8 @@
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4824,6 +5088,8 @@
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4862,6 +5128,8 @@
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4896,6 +5164,8 @@
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4930,6 +5200,8 @@
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4964,6 +5236,8 @@
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4998,6 +5272,8 @@
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5032,6 +5308,8 @@
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5070,6 +5348,8 @@
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5104,6 +5384,8 @@
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5138,6 +5420,8 @@
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5176,6 +5460,8 @@
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5210,6 +5496,8 @@
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5244,6 +5532,8 @@
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5282,6 +5572,8 @@
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5320,6 +5612,8 @@
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5354,6 +5648,8 @@
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5392,6 +5688,8 @@
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5426,6 +5724,8 @@
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5464,6 +5764,8 @@
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5498,6 +5800,8 @@
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5532,6 +5836,8 @@
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5566,6 +5872,8 @@
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5600,6 +5908,8 @@
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5638,6 +5948,8 @@
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5676,6 +5988,8 @@
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5714,6 +6028,8 @@
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5752,6 +6068,8 @@
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5790,6 +6108,8 @@
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5824,6 +6144,8 @@
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5862,6 +6184,8 @@
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5900,6 +6224,8 @@
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5934,6 +6260,8 @@
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5972,6 +6300,8 @@
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6010,6 +6340,8 @@
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6044,6 +6376,8 @@
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6078,6 +6412,8 @@
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6112,6 +6448,8 @@
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6146,6 +6484,8 @@
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6180,6 +6520,8 @@
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6214,6 +6556,8 @@
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6252,6 +6596,8 @@
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6290,6 +6636,8 @@
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6324,6 +6672,8 @@
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6358,6 +6708,8 @@
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6396,6 +6748,8 @@
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6434,6 +6788,8 @@
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6472,6 +6828,8 @@
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6510,6 +6868,8 @@
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6548,6 +6908,8 @@
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6586,6 +6948,8 @@
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6624,6 +6988,8 @@
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6662,6 +7028,8 @@
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6700,6 +7068,8 @@
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6738,6 +7108,8 @@
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6772,6 +7144,8 @@
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6806,6 +7180,8 @@
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6840,6 +7216,8 @@
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6874,6 +7252,8 @@
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6912,6 +7292,8 @@
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6946,6 +7328,8 @@
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6980,6 +7364,8 @@
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7018,6 +7404,8 @@
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7056,6 +7444,8 @@
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7094,6 +7484,8 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7132,6 +7524,8 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7166,6 +7560,8 @@
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7200,6 +7596,8 @@
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7234,6 +7632,8 @@
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7268,6 +7668,8 @@
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7302,6 +7704,8 @@
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7336,6 +7740,8 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7370,6 +7776,8 @@
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7404,6 +7812,8 @@
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7438,6 +7848,8 @@
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7472,6 +7884,8 @@
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7506,6 +7920,8 @@
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7540,6 +7956,8 @@
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7578,6 +7996,8 @@
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7616,6 +8036,8 @@
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7650,6 +8072,8 @@
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7684,6 +8108,8 @@
       </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7718,6 +8144,8 @@
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7752,6 +8180,8 @@
       </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7786,6 +8216,8 @@
       </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7820,6 +8252,8 @@
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7854,6 +8288,8 @@
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7888,6 +8324,8 @@
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7926,6 +8364,8 @@
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7964,6 +8404,8 @@
       </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8002,6 +8444,8 @@
       </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8036,6 +8480,8 @@
       </c>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8070,6 +8516,8 @@
       </c>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8108,6 +8556,8 @@
       </c>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8142,6 +8592,8 @@
       </c>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8180,6 +8632,8 @@
       </c>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8214,6 +8668,8 @@
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8248,6 +8704,8 @@
       </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8282,6 +8740,8 @@
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8316,6 +8776,8 @@
       </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8350,6 +8812,8 @@
       </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8388,6 +8852,8 @@
       </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8422,6 +8888,8 @@
       </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8460,6 +8928,8 @@
       </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8494,6 +8964,8 @@
       </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8528,6 +9000,8 @@
       </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8566,6 +9040,8 @@
       </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8604,6 +9080,8 @@
       </c>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8638,6 +9116,8 @@
       </c>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8676,6 +9156,8 @@
       </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8714,6 +9196,8 @@
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8752,6 +9236,8 @@
       </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8790,6 +9276,8 @@
       </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8828,6 +9316,8 @@
       </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8862,6 +9352,8 @@
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8896,6 +9388,8 @@
       </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8930,6 +9424,8 @@
       </c>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8964,6 +9460,8 @@
       </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8992,6 +9490,8 @@
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9030,6 +9530,8 @@
       </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9064,6 +9566,8 @@
       </c>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9098,6 +9602,8 @@
       </c>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9132,6 +9638,8 @@
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9166,6 +9674,8 @@
       </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9200,6 +9710,8 @@
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9234,6 +9746,8 @@
       </c>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9268,6 +9782,8 @@
       </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9302,6 +9818,8 @@
       </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9336,6 +9854,8 @@
       </c>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9370,6 +9890,8 @@
       </c>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9404,6 +9926,8 @@
       </c>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9438,6 +9962,8 @@
       </c>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9476,6 +10002,8 @@
       </c>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9510,6 +10038,8 @@
       </c>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9548,6 +10078,8 @@
       </c>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9582,6 +10114,8 @@
       </c>
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9616,6 +10150,8 @@
       </c>
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9650,6 +10186,8 @@
       </c>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9684,6 +10222,8 @@
       </c>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9718,6 +10258,8 @@
       </c>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9752,6 +10294,8 @@
       </c>
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9786,6 +10330,8 @@
       </c>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9820,6 +10366,8 @@
       </c>
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9854,6 +10402,8 @@
       </c>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9888,6 +10438,8 @@
       </c>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9922,6 +10474,8 @@
       </c>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9956,6 +10510,8 @@
       </c>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9990,6 +10546,8 @@
       </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10024,6 +10582,8 @@
       </c>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10058,6 +10618,8 @@
       </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10092,6 +10654,8 @@
       </c>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10126,6 +10690,8 @@
       </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10160,6 +10726,8 @@
       </c>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10194,6 +10762,8 @@
       </c>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10228,6 +10798,8 @@
       </c>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10262,6 +10834,8 @@
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10296,6 +10870,8 @@
       </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10330,6 +10906,8 @@
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10364,6 +10942,8 @@
       </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10398,6 +10978,8 @@
       </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10432,6 +11014,8 @@
       </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10466,6 +11050,8 @@
       </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -10500,6 +11086,8 @@
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -10534,6 +11122,8 @@
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -10568,6 +11158,8 @@
       </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -10602,6 +11194,8 @@
       </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr"/>
+      <c r="O289" t="inlineStr"/>
+      <c r="P289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -10636,6 +11230,8 @@
       </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10670,6 +11266,8 @@
       </c>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10704,6 +11302,8 @@
       </c>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10738,6 +11338,8 @@
       </c>
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10772,6 +11374,8 @@
       </c>
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10806,6 +11410,8 @@
       </c>
       <c r="M295" t="inlineStr"/>
       <c r="N295" t="inlineStr"/>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10840,6 +11446,8 @@
       </c>
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10874,6 +11482,8 @@
       </c>
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr"/>
+      <c r="O297" t="inlineStr"/>
+      <c r="P297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10912,6 +11522,8 @@
       </c>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr"/>
+      <c r="O298" t="inlineStr"/>
+      <c r="P298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10946,6 +11558,8 @@
       </c>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr"/>
+      <c r="O299" t="inlineStr"/>
+      <c r="P299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10980,6 +11594,8 @@
       </c>
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr"/>
+      <c r="O300" t="inlineStr"/>
+      <c r="P300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -11014,6 +11630,8 @@
       </c>
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -11048,6 +11666,8 @@
       </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11082,6 +11702,8 @@
       </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11116,6 +11738,8 @@
       </c>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr"/>
+      <c r="P304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11150,6 +11774,8 @@
       </c>
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11184,6 +11810,8 @@
       </c>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11218,6 +11846,8 @@
       </c>
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11252,6 +11882,8 @@
       </c>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11286,6 +11918,8 @@
       </c>
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11320,6 +11954,8 @@
       </c>
       <c r="M310" t="inlineStr"/>
       <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11358,6 +11994,8 @@
       </c>
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr"/>
+      <c r="P311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11392,6 +12030,8 @@
       </c>
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -11426,6 +12066,8 @@
       </c>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -11460,6 +12102,8 @@
       </c>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr"/>
+      <c r="O314" t="inlineStr"/>
+      <c r="P314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -11494,6 +12138,8 @@
       </c>
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr"/>
+      <c r="O315" t="inlineStr"/>
+      <c r="P315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -11532,6 +12178,8 @@
       </c>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -11568,6 +12216,8 @@
       </c>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -11604,6 +12254,8 @@
       </c>
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr"/>
+      <c r="O318" t="inlineStr"/>
+      <c r="P318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -11640,6 +12292,8 @@
       </c>
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -11674,6 +12328,8 @@
       </c>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr"/>
+      <c r="P320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -11708,6 +12364,8 @@
       </c>
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr"/>
+      <c r="O321" t="inlineStr"/>
+      <c r="P321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -11742,6 +12400,8 @@
       </c>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr"/>
+      <c r="O322" t="inlineStr"/>
+      <c r="P322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -11776,6 +12436,8 @@
       </c>
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr"/>
+      <c r="O323" t="inlineStr"/>
+      <c r="P323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -11810,6 +12472,8 @@
       </c>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr"/>
+      <c r="O324" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -11844,6 +12508,8 @@
       </c>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr"/>
+      <c r="P325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -11878,6 +12544,8 @@
       </c>
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -11912,6 +12580,8 @@
       </c>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr"/>
+      <c r="O327" t="inlineStr"/>
+      <c r="P327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -11946,6 +12616,8 @@
       </c>
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr"/>
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -11984,6 +12656,8 @@
       </c>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr"/>
+      <c r="P329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -12018,6 +12692,8 @@
       </c>
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr"/>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12052,6 +12728,8 @@
       </c>
       <c r="M331" t="inlineStr"/>
       <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12090,6 +12768,8 @@
       </c>
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12124,6 +12804,8 @@
       </c>
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr"/>
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12158,6 +12840,8 @@
       </c>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr"/>
+      <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12192,6 +12876,8 @@
       </c>
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr"/>
+      <c r="O335" t="inlineStr"/>
+      <c r="P335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12226,6 +12912,8 @@
       </c>
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr"/>
+      <c r="O336" t="inlineStr"/>
+      <c r="P336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12260,6 +12948,8 @@
       </c>
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="inlineStr"/>
+      <c r="O337" t="inlineStr"/>
+      <c r="P337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12294,6 +12984,8 @@
       </c>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12328,6 +13020,8 @@
       </c>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -12362,6 +13056,8 @@
       </c>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -12396,6 +13092,8 @@
       </c>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -12430,6 +13128,8 @@
       </c>
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -12464,6 +13164,8 @@
       </c>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -12498,6 +13200,8 @@
       </c>
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -12532,6 +13236,8 @@
       </c>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -12566,6 +13272,8 @@
       </c>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -12600,6 +13308,8 @@
       </c>
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -12634,6 +13344,8 @@
       </c>
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -12668,6 +13380,8 @@
       </c>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="inlineStr"/>
+      <c r="O349" t="inlineStr"/>
+      <c r="P349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -12702,6 +13416,8 @@
       </c>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="inlineStr"/>
+      <c r="O350" t="inlineStr"/>
+      <c r="P350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -12736,6 +13452,8 @@
       </c>
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr"/>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -12770,6 +13488,8 @@
       </c>
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -12804,6 +13524,8 @@
       </c>
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="inlineStr"/>
+      <c r="O353" t="inlineStr"/>
+      <c r="P353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -12838,6 +13560,8 @@
       </c>
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -12872,6 +13596,8 @@
       </c>
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr"/>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -12906,6 +13632,8 @@
       </c>
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr"/>
+      <c r="O356" t="inlineStr"/>
+      <c r="P356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -12940,6 +13668,8 @@
       </c>
       <c r="M357" t="inlineStr"/>
       <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -12974,6 +13704,8 @@
       </c>
       <c r="M358" t="inlineStr"/>
       <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13008,6 +13740,8 @@
       </c>
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="inlineStr"/>
+      <c r="O359" t="inlineStr"/>
+      <c r="P359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13046,6 +13780,8 @@
       </c>
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr"/>
+      <c r="O360" t="inlineStr"/>
+      <c r="P360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13080,6 +13816,8 @@
       </c>
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr"/>
+      <c r="O361" t="inlineStr"/>
+      <c r="P361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13114,6 +13852,8 @@
       </c>
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr"/>
+      <c r="O362" t="inlineStr"/>
+      <c r="P362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13148,6 +13888,8 @@
       </c>
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr"/>
+      <c r="O363" t="inlineStr"/>
+      <c r="P363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13182,6 +13924,8 @@
       </c>
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr"/>
+      <c r="O364" t="inlineStr"/>
+      <c r="P364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13216,6 +13960,8 @@
       </c>
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr"/>
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13250,6 +13996,8 @@
       </c>
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr"/>
+      <c r="O366" t="inlineStr"/>
+      <c r="P366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -13284,6 +14032,8 @@
       </c>
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr"/>
+      <c r="O367" t="inlineStr"/>
+      <c r="P367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -13318,6 +14068,8 @@
       </c>
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr"/>
+      <c r="O368" t="inlineStr"/>
+      <c r="P368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -13352,6 +14104,8 @@
       </c>
       <c r="M369" t="inlineStr"/>
       <c r="N369" t="inlineStr"/>
+      <c r="O369" t="inlineStr"/>
+      <c r="P369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -13386,6 +14140,8 @@
       </c>
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr"/>
+      <c r="O370" t="inlineStr"/>
+      <c r="P370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -13420,6 +14176,8 @@
       </c>
       <c r="M371" t="inlineStr"/>
       <c r="N371" t="inlineStr"/>
+      <c r="O371" t="inlineStr"/>
+      <c r="P371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -13454,6 +14212,8 @@
       </c>
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr"/>
+      <c r="O372" t="inlineStr"/>
+      <c r="P372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -13488,6 +14248,8 @@
       </c>
       <c r="M373" t="inlineStr"/>
       <c r="N373" t="inlineStr"/>
+      <c r="O373" t="inlineStr"/>
+      <c r="P373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -13522,6 +14284,8 @@
       </c>
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -13560,6 +14324,8 @@
       </c>
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr"/>
+      <c r="O375" t="inlineStr"/>
+      <c r="P375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -13594,6 +14360,8 @@
       </c>
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr"/>
+      <c r="O376" t="inlineStr"/>
+      <c r="P376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -13628,6 +14396,8 @@
       </c>
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr"/>
+      <c r="O377" t="inlineStr"/>
+      <c r="P377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -13662,6 +14432,8 @@
       </c>
       <c r="M378" t="inlineStr"/>
       <c r="N378" t="inlineStr"/>
+      <c r="O378" t="inlineStr"/>
+      <c r="P378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -13696,6 +14468,8 @@
       </c>
       <c r="M379" t="inlineStr"/>
       <c r="N379" t="inlineStr"/>
+      <c r="O379" t="inlineStr"/>
+      <c r="P379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -13730,6 +14504,8 @@
       </c>
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr"/>
+      <c r="O380" t="inlineStr"/>
+      <c r="P380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -13764,6 +14540,8 @@
       </c>
       <c r="M381" t="inlineStr"/>
       <c r="N381" t="inlineStr"/>
+      <c r="O381" t="inlineStr"/>
+      <c r="P381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -13798,6 +14576,8 @@
       </c>
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr"/>
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -13832,6 +14612,8 @@
       </c>
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -13866,6 +14648,8 @@
       </c>
       <c r="M384" t="inlineStr"/>
       <c r="N384" t="inlineStr"/>
+      <c r="O384" t="inlineStr"/>
+      <c r="P384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -13900,6 +14684,8 @@
       </c>
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr"/>
+      <c r="O385" t="inlineStr"/>
+      <c r="P385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -13934,6 +14720,8 @@
       </c>
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr"/>
+      <c r="O386" t="inlineStr"/>
+      <c r="P386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -13968,6 +14756,8 @@
       </c>
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr"/>
+      <c r="O387" t="inlineStr"/>
+      <c r="P387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -14002,6 +14792,8 @@
       </c>
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr"/>
+      <c r="O388" t="inlineStr"/>
+      <c r="P388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -14036,6 +14828,8 @@
       </c>
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr"/>
+      <c r="O389" t="inlineStr"/>
+      <c r="P389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -14070,6 +14864,8 @@
       </c>
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr"/>
+      <c r="O390" t="inlineStr"/>
+      <c r="P390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -14104,6 +14900,8 @@
       </c>
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -14138,6 +14936,8 @@
       </c>
       <c r="M392" t="inlineStr"/>
       <c r="N392" t="inlineStr"/>
+      <c r="O392" t="inlineStr"/>
+      <c r="P392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -14172,6 +14972,8 @@
       </c>
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr"/>
+      <c r="O393" t="inlineStr"/>
+      <c r="P393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -14206,6 +15008,8 @@
       </c>
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr"/>
+      <c r="O394" t="inlineStr"/>
+      <c r="P394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -14240,6 +15044,8 @@
       </c>
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr"/>
+      <c r="P395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -14276,6 +15082,8 @@
       </c>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr"/>
+      <c r="O396" t="inlineStr"/>
+      <c r="P396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -14312,6 +15120,8 @@
       </c>
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -14346,6 +15156,8 @@
       </c>
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -14382,6 +15194,8 @@
       </c>
       <c r="M399" t="inlineStr"/>
       <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -14416,6 +15230,8 @@
       </c>
       <c r="M400" t="inlineStr"/>
       <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
+      <c r="P400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -14452,6 +15268,8 @@
       </c>
       <c r="M401" t="inlineStr"/>
       <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -14488,6 +15306,8 @@
       </c>
       <c r="M402" t="inlineStr"/>
       <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -14522,6 +15342,8 @@
       </c>
       <c r="M403" t="inlineStr"/>
       <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -14556,6 +15378,8 @@
       </c>
       <c r="M404" t="inlineStr"/>
       <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
+      <c r="P404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -14592,6 +15416,8 @@
       </c>
       <c r="M405" t="inlineStr"/>
       <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
+      <c r="P405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -14626,6 +15452,8 @@
       </c>
       <c r="M406" t="inlineStr"/>
       <c r="N406" t="inlineStr"/>
+      <c r="O406" t="inlineStr"/>
+      <c r="P406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -14654,6 +15482,8 @@
       </c>
       <c r="M407" t="inlineStr"/>
       <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
+      <c r="P407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -14688,6 +15518,8 @@
       </c>
       <c r="M408" t="inlineStr"/>
       <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -14722,6 +15554,8 @@
       </c>
       <c r="M409" t="inlineStr"/>
       <c r="N409" t="inlineStr"/>
+      <c r="O409" t="inlineStr"/>
+      <c r="P409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -14756,6 +15590,8 @@
       </c>
       <c r="M410" t="inlineStr"/>
       <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -14790,6 +15626,8 @@
       </c>
       <c r="M411" t="inlineStr"/>
       <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -14826,6 +15664,8 @@
       </c>
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -14862,6 +15702,8 @@
       </c>
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -14898,6 +15740,8 @@
       </c>
       <c r="M414" t="inlineStr"/>
       <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -14932,6 +15776,8 @@
       </c>
       <c r="M415" t="inlineStr"/>
       <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -14966,6 +15812,8 @@
       </c>
       <c r="M416" t="inlineStr"/>
       <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -15000,6 +15848,8 @@
       </c>
       <c r="M417" t="inlineStr"/>
       <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -15034,6 +15884,8 @@
       </c>
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -15068,6 +15920,8 @@
       </c>
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -15102,6 +15956,8 @@
       </c>
       <c r="M420" t="inlineStr"/>
       <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -15136,6 +15992,8 @@
       </c>
       <c r="M421" t="inlineStr"/>
       <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -15170,6 +16028,8 @@
       </c>
       <c r="M422" t="inlineStr"/>
       <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -15204,6 +16064,8 @@
       </c>
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -15238,6 +16100,8 @@
       </c>
       <c r="M424" t="inlineStr"/>
       <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -15272,6 +16136,8 @@
       </c>
       <c r="M425" t="inlineStr"/>
       <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -15306,6 +16172,8 @@
       </c>
       <c r="M426" t="inlineStr"/>
       <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -15340,6 +16208,8 @@
       </c>
       <c r="M427" t="inlineStr"/>
       <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -15374,6 +16244,8 @@
       </c>
       <c r="M428" t="inlineStr"/>
       <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -15408,6 +16280,8 @@
       </c>
       <c r="M429" t="inlineStr"/>
       <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -15442,6 +16316,8 @@
       </c>
       <c r="M430" t="inlineStr"/>
       <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -15480,6 +16356,8 @@
       </c>
       <c r="M431" t="inlineStr"/>
       <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -15514,6 +16392,8 @@
       </c>
       <c r="M432" t="inlineStr"/>
       <c r="N432" t="inlineStr"/>
+      <c r="O432" t="inlineStr"/>
+      <c r="P432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -15548,6 +16428,8 @@
       </c>
       <c r="M433" t="inlineStr"/>
       <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -15582,6 +16464,8 @@
       </c>
       <c r="M434" t="inlineStr"/>
       <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -15616,6 +16500,8 @@
       </c>
       <c r="M435" t="inlineStr"/>
       <c r="N435" t="inlineStr"/>
+      <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -15650,6 +16536,8 @@
       </c>
       <c r="M436" t="inlineStr"/>
       <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -15686,6 +16574,8 @@
       </c>
       <c r="M437" t="inlineStr"/>
       <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr"/>
+      <c r="P437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -15722,6 +16612,8 @@
       </c>
       <c r="M438" t="inlineStr"/>
       <c r="N438" t="inlineStr"/>
+      <c r="O438" t="inlineStr"/>
+      <c r="P438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -15758,6 +16650,8 @@
       </c>
       <c r="M439" t="inlineStr"/>
       <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -15794,6 +16688,8 @@
       </c>
       <c r="M440" t="inlineStr"/>
       <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -15828,6 +16724,8 @@
       </c>
       <c r="M441" t="inlineStr"/>
       <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr"/>
+      <c r="P441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -15862,6 +16760,8 @@
       </c>
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -15896,6 +16796,8 @@
       </c>
       <c r="M443" t="inlineStr"/>
       <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -15930,6 +16832,8 @@
       </c>
       <c r="M444" t="inlineStr"/>
       <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr"/>
+      <c r="P444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -15964,6 +16868,8 @@
       </c>
       <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -15998,6 +16904,8 @@
       </c>
       <c r="M446" t="inlineStr"/>
       <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -16032,6 +16940,8 @@
       </c>
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -16066,6 +16976,8 @@
       </c>
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -16100,6 +17012,8 @@
       </c>
       <c r="M449" t="inlineStr"/>
       <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -16134,6 +17048,8 @@
       </c>
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -16168,6 +17084,8 @@
       </c>
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr"/>
+      <c r="O451" t="inlineStr"/>
+      <c r="P451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -16202,6 +17120,8 @@
       </c>
       <c r="M452" t="inlineStr"/>
       <c r="N452" t="inlineStr"/>
+      <c r="O452" t="inlineStr"/>
+      <c r="P452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -16236,6 +17156,8 @@
       </c>
       <c r="M453" t="inlineStr"/>
       <c r="N453" t="inlineStr"/>
+      <c r="O453" t="inlineStr"/>
+      <c r="P453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -16272,6 +17194,8 @@
       </c>
       <c r="M454" t="inlineStr"/>
       <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr"/>
+      <c r="P454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -16306,6 +17230,8 @@
       </c>
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr"/>
+      <c r="O455" t="inlineStr"/>
+      <c r="P455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -16340,6 +17266,8 @@
       </c>
       <c r="M456" t="inlineStr"/>
       <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr"/>
+      <c r="P456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -16374,6 +17302,8 @@
       </c>
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr"/>
+      <c r="O457" t="inlineStr"/>
+      <c r="P457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -16410,6 +17340,8 @@
       </c>
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -16444,6 +17376,8 @@
       </c>
       <c r="M459" t="inlineStr"/>
       <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -16480,6 +17414,8 @@
       </c>
       <c r="M460" t="inlineStr"/>
       <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -16514,6 +17450,8 @@
       </c>
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -16548,6 +17486,8 @@
       </c>
       <c r="M462" t="inlineStr"/>
       <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -16582,6 +17522,8 @@
       </c>
       <c r="M463" t="inlineStr"/>
       <c r="N463" t="inlineStr"/>
+      <c r="O463" t="inlineStr"/>
+      <c r="P463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -16616,6 +17558,8 @@
       </c>
       <c r="M464" t="inlineStr"/>
       <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -16650,6 +17594,8 @@
       </c>
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr"/>
+      <c r="O465" t="inlineStr"/>
+      <c r="P465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -16688,6 +17634,8 @@
       </c>
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr"/>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -16722,6 +17670,8 @@
       </c>
       <c r="M467" t="inlineStr"/>
       <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -16756,6 +17706,8 @@
       </c>
       <c r="M468" t="inlineStr"/>
       <c r="N468" t="inlineStr"/>
+      <c r="O468" t="inlineStr"/>
+      <c r="P468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -16794,6 +17746,8 @@
       </c>
       <c r="M469" t="inlineStr"/>
       <c r="N469" t="inlineStr"/>
+      <c r="O469" t="inlineStr"/>
+      <c r="P469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -16832,6 +17786,8 @@
       </c>
       <c r="M470" t="inlineStr"/>
       <c r="N470" t="inlineStr"/>
+      <c r="O470" t="inlineStr"/>
+      <c r="P470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -16866,6 +17822,8 @@
       </c>
       <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr"/>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -16904,6 +17862,8 @@
       </c>
       <c r="M472" t="inlineStr"/>
       <c r="N472" t="inlineStr"/>
+      <c r="O472" t="inlineStr"/>
+      <c r="P472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -16938,6 +17898,8 @@
       </c>
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr"/>
+      <c r="P473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -16972,6 +17934,8 @@
       </c>
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr"/>
+      <c r="P474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -17006,6 +17970,8 @@
       </c>
       <c r="M475" t="inlineStr"/>
       <c r="N475" t="inlineStr"/>
+      <c r="O475" t="inlineStr"/>
+      <c r="P475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -17042,6 +18008,8 @@
       </c>
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr"/>
+      <c r="P476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -17076,6 +18044,8 @@
       </c>
       <c r="M477" t="inlineStr"/>
       <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr"/>
+      <c r="P477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -17114,6 +18084,8 @@
       </c>
       <c r="M478" t="inlineStr"/>
       <c r="N478" t="inlineStr"/>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -17150,6 +18122,8 @@
       </c>
       <c r="M479" t="inlineStr"/>
       <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr"/>
+      <c r="P479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -17186,6 +18160,8 @@
       </c>
       <c r="M480" t="inlineStr"/>
       <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr"/>
+      <c r="P480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -17222,6 +18198,8 @@
       </c>
       <c r="M481" t="inlineStr"/>
       <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr"/>
+      <c r="P481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -17256,6 +18234,8 @@
       </c>
       <c r="M482" t="inlineStr"/>
       <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -17292,6 +18272,8 @@
       </c>
       <c r="M483" t="inlineStr"/>
       <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -17326,6 +18308,8 @@
       </c>
       <c r="M484" t="inlineStr"/>
       <c r="N484" t="inlineStr"/>
+      <c r="O484" t="inlineStr"/>
+      <c r="P484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -17360,6 +18344,8 @@
       </c>
       <c r="M485" t="inlineStr"/>
       <c r="N485" t="inlineStr"/>
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -17394,6 +18380,8 @@
       </c>
       <c r="M486" t="inlineStr"/>
       <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr"/>
+      <c r="P486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -17428,6 +18416,8 @@
       </c>
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr"/>
+      <c r="P487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -17462,6 +18452,8 @@
       </c>
       <c r="M488" t="inlineStr"/>
       <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -17496,6 +18488,8 @@
       </c>
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr"/>
+      <c r="O489" t="inlineStr"/>
+      <c r="P489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -17530,6 +18524,8 @@
       </c>
       <c r="M490" t="inlineStr"/>
       <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr"/>
+      <c r="P490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -17564,6 +18560,8 @@
       </c>
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr"/>
+      <c r="P491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -17602,6 +18600,8 @@
       </c>
       <c r="M492" t="inlineStr"/>
       <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr"/>
+      <c r="P492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -17636,6 +18636,8 @@
       </c>
       <c r="M493" t="inlineStr"/>
       <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr"/>
+      <c r="P493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -17670,6 +18672,8 @@
       </c>
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr"/>
+      <c r="P494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -17706,6 +18710,8 @@
       </c>
       <c r="M495" t="inlineStr"/>
       <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr"/>
+      <c r="P495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -17740,6 +18746,8 @@
       </c>
       <c r="M496" t="inlineStr"/>
       <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr"/>
+      <c r="P496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -17778,6 +18786,8 @@
       </c>
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr"/>
+      <c r="P497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -17816,6 +18826,8 @@
       </c>
       <c r="M498" t="inlineStr"/>
       <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr"/>
+      <c r="P498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -17850,6 +18862,8 @@
       </c>
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr"/>
+      <c r="P499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -17884,6 +18898,8 @@
       </c>
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr"/>
+      <c r="P500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -17920,6 +18936,8 @@
       </c>
       <c r="M501" t="inlineStr"/>
       <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr"/>
+      <c r="P501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -17954,6 +18972,8 @@
       </c>
       <c r="M502" t="inlineStr"/>
       <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -17988,6 +19008,8 @@
       </c>
       <c r="M503" t="inlineStr"/>
       <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr"/>
+      <c r="P503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -18026,6 +19048,8 @@
       </c>
       <c r="M504" t="inlineStr"/>
       <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr"/>
+      <c r="P504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -18060,6 +19084,8 @@
       </c>
       <c r="M505" t="inlineStr"/>
       <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr"/>
+      <c r="P505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -18094,6 +19120,8 @@
       </c>
       <c r="M506" t="inlineStr"/>
       <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr"/>
+      <c r="P506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -18128,6 +19156,8 @@
       </c>
       <c r="M507" t="inlineStr"/>
       <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr"/>
+      <c r="P507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -18162,6 +19192,8 @@
       </c>
       <c r="M508" t="inlineStr"/>
       <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -18196,6 +19228,8 @@
       </c>
       <c r="M509" t="inlineStr"/>
       <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr"/>
+      <c r="P509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -18234,6 +19268,8 @@
       </c>
       <c r="M510" t="inlineStr"/>
       <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -18272,6 +19308,8 @@
       </c>
       <c r="M511" t="inlineStr"/>
       <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -18310,6 +19348,8 @@
       </c>
       <c r="M512" t="inlineStr"/>
       <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -18348,6 +19388,8 @@
       </c>
       <c r="M513" t="inlineStr"/>
       <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr"/>
+      <c r="P513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -18386,6 +19428,8 @@
       </c>
       <c r="M514" t="inlineStr"/>
       <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -18424,6 +19468,8 @@
       </c>
       <c r="M515" t="inlineStr"/>
       <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr"/>
+      <c r="P515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -18462,6 +19508,8 @@
       </c>
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr"/>
+      <c r="P516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -18500,6 +19548,8 @@
       </c>
       <c r="M517" t="inlineStr"/>
       <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr"/>
+      <c r="P517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -18534,6 +19584,8 @@
       </c>
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr"/>
+      <c r="P518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -18568,6 +19620,8 @@
       </c>
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -18602,6 +19656,8 @@
       </c>
       <c r="M520" t="inlineStr"/>
       <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -18636,6 +19692,8 @@
       </c>
       <c r="M521" t="inlineStr"/>
       <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -18670,6 +19728,8 @@
       </c>
       <c r="M522" t="inlineStr"/>
       <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -18704,6 +19764,8 @@
       </c>
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr"/>
+      <c r="P523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -18738,6 +19800,8 @@
       </c>
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -18776,6 +19840,8 @@
       </c>
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr"/>
+      <c r="P525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -18810,6 +19876,8 @@
       </c>
       <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr"/>
+      <c r="P526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -18844,6 +19912,8 @@
       </c>
       <c r="M527" t="inlineStr"/>
       <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr"/>
+      <c r="P527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -18878,6 +19948,8 @@
       </c>
       <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -18912,6 +19984,8 @@
       </c>
       <c r="M529" t="inlineStr"/>
       <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -18946,6 +20020,8 @@
       </c>
       <c r="M530" t="inlineStr"/>
       <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr"/>
+      <c r="P530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -18984,6 +20060,8 @@
       </c>
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr"/>
+      <c r="P531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -19018,6 +20096,8 @@
       </c>
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr"/>
+      <c r="P532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -19052,6 +20132,8 @@
       </c>
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr"/>
+      <c r="P533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -19086,6 +20168,8 @@
       </c>
       <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr"/>
+      <c r="P534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -19120,6 +20204,8 @@
       </c>
       <c r="M535" t="inlineStr"/>
       <c r="N535" t="inlineStr"/>
+      <c r="O535" t="inlineStr"/>
+      <c r="P535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -19158,6 +20244,8 @@
       </c>
       <c r="M536" t="inlineStr"/>
       <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -19196,6 +20284,8 @@
       </c>
       <c r="M537" t="inlineStr"/>
       <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -19230,6 +20320,8 @@
       </c>
       <c r="M538" t="inlineStr"/>
       <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -19264,6 +20356,8 @@
       </c>
       <c r="M539" t="inlineStr"/>
       <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -19298,6 +20392,8 @@
       </c>
       <c r="M540" t="inlineStr"/>
       <c r="N540" t="inlineStr"/>
+      <c r="O540" t="inlineStr"/>
+      <c r="P540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -19332,6 +20428,8 @@
       </c>
       <c r="M541" t="inlineStr"/>
       <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -19366,6 +20464,8 @@
       </c>
       <c r="M542" t="inlineStr"/>
       <c r="N542" t="inlineStr"/>
+      <c r="O542" t="inlineStr"/>
+      <c r="P542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -19400,6 +20500,8 @@
       </c>
       <c r="M543" t="inlineStr"/>
       <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr"/>
+      <c r="P543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -19428,6 +20530,8 @@
       </c>
       <c r="M544" t="inlineStr"/>
       <c r="N544" t="inlineStr"/>
+      <c r="O544" t="inlineStr"/>
+      <c r="P544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -19462,6 +20566,8 @@
       </c>
       <c r="M545" t="inlineStr"/>
       <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr"/>
+      <c r="P545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -19490,6 +20596,8 @@
       </c>
       <c r="M546" t="inlineStr"/>
       <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -19524,6 +20632,8 @@
       </c>
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -19552,6 +20662,8 @@
       </c>
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -19580,6 +20692,8 @@
       </c>
       <c r="M549" t="inlineStr"/>
       <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr"/>
+      <c r="P549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -19614,6 +20728,8 @@
       </c>
       <c r="M550" t="inlineStr"/>
       <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -19652,6 +20768,8 @@
       </c>
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -19686,6 +20804,8 @@
       </c>
       <c r="M552" t="inlineStr"/>
       <c r="N552" t="inlineStr"/>
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -19724,6 +20844,8 @@
       </c>
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -19762,6 +20884,8 @@
       </c>
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -19800,6 +20924,8 @@
       </c>
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr"/>
+      <c r="P555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -19838,6 +20964,8 @@
       </c>
       <c r="M556" t="inlineStr"/>
       <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -19876,6 +21004,8 @@
       </c>
       <c r="M557" t="inlineStr"/>
       <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr"/>
+      <c r="P557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -19914,6 +21044,8 @@
       </c>
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -19948,6 +21080,8 @@
       </c>
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr"/>
+      <c r="O559" t="inlineStr"/>
+      <c r="P559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -19982,6 +21116,8 @@
       </c>
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr"/>
+      <c r="P560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -20016,6 +21152,8 @@
       </c>
       <c r="M561" t="inlineStr"/>
       <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -20050,6 +21188,8 @@
       </c>
       <c r="M562" t="inlineStr"/>
       <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -20084,6 +21224,8 @@
       </c>
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr"/>
+      <c r="P563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -20118,6 +21260,8 @@
       </c>
       <c r="M564" t="inlineStr"/>
       <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -20152,6 +21296,8 @@
       </c>
       <c r="M565" t="inlineStr"/>
       <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -20186,6 +21332,8 @@
       </c>
       <c r="M566" t="inlineStr"/>
       <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
+      <c r="P566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -20220,6 +21368,8 @@
       </c>
       <c r="M567" t="inlineStr"/>
       <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -20256,6 +21406,8 @@
       </c>
       <c r="M568" t="inlineStr"/>
       <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
+      <c r="P568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -20294,6 +21446,8 @@
       </c>
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
+      <c r="P569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -20332,6 +21486,8 @@
       </c>
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr"/>
+      <c r="P570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -20370,6 +21526,8 @@
       </c>
       <c r="M571" t="inlineStr"/>
       <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
+      <c r="P571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -20408,6 +21566,8 @@
       </c>
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
+      <c r="P572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -20442,6 +21602,8 @@
       </c>
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
+      <c r="P573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -20476,6 +21638,8 @@
       </c>
       <c r="M574" t="inlineStr"/>
       <c r="N574" t="inlineStr"/>
+      <c r="O574" t="inlineStr"/>
+      <c r="P574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -20510,6 +21674,8 @@
       </c>
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr"/>
+      <c r="P575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -20548,6 +21714,8 @@
       </c>
       <c r="M576" t="inlineStr"/>
       <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -20582,6 +21750,8 @@
       </c>
       <c r="M577" t="inlineStr"/>
       <c r="N577" t="inlineStr"/>
+      <c r="O577" t="inlineStr"/>
+      <c r="P577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -20620,6 +21790,8 @@
       </c>
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr"/>
+      <c r="O578" t="inlineStr"/>
+      <c r="P578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -20658,6 +21830,8 @@
       </c>
       <c r="M579" t="inlineStr"/>
       <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr"/>
+      <c r="P579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -20696,6 +21870,8 @@
       </c>
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr"/>
+      <c r="O580" t="inlineStr"/>
+      <c r="P580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -20734,6 +21910,8 @@
       </c>
       <c r="M581" t="inlineStr"/>
       <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr"/>
+      <c r="P581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -20772,6 +21950,8 @@
       </c>
       <c r="M582" t="inlineStr"/>
       <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr"/>
+      <c r="P582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -20810,6 +21990,8 @@
       </c>
       <c r="M583" t="inlineStr"/>
       <c r="N583" t="inlineStr"/>
+      <c r="O583" t="inlineStr"/>
+      <c r="P583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -20844,6 +22026,8 @@
       </c>
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr"/>
+      <c r="O584" t="inlineStr"/>
+      <c r="P584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -20882,6 +22066,8 @@
       </c>
       <c r="M585" t="inlineStr"/>
       <c r="N585" t="inlineStr"/>
+      <c r="O585" t="inlineStr"/>
+      <c r="P585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -20920,6 +22106,8 @@
       </c>
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr"/>
+      <c r="O586" t="inlineStr"/>
+      <c r="P586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -20958,6 +22146,8 @@
       </c>
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr"/>
+      <c r="O587" t="inlineStr"/>
+      <c r="P587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -20996,6 +22186,8 @@
       </c>
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr"/>
+      <c r="P588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -21034,6 +22226,8 @@
       </c>
       <c r="M589" t="inlineStr"/>
       <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr"/>
+      <c r="P589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -21072,6 +22266,8 @@
       </c>
       <c r="M590" t="inlineStr"/>
       <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr"/>
+      <c r="P590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -21110,6 +22306,8 @@
       </c>
       <c r="M591" t="inlineStr"/>
       <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr"/>
+      <c r="P591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -21148,6 +22346,8 @@
       </c>
       <c r="M592" t="inlineStr"/>
       <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -21186,6 +22386,8 @@
       </c>
       <c r="M593" t="inlineStr"/>
       <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr"/>
+      <c r="P593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -21224,6 +22426,8 @@
       </c>
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr"/>
+      <c r="O594" t="inlineStr"/>
+      <c r="P594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -21262,6 +22466,8 @@
       </c>
       <c r="M595" t="inlineStr"/>
       <c r="N595" t="inlineStr"/>
+      <c r="O595" t="inlineStr"/>
+      <c r="P595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -21300,6 +22506,8 @@
       </c>
       <c r="M596" t="inlineStr"/>
       <c r="N596" t="inlineStr"/>
+      <c r="O596" t="inlineStr"/>
+      <c r="P596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -21334,6 +22542,8 @@
       </c>
       <c r="M597" t="inlineStr"/>
       <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr"/>
+      <c r="P597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -21372,6 +22582,8 @@
       </c>
       <c r="M598" t="inlineStr"/>
       <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr"/>
+      <c r="P598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -21410,6 +22622,8 @@
       </c>
       <c r="M599" t="inlineStr"/>
       <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr"/>
+      <c r="P599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -21448,6 +22662,8 @@
       </c>
       <c r="M600" t="inlineStr"/>
       <c r="N600" t="inlineStr"/>
+      <c r="O600" t="inlineStr"/>
+      <c r="P600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -21486,6 +22702,8 @@
       </c>
       <c r="M601" t="inlineStr"/>
       <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr"/>
+      <c r="P601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -21524,6 +22742,8 @@
       </c>
       <c r="M602" t="inlineStr"/>
       <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr"/>
+      <c r="P602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -21562,6 +22782,8 @@
       </c>
       <c r="M603" t="inlineStr"/>
       <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -21600,6 +22822,8 @@
       </c>
       <c r="M604" t="inlineStr"/>
       <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -21638,6 +22862,8 @@
       </c>
       <c r="M605" t="inlineStr"/>
       <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr"/>
+      <c r="P605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -21676,6 +22902,8 @@
       </c>
       <c r="M606" t="inlineStr"/>
       <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr"/>
+      <c r="P606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -21712,6 +22940,8 @@
       </c>
       <c r="M607" t="inlineStr"/>
       <c r="N607" t="inlineStr"/>
+      <c r="O607" t="inlineStr"/>
+      <c r="P607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -21748,6 +22978,8 @@
       </c>
       <c r="M608" t="inlineStr"/>
       <c r="N608" t="inlineStr"/>
+      <c r="O608" t="inlineStr"/>
+      <c r="P608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -21782,6 +23014,8 @@
       </c>
       <c r="M609" t="inlineStr"/>
       <c r="N609" t="inlineStr"/>
+      <c r="O609" t="inlineStr"/>
+      <c r="P609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -21818,6 +23052,8 @@
       </c>
       <c r="M610" t="inlineStr"/>
       <c r="N610" t="inlineStr"/>
+      <c r="O610" t="inlineStr"/>
+      <c r="P610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -21852,6 +23088,8 @@
       </c>
       <c r="M611" t="inlineStr"/>
       <c r="N611" t="inlineStr"/>
+      <c r="O611" t="inlineStr"/>
+      <c r="P611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -21886,6 +23124,8 @@
       </c>
       <c r="M612" t="inlineStr"/>
       <c r="N612" t="inlineStr"/>
+      <c r="O612" t="inlineStr"/>
+      <c r="P612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -21920,6 +23160,8 @@
       </c>
       <c r="M613" t="inlineStr"/>
       <c r="N613" t="inlineStr"/>
+      <c r="O613" t="inlineStr"/>
+      <c r="P613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -21948,6 +23190,8 @@
       </c>
       <c r="M614" t="inlineStr"/>
       <c r="N614" t="inlineStr"/>
+      <c r="O614" t="inlineStr"/>
+      <c r="P614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -21976,6 +23220,8 @@
       </c>
       <c r="M615" t="inlineStr"/>
       <c r="N615" t="inlineStr"/>
+      <c r="O615" t="inlineStr"/>
+      <c r="P615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -22010,6 +23256,8 @@
       </c>
       <c r="M616" t="inlineStr"/>
       <c r="N616" t="inlineStr"/>
+      <c r="O616" t="inlineStr"/>
+      <c r="P616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -22044,6 +23292,8 @@
       </c>
       <c r="M617" t="inlineStr"/>
       <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr"/>
+      <c r="P617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -22078,6 +23328,8 @@
       </c>
       <c r="M618" t="inlineStr"/>
       <c r="N618" t="inlineStr"/>
+      <c r="O618" t="inlineStr"/>
+      <c r="P618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -22112,6 +23364,8 @@
       </c>
       <c r="M619" t="inlineStr"/>
       <c r="N619" t="inlineStr"/>
+      <c r="O619" t="inlineStr"/>
+      <c r="P619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -22146,6 +23400,8 @@
       </c>
       <c r="M620" t="inlineStr"/>
       <c r="N620" t="inlineStr"/>
+      <c r="O620" t="inlineStr"/>
+      <c r="P620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -22180,6 +23436,8 @@
       </c>
       <c r="M621" t="inlineStr"/>
       <c r="N621" t="inlineStr"/>
+      <c r="O621" t="inlineStr"/>
+      <c r="P621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -22208,6 +23466,8 @@
       </c>
       <c r="M622" t="inlineStr"/>
       <c r="N622" t="inlineStr"/>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -22242,6 +23502,8 @@
       </c>
       <c r="M623" t="inlineStr"/>
       <c r="N623" t="inlineStr"/>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -22276,6 +23538,8 @@
       </c>
       <c r="M624" t="inlineStr"/>
       <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr"/>
+      <c r="P624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -22304,6 +23568,8 @@
       </c>
       <c r="M625" t="inlineStr"/>
       <c r="N625" t="inlineStr"/>
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -22342,6 +23608,8 @@
       </c>
       <c r="M626" t="inlineStr"/>
       <c r="N626" t="inlineStr"/>
+      <c r="O626" t="inlineStr"/>
+      <c r="P626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -22376,6 +23644,8 @@
       </c>
       <c r="M627" t="inlineStr"/>
       <c r="N627" t="inlineStr"/>
+      <c r="O627" t="inlineStr"/>
+      <c r="P627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -22410,6 +23680,8 @@
       </c>
       <c r="M628" t="inlineStr"/>
       <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr"/>
+      <c r="P628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -22444,6 +23716,8 @@
       </c>
       <c r="M629" t="inlineStr"/>
       <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
+      <c r="P629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -22478,6 +23752,8 @@
       </c>
       <c r="M630" t="inlineStr"/>
       <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
+      <c r="P630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -22512,6 +23788,8 @@
       </c>
       <c r="M631" t="inlineStr"/>
       <c r="N631" t="inlineStr"/>
+      <c r="O631" t="inlineStr"/>
+      <c r="P631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -22546,6 +23824,8 @@
       </c>
       <c r="M632" t="inlineStr"/>
       <c r="N632" t="inlineStr"/>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -22580,6 +23860,8 @@
       </c>
       <c r="M633" t="inlineStr"/>
       <c r="N633" t="inlineStr"/>
+      <c r="O633" t="inlineStr"/>
+      <c r="P633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -22618,6 +23900,8 @@
       </c>
       <c r="M634" t="inlineStr"/>
       <c r="N634" t="inlineStr"/>
+      <c r="O634" t="inlineStr"/>
+      <c r="P634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -22652,6 +23936,8 @@
       </c>
       <c r="M635" t="inlineStr"/>
       <c r="N635" t="inlineStr"/>
+      <c r="O635" t="inlineStr"/>
+      <c r="P635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -22686,6 +23972,8 @@
       </c>
       <c r="M636" t="inlineStr"/>
       <c r="N636" t="inlineStr"/>
+      <c r="O636" t="inlineStr"/>
+      <c r="P636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -22720,6 +24008,8 @@
       </c>
       <c r="M637" t="inlineStr"/>
       <c r="N637" t="inlineStr"/>
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -22754,6 +24044,8 @@
       </c>
       <c r="M638" t="inlineStr"/>
       <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr"/>
+      <c r="P638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -22792,6 +24084,8 @@
       </c>
       <c r="M639" t="inlineStr"/>
       <c r="N639" t="inlineStr"/>
+      <c r="O639" t="inlineStr"/>
+      <c r="P639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -22830,6 +24124,8 @@
       </c>
       <c r="M640" t="inlineStr"/>
       <c r="N640" t="inlineStr"/>
+      <c r="O640" t="inlineStr"/>
+      <c r="P640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -22868,6 +24164,8 @@
       </c>
       <c r="M641" t="inlineStr"/>
       <c r="N641" t="inlineStr"/>
+      <c r="O641" t="inlineStr"/>
+      <c r="P641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -22906,6 +24204,8 @@
       </c>
       <c r="M642" t="inlineStr"/>
       <c r="N642" t="inlineStr"/>
+      <c r="O642" t="inlineStr"/>
+      <c r="P642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -22940,6 +24240,8 @@
       </c>
       <c r="M643" t="inlineStr"/>
       <c r="N643" t="inlineStr"/>
+      <c r="O643" t="inlineStr"/>
+      <c r="P643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -22974,6 +24276,8 @@
       </c>
       <c r="M644" t="inlineStr"/>
       <c r="N644" t="inlineStr"/>
+      <c r="O644" t="inlineStr"/>
+      <c r="P644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -23008,6 +24312,8 @@
       </c>
       <c r="M645" t="inlineStr"/>
       <c r="N645" t="inlineStr"/>
+      <c r="O645" t="inlineStr"/>
+      <c r="P645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -23042,6 +24348,8 @@
       </c>
       <c r="M646" t="inlineStr"/>
       <c r="N646" t="inlineStr"/>
+      <c r="O646" t="inlineStr"/>
+      <c r="P646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -23076,6 +24384,8 @@
       </c>
       <c r="M647" t="inlineStr"/>
       <c r="N647" t="inlineStr"/>
+      <c r="O647" t="inlineStr"/>
+      <c r="P647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -23104,6 +24414,8 @@
       </c>
       <c r="M648" t="inlineStr"/>
       <c r="N648" t="inlineStr"/>
+      <c r="O648" t="inlineStr"/>
+      <c r="P648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -23138,6 +24450,8 @@
       </c>
       <c r="M649" t="inlineStr"/>
       <c r="N649" t="inlineStr"/>
+      <c r="O649" t="inlineStr"/>
+      <c r="P649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -23166,6 +24480,8 @@
       </c>
       <c r="M650" t="inlineStr"/>
       <c r="N650" t="inlineStr"/>
+      <c r="O650" t="inlineStr"/>
+      <c r="P650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -23204,6 +24520,8 @@
       </c>
       <c r="M651" t="inlineStr"/>
       <c r="N651" t="inlineStr"/>
+      <c r="O651" t="inlineStr"/>
+      <c r="P651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -23238,6 +24556,8 @@
       </c>
       <c r="M652" t="inlineStr"/>
       <c r="N652" t="inlineStr"/>
+      <c r="O652" t="inlineStr"/>
+      <c r="P652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -23276,6 +24596,8 @@
       </c>
       <c r="M653" t="inlineStr"/>
       <c r="N653" t="inlineStr"/>
+      <c r="O653" t="inlineStr"/>
+      <c r="P653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -23314,6 +24636,8 @@
       </c>
       <c r="M654" t="inlineStr"/>
       <c r="N654" t="inlineStr"/>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -23352,6 +24676,8 @@
       </c>
       <c r="M655" t="inlineStr"/>
       <c r="N655" t="inlineStr"/>
+      <c r="O655" t="inlineStr"/>
+      <c r="P655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -23390,6 +24716,8 @@
       </c>
       <c r="M656" t="inlineStr"/>
       <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -23428,6 +24756,8 @@
       </c>
       <c r="M657" t="inlineStr"/>
       <c r="N657" t="inlineStr"/>
+      <c r="O657" t="inlineStr"/>
+      <c r="P657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -23466,6 +24796,8 @@
       </c>
       <c r="M658" t="inlineStr"/>
       <c r="N658" t="inlineStr"/>
+      <c r="O658" t="inlineStr"/>
+      <c r="P658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -23504,6 +24836,8 @@
       </c>
       <c r="M659" t="inlineStr"/>
       <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr"/>
+      <c r="P659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -23542,6 +24876,8 @@
       </c>
       <c r="M660" t="inlineStr"/>
       <c r="N660" t="inlineStr"/>
+      <c r="O660" t="inlineStr"/>
+      <c r="P660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -23580,6 +24916,8 @@
       </c>
       <c r="M661" t="inlineStr"/>
       <c r="N661" t="inlineStr"/>
+      <c r="O661" t="inlineStr"/>
+      <c r="P661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -23618,6 +24956,8 @@
       </c>
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="inlineStr"/>
+      <c r="O662" t="inlineStr"/>
+      <c r="P662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -23656,6 +24996,8 @@
       </c>
       <c r="M663" t="inlineStr"/>
       <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr"/>
+      <c r="P663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -23690,6 +25032,8 @@
       </c>
       <c r="M664" t="inlineStr"/>
       <c r="N664" t="inlineStr"/>
+      <c r="O664" t="inlineStr"/>
+      <c r="P664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -23724,6 +25068,8 @@
       </c>
       <c r="M665" t="inlineStr"/>
       <c r="N665" t="inlineStr"/>
+      <c r="O665" t="inlineStr"/>
+      <c r="P665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -23762,6 +25108,8 @@
       </c>
       <c r="M666" t="inlineStr"/>
       <c r="N666" t="inlineStr"/>
+      <c r="O666" t="inlineStr"/>
+      <c r="P666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -23800,6 +25148,8 @@
       </c>
       <c r="M667" t="inlineStr"/>
       <c r="N667" t="inlineStr"/>
+      <c r="O667" t="inlineStr"/>
+      <c r="P667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -23838,6 +25188,8 @@
       </c>
       <c r="M668" t="inlineStr"/>
       <c r="N668" t="inlineStr"/>
+      <c r="O668" t="inlineStr"/>
+      <c r="P668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -23872,6 +25224,8 @@
       </c>
       <c r="M669" t="inlineStr"/>
       <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr"/>
+      <c r="P669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -23910,6 +25264,8 @@
       </c>
       <c r="M670" t="inlineStr"/>
       <c r="N670" t="inlineStr"/>
+      <c r="O670" t="inlineStr"/>
+      <c r="P670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -23944,6 +25300,8 @@
       </c>
       <c r="M671" t="inlineStr"/>
       <c r="N671" t="inlineStr"/>
+      <c r="O671" t="inlineStr"/>
+      <c r="P671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -23978,6 +25336,8 @@
       </c>
       <c r="M672" t="inlineStr"/>
       <c r="N672" t="inlineStr"/>
+      <c r="O672" t="inlineStr"/>
+      <c r="P672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -24012,6 +25372,8 @@
       </c>
       <c r="M673" t="inlineStr"/>
       <c r="N673" t="inlineStr"/>
+      <c r="O673" t="inlineStr"/>
+      <c r="P673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -24050,6 +25412,8 @@
       </c>
       <c r="M674" t="inlineStr"/>
       <c r="N674" t="inlineStr"/>
+      <c r="O674" t="inlineStr"/>
+      <c r="P674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -24088,6 +25452,8 @@
       </c>
       <c r="M675" t="inlineStr"/>
       <c r="N675" t="inlineStr"/>
+      <c r="O675" t="inlineStr"/>
+      <c r="P675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -24122,6 +25488,8 @@
       </c>
       <c r="M676" t="inlineStr"/>
       <c r="N676" t="inlineStr"/>
+      <c r="O676" t="inlineStr"/>
+      <c r="P676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -24160,6 +25528,8 @@
       </c>
       <c r="M677" t="inlineStr"/>
       <c r="N677" t="inlineStr"/>
+      <c r="O677" t="inlineStr"/>
+      <c r="P677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -24198,6 +25568,8 @@
       </c>
       <c r="M678" t="inlineStr"/>
       <c r="N678" t="inlineStr"/>
+      <c r="O678" t="inlineStr"/>
+      <c r="P678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -24236,6 +25608,8 @@
       </c>
       <c r="M679" t="inlineStr"/>
       <c r="N679" t="inlineStr"/>
+      <c r="O679" t="inlineStr"/>
+      <c r="P679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -24274,6 +25648,8 @@
       </c>
       <c r="M680" t="inlineStr"/>
       <c r="N680" t="inlineStr"/>
+      <c r="O680" t="inlineStr"/>
+      <c r="P680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -24312,6 +25688,8 @@
       </c>
       <c r="M681" t="inlineStr"/>
       <c r="N681" t="inlineStr"/>
+      <c r="O681" t="inlineStr"/>
+      <c r="P681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -24350,6 +25728,8 @@
       </c>
       <c r="M682" t="inlineStr"/>
       <c r="N682" t="inlineStr"/>
+      <c r="O682" t="inlineStr"/>
+      <c r="P682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -24388,6 +25768,8 @@
       </c>
       <c r="M683" t="inlineStr"/>
       <c r="N683" t="inlineStr"/>
+      <c r="O683" t="inlineStr"/>
+      <c r="P683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -24426,6 +25808,8 @@
       </c>
       <c r="M684" t="inlineStr"/>
       <c r="N684" t="inlineStr"/>
+      <c r="O684" t="inlineStr"/>
+      <c r="P684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -24464,6 +25848,8 @@
       </c>
       <c r="M685" t="inlineStr"/>
       <c r="N685" t="inlineStr"/>
+      <c r="O685" t="inlineStr"/>
+      <c r="P685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -24502,6 +25888,8 @@
       </c>
       <c r="M686" t="inlineStr"/>
       <c r="N686" t="inlineStr"/>
+      <c r="O686" t="inlineStr"/>
+      <c r="P686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -24540,6 +25928,8 @@
       </c>
       <c r="M687" t="inlineStr"/>
       <c r="N687" t="inlineStr"/>
+      <c r="O687" t="inlineStr"/>
+      <c r="P687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -24578,6 +25968,8 @@
       </c>
       <c r="M688" t="inlineStr"/>
       <c r="N688" t="inlineStr"/>
+      <c r="O688" t="inlineStr"/>
+      <c r="P688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -24616,6 +26008,8 @@
       </c>
       <c r="M689" t="inlineStr"/>
       <c r="N689" t="inlineStr"/>
+      <c r="O689" t="inlineStr"/>
+      <c r="P689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -24650,6 +26044,8 @@
       </c>
       <c r="M690" t="inlineStr"/>
       <c r="N690" t="inlineStr"/>
+      <c r="O690" t="inlineStr"/>
+      <c r="P690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -24684,6 +26080,8 @@
       </c>
       <c r="M691" t="inlineStr"/>
       <c r="N691" t="inlineStr"/>
+      <c r="O691" t="inlineStr"/>
+      <c r="P691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -24718,6 +26116,8 @@
       </c>
       <c r="M692" t="inlineStr"/>
       <c r="N692" t="inlineStr"/>
+      <c r="O692" t="inlineStr"/>
+      <c r="P692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -24756,6 +26156,8 @@
       </c>
       <c r="M693" t="inlineStr"/>
       <c r="N693" t="inlineStr"/>
+      <c r="O693" t="inlineStr"/>
+      <c r="P693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -24794,6 +26196,8 @@
       </c>
       <c r="M694" t="inlineStr"/>
       <c r="N694" t="inlineStr"/>
+      <c r="O694" t="inlineStr"/>
+      <c r="P694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -24832,6 +26236,8 @@
       </c>
       <c r="M695" t="inlineStr"/>
       <c r="N695" t="inlineStr"/>
+      <c r="O695" t="inlineStr"/>
+      <c r="P695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -24870,6 +26276,8 @@
       </c>
       <c r="M696" t="inlineStr"/>
       <c r="N696" t="inlineStr"/>
+      <c r="O696" t="inlineStr"/>
+      <c r="P696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -24908,6 +26316,8 @@
       </c>
       <c r="M697" t="inlineStr"/>
       <c r="N697" t="inlineStr"/>
+      <c r="O697" t="inlineStr"/>
+      <c r="P697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -24942,6 +26352,8 @@
       </c>
       <c r="M698" t="inlineStr"/>
       <c r="N698" t="inlineStr"/>
+      <c r="O698" t="inlineStr"/>
+      <c r="P698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -24980,6 +26392,8 @@
       </c>
       <c r="M699" t="inlineStr"/>
       <c r="N699" t="inlineStr"/>
+      <c r="O699" t="inlineStr"/>
+      <c r="P699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -25018,6 +26432,8 @@
       </c>
       <c r="M700" t="inlineStr"/>
       <c r="N700" t="inlineStr"/>
+      <c r="O700" t="inlineStr"/>
+      <c r="P700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -25052,6 +26468,8 @@
       </c>
       <c r="M701" t="inlineStr"/>
       <c r="N701" t="inlineStr"/>
+      <c r="O701" t="inlineStr"/>
+      <c r="P701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -25086,6 +26504,8 @@
       </c>
       <c r="M702" t="inlineStr"/>
       <c r="N702" t="inlineStr"/>
+      <c r="O702" t="inlineStr"/>
+      <c r="P702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -25120,6 +26540,8 @@
       </c>
       <c r="M703" t="inlineStr"/>
       <c r="N703" t="inlineStr"/>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -25158,6 +26580,8 @@
       </c>
       <c r="M704" t="inlineStr"/>
       <c r="N704" t="inlineStr"/>
+      <c r="O704" t="inlineStr"/>
+      <c r="P704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -25196,6 +26620,8 @@
       </c>
       <c r="M705" t="inlineStr"/>
       <c r="N705" t="inlineStr"/>
+      <c r="O705" t="inlineStr"/>
+      <c r="P705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -25234,6 +26660,8 @@
       </c>
       <c r="M706" t="inlineStr"/>
       <c r="N706" t="inlineStr"/>
+      <c r="O706" t="inlineStr"/>
+      <c r="P706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -25272,6 +26700,8 @@
       </c>
       <c r="M707" t="inlineStr"/>
       <c r="N707" t="inlineStr"/>
+      <c r="O707" t="inlineStr"/>
+      <c r="P707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -25306,6 +26736,8 @@
       </c>
       <c r="M708" t="inlineStr"/>
       <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -25344,6 +26776,8 @@
       </c>
       <c r="M709" t="inlineStr"/>
       <c r="N709" t="inlineStr"/>
+      <c r="O709" t="inlineStr"/>
+      <c r="P709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -25382,6 +26816,8 @@
       </c>
       <c r="M710" t="inlineStr"/>
       <c r="N710" t="inlineStr"/>
+      <c r="O710" t="inlineStr"/>
+      <c r="P710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -25416,6 +26852,8 @@
       </c>
       <c r="M711" t="inlineStr"/>
       <c r="N711" t="inlineStr"/>
+      <c r="O711" t="inlineStr"/>
+      <c r="P711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -25450,6 +26888,8 @@
       </c>
       <c r="M712" t="inlineStr"/>
       <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr"/>
+      <c r="P712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -25484,6 +26924,8 @@
       </c>
       <c r="M713" t="inlineStr"/>
       <c r="N713" t="inlineStr"/>
+      <c r="O713" t="inlineStr"/>
+      <c r="P713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -25518,6 +26960,8 @@
       </c>
       <c r="M714" t="inlineStr"/>
       <c r="N714" t="inlineStr"/>
+      <c r="O714" t="inlineStr"/>
+      <c r="P714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -25556,6 +27000,8 @@
       </c>
       <c r="M715" t="inlineStr"/>
       <c r="N715" t="inlineStr"/>
+      <c r="O715" t="inlineStr"/>
+      <c r="P715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -25590,6 +27036,8 @@
       </c>
       <c r="M716" t="inlineStr"/>
       <c r="N716" t="inlineStr"/>
+      <c r="O716" t="inlineStr"/>
+      <c r="P716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -25624,6 +27072,8 @@
       </c>
       <c r="M717" t="inlineStr"/>
       <c r="N717" t="inlineStr"/>
+      <c r="O717" t="inlineStr"/>
+      <c r="P717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -25658,6 +27108,8 @@
       </c>
       <c r="M718" t="inlineStr"/>
       <c r="N718" t="inlineStr"/>
+      <c r="O718" t="inlineStr"/>
+      <c r="P718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -25692,6 +27144,8 @@
       </c>
       <c r="M719" t="inlineStr"/>
       <c r="N719" t="inlineStr"/>
+      <c r="O719" t="inlineStr"/>
+      <c r="P719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -25726,6 +27180,8 @@
       </c>
       <c r="M720" t="inlineStr"/>
       <c r="N720" t="inlineStr"/>
+      <c r="O720" t="inlineStr"/>
+      <c r="P720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -25764,6 +27220,8 @@
       </c>
       <c r="M721" t="inlineStr"/>
       <c r="N721" t="inlineStr"/>
+      <c r="O721" t="inlineStr"/>
+      <c r="P721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -25802,6 +27260,8 @@
       </c>
       <c r="M722" t="inlineStr"/>
       <c r="N722" t="inlineStr"/>
+      <c r="O722" t="inlineStr"/>
+      <c r="P722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -25840,6 +27300,8 @@
       </c>
       <c r="M723" t="inlineStr"/>
       <c r="N723" t="inlineStr"/>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -25878,6 +27340,8 @@
       </c>
       <c r="M724" t="inlineStr"/>
       <c r="N724" t="inlineStr"/>
+      <c r="O724" t="inlineStr"/>
+      <c r="P724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -25916,6 +27380,8 @@
       </c>
       <c r="M725" t="inlineStr"/>
       <c r="N725" t="inlineStr"/>
+      <c r="O725" t="inlineStr"/>
+      <c r="P725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -25954,6 +27420,8 @@
       </c>
       <c r="M726" t="inlineStr"/>
       <c r="N726" t="inlineStr"/>
+      <c r="O726" t="inlineStr"/>
+      <c r="P726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -25982,6 +27450,8 @@
       </c>
       <c r="M727" t="inlineStr"/>
       <c r="N727" t="inlineStr"/>
+      <c r="O727" t="inlineStr"/>
+      <c r="P727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -26010,6 +27480,8 @@
       </c>
       <c r="M728" t="inlineStr"/>
       <c r="N728" t="inlineStr"/>
+      <c r="O728" t="inlineStr"/>
+      <c r="P728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -26038,6 +27510,8 @@
       </c>
       <c r="M729" t="inlineStr"/>
       <c r="N729" t="inlineStr"/>
+      <c r="O729" t="inlineStr"/>
+      <c r="P729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -26066,6 +27540,8 @@
       </c>
       <c r="M730" t="inlineStr"/>
       <c r="N730" t="inlineStr"/>
+      <c r="O730" t="inlineStr"/>
+      <c r="P730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -26104,6 +27580,8 @@
       </c>
       <c r="M731" t="inlineStr"/>
       <c r="N731" t="inlineStr"/>
+      <c r="O731" t="inlineStr"/>
+      <c r="P731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -26138,6 +27616,8 @@
       </c>
       <c r="M732" t="inlineStr"/>
       <c r="N732" t="inlineStr"/>
+      <c r="O732" t="inlineStr"/>
+      <c r="P732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -26166,6 +27646,8 @@
       </c>
       <c r="M733" t="inlineStr"/>
       <c r="N733" t="inlineStr"/>
+      <c r="O733" t="inlineStr"/>
+      <c r="P733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -26194,6 +27676,8 @@
       </c>
       <c r="M734" t="inlineStr"/>
       <c r="N734" t="inlineStr"/>
+      <c r="O734" t="inlineStr"/>
+      <c r="P734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -26222,6 +27706,8 @@
       </c>
       <c r="M735" t="inlineStr"/>
       <c r="N735" t="inlineStr"/>
+      <c r="O735" t="inlineStr"/>
+      <c r="P735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -26250,6 +27736,8 @@
       </c>
       <c r="M736" t="inlineStr"/>
       <c r="N736" t="inlineStr"/>
+      <c r="O736" t="inlineStr"/>
+      <c r="P736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -26278,6 +27766,8 @@
       </c>
       <c r="M737" t="inlineStr"/>
       <c r="N737" t="inlineStr"/>
+      <c r="O737" t="inlineStr"/>
+      <c r="P737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -26312,6 +27802,8 @@
       </c>
       <c r="M738" t="inlineStr"/>
       <c r="N738" t="inlineStr"/>
+      <c r="O738" t="inlineStr"/>
+      <c r="P738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -26346,6 +27838,8 @@
       </c>
       <c r="M739" t="inlineStr"/>
       <c r="N739" t="inlineStr"/>
+      <c r="O739" t="inlineStr"/>
+      <c r="P739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -26380,6 +27874,8 @@
       </c>
       <c r="M740" t="inlineStr"/>
       <c r="N740" t="inlineStr"/>
+      <c r="O740" t="inlineStr"/>
+      <c r="P740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -26414,6 +27910,8 @@
       </c>
       <c r="M741" t="inlineStr"/>
       <c r="N741" t="inlineStr"/>
+      <c r="O741" t="inlineStr"/>
+      <c r="P741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -26452,6 +27950,8 @@
       </c>
       <c r="M742" t="inlineStr"/>
       <c r="N742" t="inlineStr"/>
+      <c r="O742" t="inlineStr"/>
+      <c r="P742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -26490,6 +27990,8 @@
       </c>
       <c r="M743" t="inlineStr"/>
       <c r="N743" t="inlineStr"/>
+      <c r="O743" t="inlineStr"/>
+      <c r="P743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -26528,6 +28030,8 @@
       </c>
       <c r="M744" t="inlineStr"/>
       <c r="N744" t="inlineStr"/>
+      <c r="O744" t="inlineStr"/>
+      <c r="P744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -26566,6 +28070,8 @@
       </c>
       <c r="M745" t="inlineStr"/>
       <c r="N745" t="inlineStr"/>
+      <c r="O745" t="inlineStr"/>
+      <c r="P745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -26604,6 +28110,8 @@
       </c>
       <c r="M746" t="inlineStr"/>
       <c r="N746" t="inlineStr"/>
+      <c r="O746" t="inlineStr"/>
+      <c r="P746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -26642,6 +28150,8 @@
       </c>
       <c r="M747" t="inlineStr"/>
       <c r="N747" t="inlineStr"/>
+      <c r="O747" t="inlineStr"/>
+      <c r="P747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -26680,6 +28190,8 @@
       </c>
       <c r="M748" t="inlineStr"/>
       <c r="N748" t="inlineStr"/>
+      <c r="O748" t="inlineStr"/>
+      <c r="P748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -26718,6 +28230,8 @@
       </c>
       <c r="M749" t="inlineStr"/>
       <c r="N749" t="inlineStr"/>
+      <c r="O749" t="inlineStr"/>
+      <c r="P749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -26756,6 +28270,8 @@
       </c>
       <c r="M750" t="inlineStr"/>
       <c r="N750" t="inlineStr"/>
+      <c r="O750" t="inlineStr"/>
+      <c r="P750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -26794,6 +28310,8 @@
       </c>
       <c r="M751" t="inlineStr"/>
       <c r="N751" t="inlineStr"/>
+      <c r="O751" t="inlineStr"/>
+      <c r="P751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -26832,6 +28350,8 @@
       </c>
       <c r="M752" t="inlineStr"/>
       <c r="N752" t="inlineStr"/>
+      <c r="O752" t="inlineStr"/>
+      <c r="P752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -26870,6 +28390,8 @@
       </c>
       <c r="M753" t="inlineStr"/>
       <c r="N753" t="inlineStr"/>
+      <c r="O753" t="inlineStr"/>
+      <c r="P753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -26908,6 +28430,8 @@
       </c>
       <c r="M754" t="inlineStr"/>
       <c r="N754" t="inlineStr"/>
+      <c r="O754" t="inlineStr"/>
+      <c r="P754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -26946,6 +28470,8 @@
       </c>
       <c r="M755" t="inlineStr"/>
       <c r="N755" t="inlineStr"/>
+      <c r="O755" t="inlineStr"/>
+      <c r="P755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -26984,6 +28510,8 @@
       </c>
       <c r="M756" t="inlineStr"/>
       <c r="N756" t="inlineStr"/>
+      <c r="O756" t="inlineStr"/>
+      <c r="P756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -27022,6 +28550,8 @@
       </c>
       <c r="M757" t="inlineStr"/>
       <c r="N757" t="inlineStr"/>
+      <c r="O757" t="inlineStr"/>
+      <c r="P757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -27060,6 +28590,8 @@
       </c>
       <c r="M758" t="inlineStr"/>
       <c r="N758" t="inlineStr"/>
+      <c r="O758" t="inlineStr"/>
+      <c r="P758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -27098,6 +28630,8 @@
       </c>
       <c r="M759" t="inlineStr"/>
       <c r="N759" t="inlineStr"/>
+      <c r="O759" t="inlineStr"/>
+      <c r="P759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -27136,6 +28670,8 @@
       </c>
       <c r="M760" t="inlineStr"/>
       <c r="N760" t="inlineStr"/>
+      <c r="O760" t="inlineStr"/>
+      <c r="P760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -27164,6 +28700,8 @@
       </c>
       <c r="M761" t="inlineStr"/>
       <c r="N761" t="inlineStr"/>
+      <c r="O761" t="inlineStr"/>
+      <c r="P761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -27192,6 +28730,8 @@
       </c>
       <c r="M762" t="inlineStr"/>
       <c r="N762" t="inlineStr"/>
+      <c r="O762" t="inlineStr"/>
+      <c r="P762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -27220,6 +28760,8 @@
       </c>
       <c r="M763" t="inlineStr"/>
       <c r="N763" t="inlineStr"/>
+      <c r="O763" t="inlineStr"/>
+      <c r="P763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -27258,6 +28800,8 @@
       </c>
       <c r="M764" t="inlineStr"/>
       <c r="N764" t="inlineStr"/>
+      <c r="O764" t="inlineStr"/>
+      <c r="P764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -27286,6 +28830,8 @@
       </c>
       <c r="M765" t="inlineStr"/>
       <c r="N765" t="inlineStr"/>
+      <c r="O765" t="inlineStr"/>
+      <c r="P765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -27314,6 +28860,8 @@
       </c>
       <c r="M766" t="inlineStr"/>
       <c r="N766" t="inlineStr"/>
+      <c r="O766" t="inlineStr"/>
+      <c r="P766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -27342,6 +28890,8 @@
       </c>
       <c r="M767" t="inlineStr"/>
       <c r="N767" t="inlineStr"/>
+      <c r="O767" t="inlineStr"/>
+      <c r="P767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -27370,6 +28920,8 @@
       </c>
       <c r="M768" t="inlineStr"/>
       <c r="N768" t="inlineStr"/>
+      <c r="O768" t="inlineStr"/>
+      <c r="P768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -27398,6 +28950,8 @@
       </c>
       <c r="M769" t="inlineStr"/>
       <c r="N769" t="inlineStr"/>
+      <c r="O769" t="inlineStr"/>
+      <c r="P769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -27426,6 +28980,8 @@
       </c>
       <c r="M770" t="inlineStr"/>
       <c r="N770" t="inlineStr"/>
+      <c r="O770" t="inlineStr"/>
+      <c r="P770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -27454,6 +29010,8 @@
       </c>
       <c r="M771" t="inlineStr"/>
       <c r="N771" t="inlineStr"/>
+      <c r="O771" t="inlineStr"/>
+      <c r="P771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -27482,6 +29040,8 @@
       </c>
       <c r="M772" t="inlineStr"/>
       <c r="N772" t="inlineStr"/>
+      <c r="O772" t="inlineStr"/>
+      <c r="P772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -27510,6 +29070,8 @@
       </c>
       <c r="M773" t="inlineStr"/>
       <c r="N773" t="inlineStr"/>
+      <c r="O773" t="inlineStr"/>
+      <c r="P773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -27538,6 +29100,8 @@
       </c>
       <c r="M774" t="inlineStr"/>
       <c r="N774" t="inlineStr"/>
+      <c r="O774" t="inlineStr"/>
+      <c r="P774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -27566,6 +29130,8 @@
       </c>
       <c r="M775" t="inlineStr"/>
       <c r="N775" t="inlineStr"/>
+      <c r="O775" t="inlineStr"/>
+      <c r="P775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -27594,6 +29160,8 @@
       </c>
       <c r="M776" t="inlineStr"/>
       <c r="N776" t="inlineStr"/>
+      <c r="O776" t="inlineStr"/>
+      <c r="P776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -27622,6 +29190,8 @@
       </c>
       <c r="M777" t="inlineStr"/>
       <c r="N777" t="inlineStr"/>
+      <c r="O777" t="inlineStr"/>
+      <c r="P777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -27650,6 +29220,8 @@
       </c>
       <c r="M778" t="inlineStr"/>
       <c r="N778" t="inlineStr"/>
+      <c r="O778" t="inlineStr"/>
+      <c r="P778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -27678,6 +29250,8 @@
       </c>
       <c r="M779" t="inlineStr"/>
       <c r="N779" t="inlineStr"/>
+      <c r="O779" t="inlineStr"/>
+      <c r="P779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -27706,6 +29280,8 @@
       </c>
       <c r="M780" t="inlineStr"/>
       <c r="N780" t="inlineStr"/>
+      <c r="O780" t="inlineStr"/>
+      <c r="P780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -27734,6 +29310,8 @@
       </c>
       <c r="M781" t="inlineStr"/>
       <c r="N781" t="inlineStr"/>
+      <c r="O781" t="inlineStr"/>
+      <c r="P781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -27762,6 +29340,8 @@
       </c>
       <c r="M782" t="inlineStr"/>
       <c r="N782" t="inlineStr"/>
+      <c r="O782" t="inlineStr"/>
+      <c r="P782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -27796,6 +29376,8 @@
       </c>
       <c r="M783" t="inlineStr"/>
       <c r="N783" t="inlineStr"/>
+      <c r="O783" t="inlineStr"/>
+      <c r="P783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -27824,6 +29406,8 @@
       </c>
       <c r="M784" t="inlineStr"/>
       <c r="N784" t="inlineStr"/>
+      <c r="O784" t="inlineStr"/>
+      <c r="P784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -27852,6 +29436,8 @@
       </c>
       <c r="M785" t="inlineStr"/>
       <c r="N785" t="inlineStr"/>
+      <c r="O785" t="inlineStr"/>
+      <c r="P785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -27880,6 +29466,8 @@
       </c>
       <c r="M786" t="inlineStr"/>
       <c r="N786" t="inlineStr"/>
+      <c r="O786" t="inlineStr"/>
+      <c r="P786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -27908,6 +29496,8 @@
       </c>
       <c r="M787" t="inlineStr"/>
       <c r="N787" t="inlineStr"/>
+      <c r="O787" t="inlineStr"/>
+      <c r="P787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -27936,6 +29526,8 @@
       </c>
       <c r="M788" t="inlineStr"/>
       <c r="N788" t="inlineStr"/>
+      <c r="O788" t="inlineStr"/>
+      <c r="P788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -27964,6 +29556,8 @@
       </c>
       <c r="M789" t="inlineStr"/>
       <c r="N789" t="inlineStr"/>
+      <c r="O789" t="inlineStr"/>
+      <c r="P789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -27992,6 +29586,8 @@
       </c>
       <c r="M790" t="inlineStr"/>
       <c r="N790" t="inlineStr"/>
+      <c r="O790" t="inlineStr"/>
+      <c r="P790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -28030,6 +29626,8 @@
       </c>
       <c r="M791" t="inlineStr"/>
       <c r="N791" t="inlineStr"/>
+      <c r="O791" t="inlineStr"/>
+      <c r="P791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -28068,6 +29666,8 @@
       </c>
       <c r="M792" t="inlineStr"/>
       <c r="N792" t="inlineStr"/>
+      <c r="O792" t="inlineStr"/>
+      <c r="P792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -28096,6 +29696,8 @@
       </c>
       <c r="M793" t="inlineStr"/>
       <c r="N793" t="inlineStr"/>
+      <c r="O793" t="inlineStr"/>
+      <c r="P793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -28124,6 +29726,8 @@
       </c>
       <c r="M794" t="inlineStr"/>
       <c r="N794" t="inlineStr"/>
+      <c r="O794" t="inlineStr"/>
+      <c r="P794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -28162,6 +29766,8 @@
       </c>
       <c r="M795" t="inlineStr"/>
       <c r="N795" t="inlineStr"/>
+      <c r="O795" t="inlineStr"/>
+      <c r="P795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -28200,6 +29806,8 @@
       </c>
       <c r="M796" t="inlineStr"/>
       <c r="N796" t="inlineStr"/>
+      <c r="O796" t="inlineStr"/>
+      <c r="P796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -28238,6 +29846,8 @@
       </c>
       <c r="M797" t="inlineStr"/>
       <c r="N797" t="inlineStr"/>
+      <c r="O797" t="inlineStr"/>
+      <c r="P797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -28276,6 +29886,8 @@
       </c>
       <c r="M798" t="inlineStr"/>
       <c r="N798" t="inlineStr"/>
+      <c r="O798" t="inlineStr"/>
+      <c r="P798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -28314,6 +29926,8 @@
       </c>
       <c r="M799" t="inlineStr"/>
       <c r="N799" t="inlineStr"/>
+      <c r="O799" t="inlineStr"/>
+      <c r="P799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -28352,6 +29966,8 @@
       </c>
       <c r="M800" t="inlineStr"/>
       <c r="N800" t="inlineStr"/>
+      <c r="O800" t="inlineStr"/>
+      <c r="P800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -28390,6 +30006,8 @@
       </c>
       <c r="M801" t="inlineStr"/>
       <c r="N801" t="inlineStr"/>
+      <c r="O801" t="inlineStr"/>
+      <c r="P801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -28428,6 +30046,8 @@
       </c>
       <c r="M802" t="inlineStr"/>
       <c r="N802" t="inlineStr"/>
+      <c r="O802" t="inlineStr"/>
+      <c r="P802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -28466,6 +30086,8 @@
       </c>
       <c r="M803" t="inlineStr"/>
       <c r="N803" t="inlineStr"/>
+      <c r="O803" t="inlineStr"/>
+      <c r="P803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -28504,6 +30126,8 @@
       </c>
       <c r="M804" t="inlineStr"/>
       <c r="N804" t="inlineStr"/>
+      <c r="O804" t="inlineStr"/>
+      <c r="P804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -28542,6 +30166,8 @@
       </c>
       <c r="M805" t="inlineStr"/>
       <c r="N805" t="inlineStr"/>
+      <c r="O805" t="inlineStr"/>
+      <c r="P805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -28580,6 +30206,8 @@
       </c>
       <c r="M806" t="inlineStr"/>
       <c r="N806" t="inlineStr"/>
+      <c r="O806" t="inlineStr"/>
+      <c r="P806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -28618,6 +30246,8 @@
       </c>
       <c r="M807" t="inlineStr"/>
       <c r="N807" t="inlineStr"/>
+      <c r="O807" t="inlineStr"/>
+      <c r="P807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -28656,6 +30286,8 @@
       </c>
       <c r="M808" t="inlineStr"/>
       <c r="N808" t="inlineStr"/>
+      <c r="O808" t="inlineStr"/>
+      <c r="P808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -28694,6 +30326,8 @@
       </c>
       <c r="M809" t="inlineStr"/>
       <c r="N809" t="inlineStr"/>
+      <c r="O809" t="inlineStr"/>
+      <c r="P809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -28722,6 +30356,8 @@
       </c>
       <c r="M810" t="inlineStr"/>
       <c r="N810" t="inlineStr"/>
+      <c r="O810" t="inlineStr"/>
+      <c r="P810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -28750,6 +30386,8 @@
       </c>
       <c r="M811" t="inlineStr"/>
       <c r="N811" t="inlineStr"/>
+      <c r="O811" t="inlineStr"/>
+      <c r="P811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -28778,6 +30416,8 @@
       </c>
       <c r="M812" t="inlineStr"/>
       <c r="N812" t="inlineStr"/>
+      <c r="O812" t="inlineStr"/>
+      <c r="P812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -28816,6 +30456,8 @@
       </c>
       <c r="M813" t="inlineStr"/>
       <c r="N813" t="inlineStr"/>
+      <c r="O813" t="inlineStr"/>
+      <c r="P813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -28852,6 +30494,8 @@
       </c>
       <c r="M814" t="inlineStr"/>
       <c r="N814" t="inlineStr"/>
+      <c r="O814" t="inlineStr"/>
+      <c r="P814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -28888,6 +30532,8 @@
       </c>
       <c r="M815" t="inlineStr"/>
       <c r="N815" t="inlineStr"/>
+      <c r="O815" t="inlineStr"/>
+      <c r="P815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -28924,6 +30570,8 @@
       </c>
       <c r="M816" t="inlineStr"/>
       <c r="N816" t="inlineStr"/>
+      <c r="O816" t="inlineStr"/>
+      <c r="P816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -28960,6 +30608,8 @@
       </c>
       <c r="M817" t="inlineStr"/>
       <c r="N817" t="inlineStr"/>
+      <c r="O817" t="inlineStr"/>
+      <c r="P817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -28996,6 +30646,8 @@
       </c>
       <c r="M818" t="inlineStr"/>
       <c r="N818" t="inlineStr"/>
+      <c r="O818" t="inlineStr"/>
+      <c r="P818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -29032,6 +30684,8 @@
       </c>
       <c r="M819" t="inlineStr"/>
       <c r="N819" t="inlineStr"/>
+      <c r="O819" t="inlineStr"/>
+      <c r="P819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -29068,6 +30722,8 @@
       </c>
       <c r="M820" t="inlineStr"/>
       <c r="N820" t="inlineStr"/>
+      <c r="O820" t="inlineStr"/>
+      <c r="P820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -29104,6 +30760,8 @@
       </c>
       <c r="M821" t="inlineStr"/>
       <c r="N821" t="inlineStr"/>
+      <c r="O821" t="inlineStr"/>
+      <c r="P821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -29140,6 +30798,8 @@
       </c>
       <c r="M822" t="inlineStr"/>
       <c r="N822" t="inlineStr"/>
+      <c r="O822" t="inlineStr"/>
+      <c r="P822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -29178,6 +30838,8 @@
       </c>
       <c r="M823" t="inlineStr"/>
       <c r="N823" t="inlineStr"/>
+      <c r="O823" t="inlineStr"/>
+      <c r="P823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -29216,6 +30878,8 @@
       </c>
       <c r="M824" t="inlineStr"/>
       <c r="N824" t="inlineStr"/>
+      <c r="O824" t="inlineStr"/>
+      <c r="P824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
@@ -29254,6 +30918,8 @@
       </c>
       <c r="M825" t="inlineStr"/>
       <c r="N825" t="inlineStr"/>
+      <c r="O825" t="inlineStr"/>
+      <c r="P825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -29292,6 +30958,8 @@
       </c>
       <c r="M826" t="inlineStr"/>
       <c r="N826" t="inlineStr"/>
+      <c r="O826" t="inlineStr"/>
+      <c r="P826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
@@ -29330,6 +30998,8 @@
       </c>
       <c r="M827" t="inlineStr"/>
       <c r="N827" t="inlineStr"/>
+      <c r="O827" t="inlineStr"/>
+      <c r="P827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
@@ -29368,6 +31038,8 @@
       </c>
       <c r="M828" t="inlineStr"/>
       <c r="N828" t="inlineStr"/>
+      <c r="O828" t="inlineStr"/>
+      <c r="P828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -29406,6 +31078,8 @@
       </c>
       <c r="M829" t="inlineStr"/>
       <c r="N829" t="inlineStr"/>
+      <c r="O829" t="inlineStr"/>
+      <c r="P829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
@@ -29440,6 +31114,8 @@
       </c>
       <c r="M830" t="inlineStr"/>
       <c r="N830" t="inlineStr"/>
+      <c r="O830" t="inlineStr"/>
+      <c r="P830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -29474,6 +31150,8 @@
       </c>
       <c r="M831" t="inlineStr"/>
       <c r="N831" t="inlineStr"/>
+      <c r="O831" t="inlineStr"/>
+      <c r="P831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -29512,6 +31190,8 @@
       </c>
       <c r="M832" t="inlineStr"/>
       <c r="N832" t="inlineStr"/>
+      <c r="O832" t="inlineStr"/>
+      <c r="P832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -29550,6 +31230,8 @@
       </c>
       <c r="M833" t="inlineStr"/>
       <c r="N833" t="inlineStr"/>
+      <c r="O833" t="inlineStr"/>
+      <c r="P833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -29584,6 +31266,8 @@
       </c>
       <c r="M834" t="inlineStr"/>
       <c r="N834" t="inlineStr"/>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -29618,6 +31302,8 @@
       </c>
       <c r="M835" t="inlineStr"/>
       <c r="N835" t="inlineStr"/>
+      <c r="O835" t="inlineStr"/>
+      <c r="P835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -29656,6 +31342,8 @@
       </c>
       <c r="M836" t="inlineStr"/>
       <c r="N836" t="inlineStr"/>
+      <c r="O836" t="inlineStr"/>
+      <c r="P836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -29690,6 +31378,8 @@
       </c>
       <c r="M837" t="inlineStr"/>
       <c r="N837" t="inlineStr"/>
+      <c r="O837" t="inlineStr"/>
+      <c r="P837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -29728,6 +31418,8 @@
       </c>
       <c r="M838" t="inlineStr"/>
       <c r="N838" t="inlineStr"/>
+      <c r="O838" t="inlineStr"/>
+      <c r="P838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -29766,6 +31458,8 @@
       </c>
       <c r="M839" t="inlineStr"/>
       <c r="N839" t="inlineStr"/>
+      <c r="O839" t="inlineStr"/>
+      <c r="P839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
@@ -29802,6 +31496,8 @@
       </c>
       <c r="M840" t="inlineStr"/>
       <c r="N840" t="inlineStr"/>
+      <c r="O840" t="inlineStr"/>
+      <c r="P840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
@@ -29838,6 +31534,8 @@
       </c>
       <c r="M841" t="inlineStr"/>
       <c r="N841" t="inlineStr"/>
+      <c r="O841" t="inlineStr"/>
+      <c r="P841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
@@ -29876,6 +31574,8 @@
       </c>
       <c r="M842" t="inlineStr"/>
       <c r="N842" t="inlineStr"/>
+      <c r="O842" t="inlineStr"/>
+      <c r="P842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
@@ -29914,6 +31614,8 @@
       </c>
       <c r="M843" t="inlineStr"/>
       <c r="N843" t="inlineStr"/>
+      <c r="O843" t="inlineStr"/>
+      <c r="P843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -29952,6 +31654,8 @@
       </c>
       <c r="M844" t="inlineStr"/>
       <c r="N844" t="inlineStr"/>
+      <c r="O844" t="inlineStr"/>
+      <c r="P844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
@@ -29990,6 +31694,8 @@
       </c>
       <c r="M845" t="inlineStr"/>
       <c r="N845" t="inlineStr"/>
+      <c r="O845" t="inlineStr"/>
+      <c r="P845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -30028,6 +31734,8 @@
       </c>
       <c r="M846" t="inlineStr"/>
       <c r="N846" t="inlineStr"/>
+      <c r="O846" t="inlineStr"/>
+      <c r="P846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
@@ -30062,6 +31770,8 @@
       </c>
       <c r="M847" t="inlineStr"/>
       <c r="N847" t="inlineStr"/>
+      <c r="O847" t="inlineStr"/>
+      <c r="P847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -30100,6 +31810,8 @@
       </c>
       <c r="M848" t="inlineStr"/>
       <c r="N848" t="inlineStr"/>
+      <c r="O848" t="inlineStr"/>
+      <c r="P848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -30138,6 +31850,8 @@
       </c>
       <c r="M849" t="inlineStr"/>
       <c r="N849" t="inlineStr"/>
+      <c r="O849" t="inlineStr"/>
+      <c r="P849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -30176,6 +31890,8 @@
       </c>
       <c r="M850" t="inlineStr"/>
       <c r="N850" t="inlineStr"/>
+      <c r="O850" t="inlineStr"/>
+      <c r="P850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -30214,6 +31930,8 @@
       </c>
       <c r="M851" t="inlineStr"/>
       <c r="N851" t="inlineStr"/>
+      <c r="O851" t="inlineStr"/>
+      <c r="P851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -30252,6 +31970,8 @@
       </c>
       <c r="M852" t="inlineStr"/>
       <c r="N852" t="inlineStr"/>
+      <c r="O852" t="inlineStr"/>
+      <c r="P852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -30290,6 +32010,8 @@
       </c>
       <c r="M853" t="inlineStr"/>
       <c r="N853" t="inlineStr"/>
+      <c r="O853" t="inlineStr"/>
+      <c r="P853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -30328,6 +32050,8 @@
       </c>
       <c r="M854" t="inlineStr"/>
       <c r="N854" t="inlineStr"/>
+      <c r="O854" t="inlineStr"/>
+      <c r="P854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -30366,6 +32090,8 @@
       </c>
       <c r="M855" t="inlineStr"/>
       <c r="N855" t="inlineStr"/>
+      <c r="O855" t="inlineStr"/>
+      <c r="P855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -30404,6 +32130,8 @@
       </c>
       <c r="M856" t="inlineStr"/>
       <c r="N856" t="inlineStr"/>
+      <c r="O856" t="inlineStr"/>
+      <c r="P856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -30442,6 +32170,8 @@
       </c>
       <c r="M857" t="inlineStr"/>
       <c r="N857" t="inlineStr"/>
+      <c r="O857" t="inlineStr"/>
+      <c r="P857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -30480,6 +32210,8 @@
       </c>
       <c r="M858" t="inlineStr"/>
       <c r="N858" t="inlineStr"/>
+      <c r="O858" t="inlineStr"/>
+      <c r="P858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -30518,6 +32250,8 @@
       </c>
       <c r="M859" t="inlineStr"/>
       <c r="N859" t="inlineStr"/>
+      <c r="O859" t="inlineStr"/>
+      <c r="P859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
@@ -30556,6 +32290,8 @@
       </c>
       <c r="M860" t="inlineStr"/>
       <c r="N860" t="inlineStr"/>
+      <c r="O860" t="inlineStr"/>
+      <c r="P860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
@@ -30594,6 +32330,8 @@
       </c>
       <c r="M861" t="inlineStr"/>
       <c r="N861" t="inlineStr"/>
+      <c r="O861" t="inlineStr"/>
+      <c r="P861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -30632,6 +32370,8 @@
       </c>
       <c r="M862" t="inlineStr"/>
       <c r="N862" t="inlineStr"/>
+      <c r="O862" t="inlineStr"/>
+      <c r="P862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -30670,6 +32410,8 @@
       </c>
       <c r="M863" t="inlineStr"/>
       <c r="N863" t="inlineStr"/>
+      <c r="O863" t="inlineStr"/>
+      <c r="P863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
@@ -30704,6 +32446,8 @@
       </c>
       <c r="M864" t="inlineStr"/>
       <c r="N864" t="inlineStr"/>
+      <c r="O864" t="inlineStr"/>
+      <c r="P864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -30742,6 +32486,8 @@
       </c>
       <c r="M865" t="inlineStr"/>
       <c r="N865" t="inlineStr"/>
+      <c r="O865" t="inlineStr"/>
+      <c r="P865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -30776,6 +32522,8 @@
       </c>
       <c r="M866" t="inlineStr"/>
       <c r="N866" t="inlineStr"/>
+      <c r="O866" t="inlineStr"/>
+      <c r="P866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -30814,6 +32562,8 @@
       </c>
       <c r="M867" t="inlineStr"/>
       <c r="N867" t="inlineStr"/>
+      <c r="O867" t="inlineStr"/>
+      <c r="P867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -30852,6 +32602,8 @@
       </c>
       <c r="M868" t="inlineStr"/>
       <c r="N868" t="inlineStr"/>
+      <c r="O868" t="inlineStr"/>
+      <c r="P868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
@@ -30890,6 +32642,8 @@
       </c>
       <c r="M869" t="inlineStr"/>
       <c r="N869" t="inlineStr"/>
+      <c r="O869" t="inlineStr"/>
+      <c r="P869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -30928,6 +32682,8 @@
       </c>
       <c r="M870" t="inlineStr"/>
       <c r="N870" t="inlineStr"/>
+      <c r="O870" t="inlineStr"/>
+      <c r="P870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -30966,6 +32722,8 @@
       </c>
       <c r="M871" t="inlineStr"/>
       <c r="N871" t="inlineStr"/>
+      <c r="O871" t="inlineStr"/>
+      <c r="P871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -31004,6 +32762,8 @@
       </c>
       <c r="M872" t="inlineStr"/>
       <c r="N872" t="inlineStr"/>
+      <c r="O872" t="inlineStr"/>
+      <c r="P872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -31042,6 +32802,8 @@
       </c>
       <c r="M873" t="inlineStr"/>
       <c r="N873" t="inlineStr"/>
+      <c r="O873" t="inlineStr"/>
+      <c r="P873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -31080,6 +32842,8 @@
       </c>
       <c r="M874" t="inlineStr"/>
       <c r="N874" t="inlineStr"/>
+      <c r="O874" t="inlineStr"/>
+      <c r="P874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -31118,6 +32882,8 @@
       </c>
       <c r="M875" t="inlineStr"/>
       <c r="N875" t="inlineStr"/>
+      <c r="O875" t="inlineStr"/>
+      <c r="P875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
@@ -31156,6 +32922,8 @@
       </c>
       <c r="M876" t="inlineStr"/>
       <c r="N876" t="inlineStr"/>
+      <c r="O876" t="inlineStr"/>
+      <c r="P876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -31194,6 +32962,8 @@
       </c>
       <c r="M877" t="inlineStr"/>
       <c r="N877" t="inlineStr"/>
+      <c r="O877" t="inlineStr"/>
+      <c r="P877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -31232,6 +33002,8 @@
       </c>
       <c r="M878" t="inlineStr"/>
       <c r="N878" t="inlineStr"/>
+      <c r="O878" t="inlineStr"/>
+      <c r="P878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
@@ -31270,6 +33042,8 @@
       </c>
       <c r="M879" t="inlineStr"/>
       <c r="N879" t="inlineStr"/>
+      <c r="O879" t="inlineStr"/>
+      <c r="P879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
@@ -31308,6 +33082,8 @@
       </c>
       <c r="M880" t="inlineStr"/>
       <c r="N880" t="inlineStr"/>
+      <c r="O880" t="inlineStr"/>
+      <c r="P880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
@@ -31346,6 +33122,8 @@
       </c>
       <c r="M881" t="inlineStr"/>
       <c r="N881" t="inlineStr"/>
+      <c r="O881" t="inlineStr"/>
+      <c r="P881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -31384,6 +33162,8 @@
       </c>
       <c r="M882" t="inlineStr"/>
       <c r="N882" t="inlineStr"/>
+      <c r="O882" t="inlineStr"/>
+      <c r="P882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -31420,6 +33200,8 @@
       </c>
       <c r="M883" t="inlineStr"/>
       <c r="N883" t="inlineStr"/>
+      <c r="O883" t="inlineStr"/>
+      <c r="P883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -31456,6 +33238,8 @@
       </c>
       <c r="M884" t="inlineStr"/>
       <c r="N884" t="inlineStr"/>
+      <c r="O884" t="inlineStr"/>
+      <c r="P884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -31494,6 +33278,8 @@
       </c>
       <c r="M885" t="inlineStr"/>
       <c r="N885" t="inlineStr"/>
+      <c r="O885" t="inlineStr"/>
+      <c r="P885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -31532,6 +33318,8 @@
       </c>
       <c r="M886" t="inlineStr"/>
       <c r="N886" t="inlineStr"/>
+      <c r="O886" t="inlineStr"/>
+      <c r="P886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -31570,6 +33358,8 @@
       </c>
       <c r="M887" t="inlineStr"/>
       <c r="N887" t="inlineStr"/>
+      <c r="O887" t="inlineStr"/>
+      <c r="P887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -31606,6 +33396,8 @@
       </c>
       <c r="M888" t="inlineStr"/>
       <c r="N888" t="inlineStr"/>
+      <c r="O888" t="inlineStr"/>
+      <c r="P888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -31642,6 +33434,8 @@
       </c>
       <c r="M889" t="inlineStr"/>
       <c r="N889" t="inlineStr"/>
+      <c r="O889" t="inlineStr"/>
+      <c r="P889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -31678,6 +33472,8 @@
       </c>
       <c r="M890" t="inlineStr"/>
       <c r="N890" t="inlineStr"/>
+      <c r="O890" t="inlineStr"/>
+      <c r="P890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -31714,6 +33510,8 @@
       </c>
       <c r="M891" t="inlineStr"/>
       <c r="N891" t="inlineStr"/>
+      <c r="O891" t="inlineStr"/>
+      <c r="P891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -31750,6 +33548,8 @@
       </c>
       <c r="M892" t="inlineStr"/>
       <c r="N892" t="inlineStr"/>
+      <c r="O892" t="inlineStr"/>
+      <c r="P892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -31784,6 +33584,8 @@
       </c>
       <c r="M893" t="inlineStr"/>
       <c r="N893" t="inlineStr"/>
+      <c r="O893" t="inlineStr"/>
+      <c r="P893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -31818,6 +33620,8 @@
       </c>
       <c r="M894" t="inlineStr"/>
       <c r="N894" t="inlineStr"/>
+      <c r="O894" t="inlineStr"/>
+      <c r="P894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
@@ -31856,6 +33660,8 @@
       </c>
       <c r="M895" t="inlineStr"/>
       <c r="N895" t="inlineStr"/>
+      <c r="O895" t="inlineStr"/>
+      <c r="P895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -31894,6 +33700,8 @@
       </c>
       <c r="M896" t="inlineStr"/>
       <c r="N896" t="inlineStr"/>
+      <c r="O896" t="inlineStr"/>
+      <c r="P896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -31932,6 +33740,8 @@
       </c>
       <c r="M897" t="inlineStr"/>
       <c r="N897" t="inlineStr"/>
+      <c r="O897" t="inlineStr"/>
+      <c r="P897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -31970,6 +33780,8 @@
       </c>
       <c r="M898" t="inlineStr"/>
       <c r="N898" t="inlineStr"/>
+      <c r="O898" t="inlineStr"/>
+      <c r="P898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -32004,6 +33816,8 @@
       </c>
       <c r="M899" t="inlineStr"/>
       <c r="N899" t="inlineStr"/>
+      <c r="O899" t="inlineStr"/>
+      <c r="P899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
@@ -32032,6 +33846,8 @@
       </c>
       <c r="M900" t="inlineStr"/>
       <c r="N900" t="inlineStr"/>
+      <c r="O900" t="inlineStr"/>
+      <c r="P900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
@@ -32060,6 +33876,8 @@
       </c>
       <c r="M901" t="inlineStr"/>
       <c r="N901" t="inlineStr"/>
+      <c r="O901" t="inlineStr"/>
+      <c r="P901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
@@ -32088,6 +33906,8 @@
       </c>
       <c r="M902" t="inlineStr"/>
       <c r="N902" t="inlineStr"/>
+      <c r="O902" t="inlineStr"/>
+      <c r="P902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -32116,6 +33936,8 @@
       </c>
       <c r="M903" t="inlineStr"/>
       <c r="N903" t="inlineStr"/>
+      <c r="O903" t="inlineStr"/>
+      <c r="P903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -32144,6 +33966,8 @@
       </c>
       <c r="M904" t="inlineStr"/>
       <c r="N904" t="inlineStr"/>
+      <c r="O904" t="inlineStr"/>
+      <c r="P904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
@@ -32172,6 +33996,8 @@
       </c>
       <c r="M905" t="inlineStr"/>
       <c r="N905" t="inlineStr"/>
+      <c r="O905" t="inlineStr"/>
+      <c r="P905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -32200,6 +34026,8 @@
       </c>
       <c r="M906" t="inlineStr"/>
       <c r="N906" t="inlineStr"/>
+      <c r="O906" t="inlineStr"/>
+      <c r="P906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
@@ -32228,6 +34056,8 @@
       </c>
       <c r="M907" t="inlineStr"/>
       <c r="N907" t="inlineStr"/>
+      <c r="O907" t="inlineStr"/>
+      <c r="P907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
@@ -32256,6 +34086,8 @@
       </c>
       <c r="M908" t="inlineStr"/>
       <c r="N908" t="inlineStr"/>
+      <c r="O908" t="inlineStr"/>
+      <c r="P908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
@@ -32284,6 +34116,8 @@
       </c>
       <c r="M909" t="inlineStr"/>
       <c r="N909" t="inlineStr"/>
+      <c r="O909" t="inlineStr"/>
+      <c r="P909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
@@ -32312,6 +34146,8 @@
       </c>
       <c r="M910" t="inlineStr"/>
       <c r="N910" t="inlineStr"/>
+      <c r="O910" t="inlineStr"/>
+      <c r="P910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -32340,6 +34176,8 @@
       </c>
       <c r="M911" t="inlineStr"/>
       <c r="N911" t="inlineStr"/>
+      <c r="O911" t="inlineStr"/>
+      <c r="P911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
@@ -32368,6 +34206,8 @@
       </c>
       <c r="M912" t="inlineStr"/>
       <c r="N912" t="inlineStr"/>
+      <c r="O912" t="inlineStr"/>
+      <c r="P912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -32396,6 +34236,8 @@
       </c>
       <c r="M913" t="inlineStr"/>
       <c r="N913" t="inlineStr"/>
+      <c r="O913" t="inlineStr"/>
+      <c r="P913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
@@ -32424,6 +34266,8 @@
       </c>
       <c r="M914" t="inlineStr"/>
       <c r="N914" t="inlineStr"/>
+      <c r="O914" t="inlineStr"/>
+      <c r="P914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
@@ -32462,6 +34306,8 @@
       </c>
       <c r="M915" t="inlineStr"/>
       <c r="N915" t="inlineStr"/>
+      <c r="O915" t="inlineStr"/>
+      <c r="P915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -32500,6 +34346,8 @@
       </c>
       <c r="M916" t="inlineStr"/>
       <c r="N916" t="inlineStr"/>
+      <c r="O916" t="inlineStr"/>
+      <c r="P916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
@@ -32538,6 +34386,8 @@
       </c>
       <c r="M917" t="inlineStr"/>
       <c r="N917" t="inlineStr"/>
+      <c r="O917" t="inlineStr"/>
+      <c r="P917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
@@ -32576,6 +34426,8 @@
       </c>
       <c r="M918" t="inlineStr"/>
       <c r="N918" t="inlineStr"/>
+      <c r="O918" t="inlineStr"/>
+      <c r="P918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
@@ -32614,6 +34466,8 @@
       </c>
       <c r="M919" t="inlineStr"/>
       <c r="N919" t="inlineStr"/>
+      <c r="O919" t="inlineStr"/>
+      <c r="P919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -32648,6 +34502,8 @@
       </c>
       <c r="M920" t="inlineStr"/>
       <c r="N920" t="inlineStr"/>
+      <c r="O920" t="inlineStr"/>
+      <c r="P920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
@@ -32676,6 +34532,8 @@
       </c>
       <c r="M921" t="inlineStr"/>
       <c r="N921" t="inlineStr"/>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
@@ -32704,6 +34562,8 @@
       </c>
       <c r="M922" t="inlineStr"/>
       <c r="N922" t="inlineStr"/>
+      <c r="O922" t="inlineStr"/>
+      <c r="P922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -32732,6 +34592,8 @@
       </c>
       <c r="M923" t="inlineStr"/>
       <c r="N923" t="inlineStr"/>
+      <c r="O923" t="inlineStr"/>
+      <c r="P923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
@@ -32770,6 +34632,8 @@
       </c>
       <c r="M924" t="inlineStr"/>
       <c r="N924" t="inlineStr"/>
+      <c r="O924" t="inlineStr"/>
+      <c r="P924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -32808,6 +34672,8 @@
       </c>
       <c r="M925" t="inlineStr"/>
       <c r="N925" t="inlineStr"/>
+      <c r="O925" t="inlineStr"/>
+      <c r="P925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -32846,6 +34712,8 @@
       </c>
       <c r="M926" t="inlineStr"/>
       <c r="N926" t="inlineStr"/>
+      <c r="O926" t="inlineStr"/>
+      <c r="P926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -32884,6 +34752,8 @@
       </c>
       <c r="M927" t="inlineStr"/>
       <c r="N927" t="inlineStr"/>
+      <c r="O927" t="inlineStr"/>
+      <c r="P927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -32922,6 +34792,8 @@
       </c>
       <c r="M928" t="inlineStr"/>
       <c r="N928" t="inlineStr"/>
+      <c r="O928" t="inlineStr"/>
+      <c r="P928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -32960,6 +34832,8 @@
       </c>
       <c r="M929" t="inlineStr"/>
       <c r="N929" t="inlineStr"/>
+      <c r="O929" t="inlineStr"/>
+      <c r="P929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -32998,6 +34872,8 @@
       </c>
       <c r="M930" t="inlineStr"/>
       <c r="N930" t="inlineStr"/>
+      <c r="O930" t="inlineStr"/>
+      <c r="P930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -33036,6 +34912,8 @@
       </c>
       <c r="M931" t="inlineStr"/>
       <c r="N931" t="inlineStr"/>
+      <c r="O931" t="inlineStr"/>
+      <c r="P931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -33074,6 +34952,8 @@
       </c>
       <c r="M932" t="inlineStr"/>
       <c r="N932" t="inlineStr"/>
+      <c r="O932" t="inlineStr"/>
+      <c r="P932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -33112,6 +34992,8 @@
       </c>
       <c r="M933" t="inlineStr"/>
       <c r="N933" t="inlineStr"/>
+      <c r="O933" t="inlineStr"/>
+      <c r="P933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -33150,6 +35032,8 @@
       </c>
       <c r="M934" t="inlineStr"/>
       <c r="N934" t="inlineStr"/>
+      <c r="O934" t="inlineStr"/>
+      <c r="P934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
@@ -33188,6 +35072,8 @@
       </c>
       <c r="M935" t="inlineStr"/>
       <c r="N935" t="inlineStr"/>
+      <c r="O935" t="inlineStr"/>
+      <c r="P935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
@@ -33226,6 +35112,8 @@
       </c>
       <c r="M936" t="inlineStr"/>
       <c r="N936" t="inlineStr"/>
+      <c r="O936" t="inlineStr"/>
+      <c r="P936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
@@ -33264,6 +35152,8 @@
       </c>
       <c r="M937" t="inlineStr"/>
       <c r="N937" t="inlineStr"/>
+      <c r="O937" t="inlineStr"/>
+      <c r="P937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
@@ -33302,6 +35192,8 @@
       </c>
       <c r="M938" t="inlineStr"/>
       <c r="N938" t="inlineStr"/>
+      <c r="O938" t="inlineStr"/>
+      <c r="P938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
@@ -33340,6 +35232,8 @@
       </c>
       <c r="M939" t="inlineStr"/>
       <c r="N939" t="inlineStr"/>
+      <c r="O939" t="inlineStr"/>
+      <c r="P939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
@@ -33378,6 +35272,8 @@
       </c>
       <c r="M940" t="inlineStr"/>
       <c r="N940" t="inlineStr"/>
+      <c r="O940" t="inlineStr"/>
+      <c r="P940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
@@ -33416,6 +35312,8 @@
       </c>
       <c r="M941" t="inlineStr"/>
       <c r="N941" t="inlineStr"/>
+      <c r="O941" t="inlineStr"/>
+      <c r="P941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
@@ -33454,6 +35352,8 @@
       </c>
       <c r="M942" t="inlineStr"/>
       <c r="N942" t="inlineStr"/>
+      <c r="O942" t="inlineStr"/>
+      <c r="P942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -33492,6 +35392,8 @@
       </c>
       <c r="M943" t="inlineStr"/>
       <c r="N943" t="inlineStr"/>
+      <c r="O943" t="inlineStr"/>
+      <c r="P943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -33530,6 +35432,8 @@
       </c>
       <c r="M944" t="inlineStr"/>
       <c r="N944" t="inlineStr"/>
+      <c r="O944" t="inlineStr"/>
+      <c r="P944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
@@ -33568,6 +35472,8 @@
       </c>
       <c r="M945" t="inlineStr"/>
       <c r="N945" t="inlineStr"/>
+      <c r="O945" t="inlineStr"/>
+      <c r="P945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -33606,6 +35512,8 @@
       </c>
       <c r="M946" t="inlineStr"/>
       <c r="N946" t="inlineStr"/>
+      <c r="O946" t="inlineStr"/>
+      <c r="P946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -33640,6 +35548,8 @@
       </c>
       <c r="M947" t="inlineStr"/>
       <c r="N947" t="inlineStr"/>
+      <c r="O947" t="inlineStr"/>
+      <c r="P947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
@@ -33674,6 +35584,8 @@
       </c>
       <c r="M948" t="inlineStr"/>
       <c r="N948" t="inlineStr"/>
+      <c r="O948" t="inlineStr"/>
+      <c r="P948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -33712,6 +35624,8 @@
       </c>
       <c r="M949" t="inlineStr"/>
       <c r="N949" t="inlineStr"/>
+      <c r="O949" t="inlineStr"/>
+      <c r="P949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -33750,6 +35664,8 @@
       </c>
       <c r="M950" t="inlineStr"/>
       <c r="N950" t="inlineStr"/>
+      <c r="O950" t="inlineStr"/>
+      <c r="P950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
@@ -33788,6 +35704,8 @@
       </c>
       <c r="M951" t="inlineStr"/>
       <c r="N951" t="inlineStr"/>
+      <c r="O951" t="inlineStr"/>
+      <c r="P951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
@@ -33826,6 +35744,8 @@
       </c>
       <c r="M952" t="inlineStr"/>
       <c r="N952" t="inlineStr"/>
+      <c r="O952" t="inlineStr"/>
+      <c r="P952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
@@ -33864,6 +35784,8 @@
       </c>
       <c r="M953" t="inlineStr"/>
       <c r="N953" t="inlineStr"/>
+      <c r="O953" t="inlineStr"/>
+      <c r="P953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
@@ -33902,6 +35824,8 @@
       </c>
       <c r="M954" t="inlineStr"/>
       <c r="N954" t="inlineStr"/>
+      <c r="O954" t="inlineStr"/>
+      <c r="P954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
@@ -33936,6 +35860,8 @@
       </c>
       <c r="M955" t="inlineStr"/>
       <c r="N955" t="inlineStr"/>
+      <c r="O955" t="inlineStr"/>
+      <c r="P955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -33974,6 +35900,8 @@
       </c>
       <c r="M956" t="inlineStr"/>
       <c r="N956" t="inlineStr"/>
+      <c r="O956" t="inlineStr"/>
+      <c r="P956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
@@ -34012,6 +35940,8 @@
       </c>
       <c r="M957" t="inlineStr"/>
       <c r="N957" t="inlineStr"/>
+      <c r="O957" t="inlineStr"/>
+      <c r="P957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
@@ -34050,6 +35980,8 @@
       </c>
       <c r="M958" t="inlineStr"/>
       <c r="N958" t="inlineStr"/>
+      <c r="O958" t="inlineStr"/>
+      <c r="P958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
@@ -34088,6 +36020,8 @@
       </c>
       <c r="M959" t="inlineStr"/>
       <c r="N959" t="inlineStr"/>
+      <c r="O959" t="inlineStr"/>
+      <c r="P959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
@@ -34126,6 +36060,8 @@
       </c>
       <c r="M960" t="inlineStr"/>
       <c r="N960" t="inlineStr"/>
+      <c r="O960" t="inlineStr"/>
+      <c r="P960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
@@ -34164,6 +36100,8 @@
       </c>
       <c r="M961" t="inlineStr"/>
       <c r="N961" t="inlineStr"/>
+      <c r="O961" t="inlineStr"/>
+      <c r="P961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -34202,6 +36140,8 @@
       </c>
       <c r="M962" t="inlineStr"/>
       <c r="N962" t="inlineStr"/>
+      <c r="O962" t="inlineStr"/>
+      <c r="P962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
@@ -34240,6 +36180,8 @@
       </c>
       <c r="M963" t="inlineStr"/>
       <c r="N963" t="inlineStr"/>
+      <c r="O963" t="inlineStr"/>
+      <c r="P963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
@@ -34278,6 +36220,8 @@
       </c>
       <c r="M964" t="inlineStr"/>
       <c r="N964" t="inlineStr"/>
+      <c r="O964" t="inlineStr"/>
+      <c r="P964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
@@ -34316,6 +36260,8 @@
       </c>
       <c r="M965" t="inlineStr"/>
       <c r="N965" t="inlineStr"/>
+      <c r="O965" t="inlineStr"/>
+      <c r="P965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
@@ -34354,6 +36300,8 @@
       </c>
       <c r="M966" t="inlineStr"/>
       <c r="N966" t="inlineStr"/>
+      <c r="O966" t="inlineStr"/>
+      <c r="P966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -34392,6 +36340,8 @@
       </c>
       <c r="M967" t="inlineStr"/>
       <c r="N967" t="inlineStr"/>
+      <c r="O967" t="inlineStr"/>
+      <c r="P967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
@@ -34430,6 +36380,8 @@
       </c>
       <c r="M968" t="inlineStr"/>
       <c r="N968" t="inlineStr"/>
+      <c r="O968" t="inlineStr"/>
+      <c r="P968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
@@ -34468,6 +36420,8 @@
       </c>
       <c r="M969" t="inlineStr"/>
       <c r="N969" t="inlineStr"/>
+      <c r="O969" t="inlineStr"/>
+      <c r="P969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
@@ -34506,6 +36460,8 @@
       </c>
       <c r="M970" t="inlineStr"/>
       <c r="N970" t="inlineStr"/>
+      <c r="O970" t="inlineStr"/>
+      <c r="P970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
@@ -34544,6 +36500,8 @@
       </c>
       <c r="M971" t="inlineStr"/>
       <c r="N971" t="inlineStr"/>
+      <c r="O971" t="inlineStr"/>
+      <c r="P971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
@@ -34582,6 +36540,8 @@
       </c>
       <c r="M972" t="inlineStr"/>
       <c r="N972" t="inlineStr"/>
+      <c r="O972" t="inlineStr"/>
+      <c r="P972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -34620,6 +36580,8 @@
       </c>
       <c r="M973" t="inlineStr"/>
       <c r="N973" t="inlineStr"/>
+      <c r="O973" t="inlineStr"/>
+      <c r="P973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
@@ -34658,6 +36620,8 @@
       </c>
       <c r="M974" t="inlineStr"/>
       <c r="N974" t="inlineStr"/>
+      <c r="O974" t="inlineStr"/>
+      <c r="P974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
@@ -34696,6 +36660,8 @@
       </c>
       <c r="M975" t="inlineStr"/>
       <c r="N975" t="inlineStr"/>
+      <c r="O975" t="inlineStr"/>
+      <c r="P975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
@@ -34734,6 +36700,8 @@
       </c>
       <c r="M976" t="inlineStr"/>
       <c r="N976" t="inlineStr"/>
+      <c r="O976" t="inlineStr"/>
+      <c r="P976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
@@ -34772,6 +36740,8 @@
       </c>
       <c r="M977" t="inlineStr"/>
       <c r="N977" t="inlineStr"/>
+      <c r="O977" t="inlineStr"/>
+      <c r="P977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
@@ -34810,6 +36780,8 @@
       </c>
       <c r="M978" t="inlineStr"/>
       <c r="N978" t="inlineStr"/>
+      <c r="O978" t="inlineStr"/>
+      <c r="P978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
@@ -34848,6 +36820,8 @@
       </c>
       <c r="M979" t="inlineStr"/>
       <c r="N979" t="inlineStr"/>
+      <c r="O979" t="inlineStr"/>
+      <c r="P979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
@@ -34878,6 +36852,66 @@
       </c>
       <c r="M980" t="inlineStr"/>
       <c r="N980" t="inlineStr"/>
+      <c r="O980" t="inlineStr"/>
+      <c r="P980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>seowoohr@seowoohr.com</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>TJwns91!!</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>김서준</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>김서준</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr"/>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>Korea, Republic of</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>910607-1170316</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr"/>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>01023616483</t>
+        </is>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M981" t="inlineStr"/>
+      <c r="N981" t="inlineStr"/>
+      <c r="O981" t="inlineStr"/>
+      <c r="P981" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/data/INSA_DB.xlsx
+++ b/static/data/INSA_DB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1067"/>
+  <dimension ref="A1:U1086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63128,6 +63128,823 @@
       <c r="T1067" t="inlineStr"/>
       <c r="U1067" t="inlineStr"/>
     </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>0300</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>0300</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr"/>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="inlineStr"/>
+      <c r="H1068" t="inlineStr"/>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr"/>
+      <c r="M1068" t="inlineStr"/>
+      <c r="N1068" t="inlineStr"/>
+      <c r="O1068" t="inlineStr"/>
+      <c r="P1068" t="inlineStr"/>
+      <c r="Q1068" t="inlineStr"/>
+      <c r="R1068" t="inlineStr"/>
+      <c r="S1068" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1068" t="inlineStr"/>
+      <c r="U1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>A179</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>A179</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>강림</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>강림</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr"/>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="inlineStr"/>
+      <c r="H1069" t="inlineStr"/>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr"/>
+      <c r="M1069" t="inlineStr"/>
+      <c r="N1069" t="inlineStr"/>
+      <c r="O1069" t="inlineStr"/>
+      <c r="P1069" t="inlineStr"/>
+      <c r="Q1069" t="inlineStr"/>
+      <c r="R1069" t="inlineStr"/>
+      <c r="S1069" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1069" t="inlineStr"/>
+      <c r="U1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>B0062</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>B0062</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>박정식</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>박정식</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr"/>
+      <c r="H1070" t="inlineStr"/>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr"/>
+      <c r="M1070" t="inlineStr"/>
+      <c r="N1070" t="inlineStr"/>
+      <c r="O1070" t="inlineStr"/>
+      <c r="P1070" t="inlineStr"/>
+      <c r="Q1070" t="inlineStr"/>
+      <c r="R1070" t="inlineStr"/>
+      <c r="S1070" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1070" t="inlineStr"/>
+      <c r="U1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>B0063</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>B0063</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>마맹재</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>마맹재</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr"/>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="inlineStr"/>
+      <c r="H1071" t="inlineStr"/>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr"/>
+      <c r="M1071" t="inlineStr"/>
+      <c r="N1071" t="inlineStr"/>
+      <c r="O1071" t="inlineStr"/>
+      <c r="P1071" t="inlineStr"/>
+      <c r="Q1071" t="inlineStr"/>
+      <c r="R1071" t="inlineStr"/>
+      <c r="S1071" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1071" t="inlineStr"/>
+      <c r="U1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>B0064</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>B0064</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>권싱토</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>권싱토</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="inlineStr"/>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr"/>
+      <c r="M1072" t="inlineStr"/>
+      <c r="N1072" t="inlineStr"/>
+      <c r="O1072" t="inlineStr"/>
+      <c r="P1072" t="inlineStr"/>
+      <c r="Q1072" t="inlineStr"/>
+      <c r="R1072" t="inlineStr"/>
+      <c r="S1072" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1072" t="inlineStr"/>
+      <c r="U1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>B0065</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>B0065</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>장성명</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>장성명</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr"/>
+      <c r="M1073" t="inlineStr"/>
+      <c r="N1073" t="inlineStr"/>
+      <c r="O1073" t="inlineStr"/>
+      <c r="P1073" t="inlineStr"/>
+      <c r="Q1073" t="inlineStr"/>
+      <c r="R1073" t="inlineStr"/>
+      <c r="S1073" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1073" t="inlineStr"/>
+      <c r="U1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>B0066</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>B0066</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>이광은</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>이광은</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr"/>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr"/>
+      <c r="H1074" t="inlineStr"/>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr"/>
+      <c r="M1074" t="inlineStr"/>
+      <c r="N1074" t="inlineStr"/>
+      <c r="O1074" t="inlineStr"/>
+      <c r="P1074" t="inlineStr"/>
+      <c r="Q1074" t="inlineStr"/>
+      <c r="R1074" t="inlineStr"/>
+      <c r="S1074" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1074" t="inlineStr"/>
+      <c r="U1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>B0067</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>B0067</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>이부형</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>이부형</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="inlineStr"/>
+      <c r="H1075" t="inlineStr"/>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr"/>
+      <c r="M1075" t="inlineStr"/>
+      <c r="N1075" t="inlineStr"/>
+      <c r="O1075" t="inlineStr"/>
+      <c r="P1075" t="inlineStr"/>
+      <c r="Q1075" t="inlineStr"/>
+      <c r="R1075" t="inlineStr"/>
+      <c r="S1075" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1075" t="inlineStr"/>
+      <c r="U1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>B0068</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>B0068</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>이수</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>이수</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr"/>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
+      <c r="H1076" t="inlineStr"/>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr"/>
+      <c r="M1076" t="inlineStr"/>
+      <c r="N1076" t="inlineStr"/>
+      <c r="O1076" t="inlineStr"/>
+      <c r="P1076" t="inlineStr"/>
+      <c r="Q1076" t="inlineStr"/>
+      <c r="R1076" t="inlineStr"/>
+      <c r="S1076" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1076" t="inlineStr"/>
+      <c r="U1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>B0069</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>B0069</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>이찬홍</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>이찬홍</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr"/>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr"/>
+      <c r="H1077" t="inlineStr"/>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr"/>
+      <c r="M1077" t="inlineStr"/>
+      <c r="N1077" t="inlineStr"/>
+      <c r="O1077" t="inlineStr"/>
+      <c r="P1077" t="inlineStr"/>
+      <c r="Q1077" t="inlineStr"/>
+      <c r="R1077" t="inlineStr"/>
+      <c r="S1077" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1077" t="inlineStr"/>
+      <c r="U1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>B0070</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>B0070</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>김형기</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>김형기</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr"/>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="inlineStr"/>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr"/>
+      <c r="M1078" t="inlineStr"/>
+      <c r="N1078" t="inlineStr"/>
+      <c r="O1078" t="inlineStr"/>
+      <c r="P1078" t="inlineStr"/>
+      <c r="Q1078" t="inlineStr"/>
+      <c r="R1078" t="inlineStr"/>
+      <c r="S1078" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1078" t="inlineStr"/>
+      <c r="U1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>B0071</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>B0071</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>유홍걸</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>유홍걸</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="inlineStr"/>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr"/>
+      <c r="M1079" t="inlineStr"/>
+      <c r="N1079" t="inlineStr"/>
+      <c r="O1079" t="inlineStr"/>
+      <c r="P1079" t="inlineStr"/>
+      <c r="Q1079" t="inlineStr"/>
+      <c r="R1079" t="inlineStr"/>
+      <c r="S1079" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1079" t="inlineStr"/>
+      <c r="U1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>B0072</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>B0072</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>이효성</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>이효성</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr"/>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr"/>
+      <c r="M1080" t="inlineStr"/>
+      <c r="N1080" t="inlineStr"/>
+      <c r="O1080" t="inlineStr"/>
+      <c r="P1080" t="inlineStr"/>
+      <c r="Q1080" t="inlineStr"/>
+      <c r="R1080" t="inlineStr"/>
+      <c r="S1080" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1080" t="inlineStr"/>
+      <c r="U1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>B0073</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>B0073</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>황경부</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>황경부</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr"/>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
+      <c r="H1081" t="inlineStr"/>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr"/>
+      <c r="M1081" t="inlineStr"/>
+      <c r="N1081" t="inlineStr"/>
+      <c r="O1081" t="inlineStr"/>
+      <c r="P1081" t="inlineStr"/>
+      <c r="Q1081" t="inlineStr"/>
+      <c r="R1081" t="inlineStr"/>
+      <c r="S1081" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1081" t="inlineStr"/>
+      <c r="U1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>B0074</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>B0074</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>김종홍</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>김종홍</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="inlineStr"/>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr"/>
+      <c r="M1082" t="inlineStr"/>
+      <c r="N1082" t="inlineStr"/>
+      <c r="O1082" t="inlineStr"/>
+      <c r="P1082" t="inlineStr"/>
+      <c r="Q1082" t="inlineStr"/>
+      <c r="R1082" t="inlineStr"/>
+      <c r="S1082" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1082" t="inlineStr"/>
+      <c r="U1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>B0075</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>B0075</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>김용수</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>김용수</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr"/>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr"/>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr"/>
+      <c r="M1083" t="inlineStr"/>
+      <c r="N1083" t="inlineStr"/>
+      <c r="O1083" t="inlineStr"/>
+      <c r="P1083" t="inlineStr"/>
+      <c r="Q1083" t="inlineStr"/>
+      <c r="R1083" t="inlineStr"/>
+      <c r="S1083" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1083" t="inlineStr"/>
+      <c r="U1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>B0076</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>B0076</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>박황연</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>박황연</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr"/>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr"/>
+      <c r="M1084" t="inlineStr"/>
+      <c r="N1084" t="inlineStr"/>
+      <c r="O1084" t="inlineStr"/>
+      <c r="P1084" t="inlineStr"/>
+      <c r="Q1084" t="inlineStr"/>
+      <c r="R1084" t="inlineStr"/>
+      <c r="S1084" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1084" t="inlineStr"/>
+      <c r="U1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>B0077</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>B0077</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>이재훈</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>이재훈</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr"/>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr"/>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr"/>
+      <c r="M1085" t="inlineStr"/>
+      <c r="N1085" t="inlineStr"/>
+      <c r="O1085" t="inlineStr"/>
+      <c r="P1085" t="inlineStr"/>
+      <c r="Q1085" t="inlineStr"/>
+      <c r="R1085" t="inlineStr"/>
+      <c r="S1085" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1085" t="inlineStr"/>
+      <c r="U1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>B0078</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>B0078</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>박인성</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>박인성</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr"/>
+      <c r="M1086" t="inlineStr"/>
+      <c r="N1086" t="inlineStr"/>
+      <c r="O1086" t="inlineStr"/>
+      <c r="P1086" t="inlineStr"/>
+      <c r="Q1086" t="inlineStr"/>
+      <c r="R1086" t="inlineStr"/>
+      <c r="S1086" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T1086" t="inlineStr"/>
+      <c r="U1086" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/INSA_DB.xlsx
+++ b/static/data/INSA_DB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1086"/>
+  <dimension ref="A1:V1086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,11 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2024-10-19(출근)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20(출근)</t>
         </is>
       </c>
     </row>
@@ -583,7 +588,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -592,6 +597,7 @@
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -632,7 +638,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -641,6 +647,7 @@
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,6 +723,11 @@
           <t>2024-10-19 10:16</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-01-20 10:13</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -774,7 +786,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -783,6 +795,7 @@
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,6 +851,7 @@
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -900,7 +914,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -909,6 +923,7 @@
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -976,6 +991,7 @@
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1038,7 +1054,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1047,6 +1063,7 @@
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1114,6 +1131,7 @@
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1181,6 +1199,7 @@
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1244,6 +1263,7 @@
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1307,6 +1327,7 @@
         </is>
       </c>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1378,6 +1399,7 @@
         </is>
       </c>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1441,6 +1463,7 @@
         </is>
       </c>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1500,6 +1523,7 @@
         </is>
       </c>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1563,6 +1587,7 @@
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1626,6 +1651,7 @@
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1689,6 +1715,7 @@
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1756,6 +1783,7 @@
         </is>
       </c>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1814,7 +1842,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -1823,6 +1851,7 @@
         </is>
       </c>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1886,6 +1915,7 @@
         </is>
       </c>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1953,6 +1983,7 @@
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2020,6 +2051,7 @@
         </is>
       </c>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2091,6 +2123,7 @@
         </is>
       </c>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2158,6 +2191,7 @@
         </is>
       </c>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2221,6 +2255,7 @@
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2288,6 +2323,7 @@
         </is>
       </c>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2343,6 +2379,7 @@
         </is>
       </c>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2394,6 +2431,7 @@
         </is>
       </c>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2449,6 +2487,7 @@
         </is>
       </c>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2508,6 +2547,7 @@
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2563,6 +2603,7 @@
         </is>
       </c>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2618,6 +2659,7 @@
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2673,6 +2715,7 @@
         </is>
       </c>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2728,6 +2771,7 @@
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2783,6 +2827,7 @@
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2838,6 +2883,7 @@
         </is>
       </c>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2893,6 +2939,7 @@
         </is>
       </c>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2948,6 +2995,7 @@
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3011,6 +3059,7 @@
         </is>
       </c>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3066,6 +3115,7 @@
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3121,6 +3171,7 @@
         </is>
       </c>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3196,6 +3247,7 @@
         </is>
       </c>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3263,6 +3315,7 @@
         </is>
       </c>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3326,6 +3379,7 @@
         </is>
       </c>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3393,6 +3447,7 @@
         </is>
       </c>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3452,6 +3507,7 @@
         </is>
       </c>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3511,6 +3567,7 @@
         </is>
       </c>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3562,6 +3619,7 @@
         </is>
       </c>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3613,6 +3671,7 @@
         </is>
       </c>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3676,6 +3735,7 @@
         </is>
       </c>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3739,6 +3799,7 @@
         </is>
       </c>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3802,6 +3863,7 @@
         </is>
       </c>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3865,6 +3927,7 @@
         </is>
       </c>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3924,6 +3987,7 @@
         </is>
       </c>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3987,6 +4051,7 @@
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4042,6 +4107,7 @@
         </is>
       </c>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4097,6 +4163,7 @@
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4156,6 +4223,7 @@
         </is>
       </c>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4215,6 +4283,7 @@
         </is>
       </c>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4270,6 +4339,7 @@
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4321,6 +4391,7 @@
         </is>
       </c>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4376,6 +4447,7 @@
         </is>
       </c>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4431,6 +4503,7 @@
         </is>
       </c>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4478,6 +4551,7 @@
         </is>
       </c>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4525,6 +4599,7 @@
         </is>
       </c>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4572,6 +4647,7 @@
         </is>
       </c>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4619,6 +4695,7 @@
         </is>
       </c>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4666,6 +4743,7 @@
         </is>
       </c>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4709,6 +4787,7 @@
         </is>
       </c>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4756,6 +4835,7 @@
         </is>
       </c>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4803,6 +4883,7 @@
         </is>
       </c>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4850,6 +4931,7 @@
         </is>
       </c>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4897,6 +4979,7 @@
         </is>
       </c>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4944,6 +5027,7 @@
         </is>
       </c>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4991,6 +5075,7 @@
         </is>
       </c>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5038,6 +5123,7 @@
         </is>
       </c>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5085,6 +5171,7 @@
         </is>
       </c>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5140,6 +5227,7 @@
         </is>
       </c>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5195,6 +5283,7 @@
         </is>
       </c>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5258,6 +5347,7 @@
         </is>
       </c>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5313,6 +5403,7 @@
         </is>
       </c>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5368,6 +5459,7 @@
         </is>
       </c>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5431,6 +5523,7 @@
         </is>
       </c>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5494,6 +5587,7 @@
         </is>
       </c>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5557,6 +5651,7 @@
         </is>
       </c>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5624,6 +5719,7 @@
         </is>
       </c>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5687,6 +5783,7 @@
         </is>
       </c>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5742,6 +5839,7 @@
         </is>
       </c>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5797,6 +5895,7 @@
         </is>
       </c>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5852,6 +5951,7 @@
         </is>
       </c>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5907,6 +6007,7 @@
         </is>
       </c>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5962,6 +6063,7 @@
         </is>
       </c>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6016,7 +6118,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -6025,6 +6127,7 @@
         </is>
       </c>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6080,6 +6183,7 @@
         </is>
       </c>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6135,6 +6239,7 @@
         </is>
       </c>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6190,6 +6295,7 @@
         </is>
       </c>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6245,6 +6351,7 @@
         </is>
       </c>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6300,6 +6407,7 @@
         </is>
       </c>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6355,6 +6463,7 @@
         </is>
       </c>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6410,6 +6519,7 @@
         </is>
       </c>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6465,6 +6575,7 @@
         </is>
       </c>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6520,6 +6631,7 @@
         </is>
       </c>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6575,6 +6687,7 @@
         </is>
       </c>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6630,6 +6743,7 @@
         </is>
       </c>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6677,6 +6791,7 @@
         </is>
       </c>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6724,6 +6839,7 @@
         </is>
       </c>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6771,6 +6887,7 @@
         </is>
       </c>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6818,6 +6935,7 @@
         </is>
       </c>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6873,6 +6991,7 @@
         </is>
       </c>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6928,6 +7047,7 @@
         </is>
       </c>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6983,6 +7103,7 @@
         </is>
       </c>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7038,6 +7159,7 @@
         </is>
       </c>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7093,6 +7215,7 @@
         </is>
       </c>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7148,6 +7271,7 @@
         </is>
       </c>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7203,6 +7327,7 @@
         </is>
       </c>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7258,6 +7383,7 @@
         </is>
       </c>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7313,6 +7439,7 @@
         </is>
       </c>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7368,6 +7495,7 @@
         </is>
       </c>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7423,6 +7551,7 @@
         </is>
       </c>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7474,6 +7603,7 @@
         </is>
       </c>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7541,6 +7671,7 @@
         </is>
       </c>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7596,6 +7727,7 @@
         </is>
       </c>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7655,6 +7787,7 @@
         </is>
       </c>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7710,6 +7843,7 @@
         </is>
       </c>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7765,6 +7899,7 @@
         </is>
       </c>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7820,6 +7955,7 @@
         </is>
       </c>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7875,6 +8011,7 @@
         </is>
       </c>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7934,6 +8071,7 @@
         </is>
       </c>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7989,6 +8127,7 @@
         </is>
       </c>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8044,6 +8183,7 @@
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8099,6 +8239,7 @@
         </is>
       </c>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8154,6 +8295,7 @@
         </is>
       </c>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8209,6 +8351,7 @@
         </is>
       </c>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8264,6 +8407,7 @@
         </is>
       </c>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8319,6 +8463,7 @@
         </is>
       </c>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8374,6 +8519,7 @@
         </is>
       </c>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8429,6 +8575,7 @@
         </is>
       </c>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8484,6 +8631,7 @@
         </is>
       </c>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8539,6 +8687,7 @@
         </is>
       </c>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8594,6 +8743,7 @@
         </is>
       </c>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8649,6 +8799,7 @@
         </is>
       </c>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8704,6 +8855,7 @@
         </is>
       </c>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8759,6 +8911,7 @@
         </is>
       </c>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8814,6 +8967,7 @@
         </is>
       </c>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8869,6 +9023,7 @@
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8924,6 +9079,7 @@
         </is>
       </c>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8979,6 +9135,7 @@
         </is>
       </c>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9042,6 +9199,7 @@
         </is>
       </c>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9105,6 +9263,7 @@
         </is>
       </c>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9168,6 +9327,7 @@
         </is>
       </c>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9235,6 +9395,7 @@
         </is>
       </c>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9298,6 +9459,7 @@
         </is>
       </c>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9369,6 +9531,7 @@
         </is>
       </c>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9432,6 +9595,7 @@
         </is>
       </c>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9486,7 +9650,7 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
@@ -9495,6 +9659,7 @@
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9562,6 +9727,7 @@
         </is>
       </c>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9633,6 +9799,7 @@
         </is>
       </c>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9691,7 +9858,7 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
@@ -9700,6 +9867,7 @@
         </is>
       </c>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9759,6 +9927,7 @@
         </is>
       </c>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9818,6 +9987,7 @@
         </is>
       </c>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9885,6 +10055,7 @@
         </is>
       </c>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9940,6 +10111,7 @@
         </is>
       </c>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9999,6 +10171,7 @@
         </is>
       </c>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10054,6 +10227,7 @@
         </is>
       </c>
       <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10117,6 +10291,7 @@
         </is>
       </c>
       <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10176,6 +10351,7 @@
         </is>
       </c>
       <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10231,6 +10407,7 @@
         </is>
       </c>
       <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10290,6 +10467,7 @@
         </is>
       </c>
       <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10349,6 +10527,7 @@
         </is>
       </c>
       <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10420,6 +10599,7 @@
         </is>
       </c>
       <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10475,6 +10655,7 @@
         </is>
       </c>
       <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10538,6 +10719,7 @@
         </is>
       </c>
       <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10593,6 +10775,7 @@
         </is>
       </c>
       <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10648,6 +10831,7 @@
         </is>
       </c>
       <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10707,6 +10891,7 @@
         </is>
       </c>
       <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10766,6 +10951,7 @@
         </is>
       </c>
       <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10829,6 +11015,7 @@
         </is>
       </c>
       <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10884,6 +11071,7 @@
         </is>
       </c>
       <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10955,6 +11143,7 @@
         </is>
       </c>
       <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11026,6 +11215,7 @@
         </is>
       </c>
       <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11081,6 +11271,7 @@
         </is>
       </c>
       <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11140,6 +11331,7 @@
         </is>
       </c>
       <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11207,6 +11399,7 @@
         </is>
       </c>
       <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11270,6 +11463,7 @@
         </is>
       </c>
       <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11341,6 +11535,7 @@
         </is>
       </c>
       <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11408,6 +11603,7 @@
         </is>
       </c>
       <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11471,6 +11667,7 @@
         </is>
       </c>
       <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11534,6 +11731,7 @@
         </is>
       </c>
       <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11597,6 +11795,7 @@
         </is>
       </c>
       <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11668,6 +11867,7 @@
         </is>
       </c>
       <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11735,6 +11935,7 @@
         </is>
       </c>
       <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11798,6 +11999,7 @@
         </is>
       </c>
       <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11861,6 +12063,7 @@
         </is>
       </c>
       <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11932,6 +12135,7 @@
         </is>
       </c>
       <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11991,6 +12195,7 @@
         </is>
       </c>
       <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12046,6 +12251,7 @@
         </is>
       </c>
       <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12109,6 +12315,7 @@
         </is>
       </c>
       <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12172,6 +12379,7 @@
         </is>
       </c>
       <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12235,6 +12443,7 @@
         </is>
       </c>
       <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12290,6 +12499,7 @@
         </is>
       </c>
       <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12361,6 +12571,7 @@
         </is>
       </c>
       <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12424,6 +12635,7 @@
         </is>
       </c>
       <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12487,6 +12699,7 @@
         </is>
       </c>
       <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12554,6 +12767,7 @@
         </is>
       </c>
       <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12613,6 +12827,7 @@
         </is>
       </c>
       <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12676,6 +12891,7 @@
         </is>
       </c>
       <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12747,6 +12963,7 @@
         </is>
       </c>
       <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12810,6 +13027,7 @@
         </is>
       </c>
       <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12873,6 +13091,7 @@
         </is>
       </c>
       <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12936,6 +13155,7 @@
         </is>
       </c>
       <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12999,6 +13219,7 @@
         </is>
       </c>
       <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13070,6 +13291,7 @@
         </is>
       </c>
       <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13137,6 +13359,7 @@
         </is>
       </c>
       <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13204,6 +13427,7 @@
         </is>
       </c>
       <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13263,6 +13487,7 @@
         </is>
       </c>
       <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13330,6 +13555,7 @@
         </is>
       </c>
       <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13389,6 +13615,7 @@
         </is>
       </c>
       <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13456,6 +13683,7 @@
         </is>
       </c>
       <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13527,6 +13755,7 @@
         </is>
       </c>
       <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13598,6 +13827,7 @@
         </is>
       </c>
       <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13669,6 +13899,7 @@
         </is>
       </c>
       <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13740,6 +13971,7 @@
         </is>
       </c>
       <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13807,6 +14039,7 @@
         </is>
       </c>
       <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13878,6 +14111,7 @@
         </is>
       </c>
       <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13949,6 +14183,7 @@
         </is>
       </c>
       <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14004,6 +14239,7 @@
         </is>
       </c>
       <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14063,6 +14299,7 @@
         </is>
       </c>
       <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14130,6 +14367,7 @@
         </is>
       </c>
       <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14197,6 +14435,7 @@
         </is>
       </c>
       <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14248,6 +14487,7 @@
         </is>
       </c>
       <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14319,6 +14559,7 @@
         </is>
       </c>
       <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14382,6 +14623,7 @@
         </is>
       </c>
       <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14453,6 +14695,7 @@
         </is>
       </c>
       <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14524,6 +14767,7 @@
         </is>
       </c>
       <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14595,6 +14839,7 @@
         </is>
       </c>
       <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14654,6 +14899,7 @@
         </is>
       </c>
       <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14725,6 +14971,7 @@
         </is>
       </c>
       <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14792,6 +15039,7 @@
         </is>
       </c>
       <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14859,6 +15107,7 @@
         </is>
       </c>
       <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14930,6 +15179,7 @@
         </is>
       </c>
       <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14985,6 +15235,7 @@
         </is>
       </c>
       <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -15036,6 +15287,7 @@
         </is>
       </c>
       <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -15103,6 +15355,7 @@
         </is>
       </c>
       <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15170,6 +15423,7 @@
         </is>
       </c>
       <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15233,6 +15487,7 @@
         </is>
       </c>
       <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15304,6 +15559,7 @@
         </is>
       </c>
       <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15375,6 +15631,7 @@
         </is>
       </c>
       <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15430,6 +15687,7 @@
         </is>
       </c>
       <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15497,6 +15755,7 @@
         </is>
       </c>
       <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15556,6 +15815,7 @@
         </is>
       </c>
       <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15619,6 +15879,7 @@
         </is>
       </c>
       <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15678,6 +15939,7 @@
         </is>
       </c>
       <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15753,6 +16015,7 @@
         </is>
       </c>
       <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15816,6 +16079,7 @@
         </is>
       </c>
       <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15883,6 +16147,7 @@
         </is>
       </c>
       <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15954,6 +16219,7 @@
         </is>
       </c>
       <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -16025,6 +16291,7 @@
         </is>
       </c>
       <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -16096,6 +16363,7 @@
         </is>
       </c>
       <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -16159,6 +16427,7 @@
         </is>
       </c>
       <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -16210,6 +16479,7 @@
         </is>
       </c>
       <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -16269,6 +16539,7 @@
         </is>
       </c>
       <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -16336,6 +16607,7 @@
         </is>
       </c>
       <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16395,6 +16667,7 @@
         </is>
       </c>
       <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16450,6 +16723,7 @@
         </is>
       </c>
       <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -16513,6 +16787,7 @@
         </is>
       </c>
       <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16568,6 +16843,7 @@
         </is>
       </c>
       <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16627,6 +16903,7 @@
         </is>
       </c>
       <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16686,6 +16963,7 @@
         </is>
       </c>
       <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16741,6 +17019,7 @@
         </is>
       </c>
       <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16808,6 +17087,7 @@
         </is>
       </c>
       <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16879,6 +17159,7 @@
         </is>
       </c>
       <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16938,6 +17219,7 @@
         </is>
       </c>
       <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16989,6 +17271,7 @@
         </is>
       </c>
       <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -17048,6 +17331,7 @@
         </is>
       </c>
       <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -17111,6 +17395,7 @@
         </is>
       </c>
       <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -17170,6 +17455,7 @@
         </is>
       </c>
       <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -17229,6 +17515,7 @@
         </is>
       </c>
       <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -17292,6 +17579,7 @@
         </is>
       </c>
       <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -17355,6 +17643,7 @@
         </is>
       </c>
       <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17426,6 +17715,7 @@
         </is>
       </c>
       <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -17493,6 +17783,7 @@
         </is>
       </c>
       <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -17564,6 +17855,7 @@
         </is>
       </c>
       <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17623,6 +17915,7 @@
         </is>
       </c>
       <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17678,6 +17971,7 @@
         </is>
       </c>
       <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17737,6 +18031,7 @@
         </is>
       </c>
       <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17792,6 +18087,7 @@
         </is>
       </c>
       <c r="U288" t="inlineStr"/>
+      <c r="V288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17863,6 +18159,7 @@
         </is>
       </c>
       <c r="U289" t="inlineStr"/>
+      <c r="V289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17922,6 +18219,7 @@
         </is>
       </c>
       <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17977,6 +18275,7 @@
         </is>
       </c>
       <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -18040,6 +18339,7 @@
         </is>
       </c>
       <c r="U292" t="inlineStr"/>
+      <c r="V292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -18095,6 +18395,7 @@
         </is>
       </c>
       <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -18154,6 +18455,7 @@
         </is>
       </c>
       <c r="U294" t="inlineStr"/>
+      <c r="V294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -18221,6 +18523,7 @@
         </is>
       </c>
       <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -18288,6 +18591,7 @@
         </is>
       </c>
       <c r="U296" t="inlineStr"/>
+      <c r="V296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -18355,6 +18659,7 @@
         </is>
       </c>
       <c r="U297" t="inlineStr"/>
+      <c r="V297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -18426,6 +18731,7 @@
         </is>
       </c>
       <c r="U298" t="inlineStr"/>
+      <c r="V298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -18497,6 +18803,7 @@
         </is>
       </c>
       <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -18568,6 +18875,7 @@
         </is>
       </c>
       <c r="U300" t="inlineStr"/>
+      <c r="V300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -18639,6 +18947,7 @@
         </is>
       </c>
       <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -18702,6 +19011,7 @@
         </is>
       </c>
       <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -18773,6 +19083,7 @@
         </is>
       </c>
       <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -18832,6 +19143,7 @@
         </is>
       </c>
       <c r="U304" t="inlineStr"/>
+      <c r="V304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18887,6 +19199,7 @@
         </is>
       </c>
       <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -18942,6 +19255,7 @@
         </is>
       </c>
       <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -18997,6 +19311,7 @@
         </is>
       </c>
       <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -19060,6 +19375,7 @@
         </is>
       </c>
       <c r="U308" t="inlineStr"/>
+      <c r="V308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -19107,6 +19423,7 @@
         </is>
       </c>
       <c r="U309" t="inlineStr"/>
+      <c r="V309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -19158,6 +19475,7 @@
         </is>
       </c>
       <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -19217,6 +19535,7 @@
         </is>
       </c>
       <c r="U311" t="inlineStr"/>
+      <c r="V311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -19272,6 +19591,7 @@
         </is>
       </c>
       <c r="U312" t="inlineStr"/>
+      <c r="V312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -19339,6 +19659,7 @@
         </is>
       </c>
       <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -19394,6 +19715,7 @@
         </is>
       </c>
       <c r="U314" t="inlineStr"/>
+      <c r="V314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -19449,6 +19771,7 @@
         </is>
       </c>
       <c r="U315" t="inlineStr"/>
+      <c r="V315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -19504,6 +19827,7 @@
         </is>
       </c>
       <c r="U316" t="inlineStr"/>
+      <c r="V316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -19559,6 +19883,7 @@
         </is>
       </c>
       <c r="U317" t="inlineStr"/>
+      <c r="V317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -19618,6 +19943,7 @@
         </is>
       </c>
       <c r="U318" t="inlineStr"/>
+      <c r="V318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -19665,6 +19991,7 @@
         </is>
       </c>
       <c r="U319" t="inlineStr"/>
+      <c r="V319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -19712,6 +20039,7 @@
         </is>
       </c>
       <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -19759,6 +20087,7 @@
         </is>
       </c>
       <c r="U321" t="inlineStr"/>
+      <c r="V321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -19814,6 +20143,7 @@
         </is>
       </c>
       <c r="U322" t="inlineStr"/>
+      <c r="V322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -19865,6 +20195,7 @@
         </is>
       </c>
       <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -19928,6 +20259,7 @@
         </is>
       </c>
       <c r="U324" t="inlineStr"/>
+      <c r="V324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -19991,6 +20323,7 @@
         </is>
       </c>
       <c r="U325" t="inlineStr"/>
+      <c r="V325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -20054,6 +20387,7 @@
         </is>
       </c>
       <c r="U326" t="inlineStr"/>
+      <c r="V326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -20113,6 +20447,7 @@
         </is>
       </c>
       <c r="U327" t="inlineStr"/>
+      <c r="V327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -20180,6 +20515,7 @@
         </is>
       </c>
       <c r="U328" t="inlineStr"/>
+      <c r="V328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -20235,6 +20571,7 @@
         </is>
       </c>
       <c r="U329" t="inlineStr"/>
+      <c r="V329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -20298,6 +20635,7 @@
         </is>
       </c>
       <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -20365,6 +20703,7 @@
         </is>
       </c>
       <c r="U331" t="inlineStr"/>
+      <c r="V331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -20436,6 +20775,7 @@
         </is>
       </c>
       <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -20491,6 +20831,7 @@
         </is>
       </c>
       <c r="U333" t="inlineStr"/>
+      <c r="V333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -20562,6 +20903,7 @@
         </is>
       </c>
       <c r="U334" t="inlineStr"/>
+      <c r="V334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -20629,6 +20971,7 @@
         </is>
       </c>
       <c r="U335" t="inlineStr"/>
+      <c r="V335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -20704,6 +21047,7 @@
         </is>
       </c>
       <c r="U336" t="inlineStr"/>
+      <c r="V336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -20775,6 +21119,7 @@
         </is>
       </c>
       <c r="U337" t="inlineStr"/>
+      <c r="V337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -20834,6 +21179,7 @@
         </is>
       </c>
       <c r="U338" t="inlineStr"/>
+      <c r="V338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -20901,6 +21247,7 @@
         </is>
       </c>
       <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -20968,6 +21315,7 @@
         </is>
       </c>
       <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -21039,6 +21387,7 @@
         </is>
       </c>
       <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -21110,6 +21459,7 @@
         </is>
       </c>
       <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -21181,6 +21531,7 @@
         </is>
       </c>
       <c r="U343" t="inlineStr"/>
+      <c r="V343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -21240,6 +21591,7 @@
         </is>
       </c>
       <c r="U344" t="inlineStr"/>
+      <c r="V344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -21295,6 +21647,7 @@
         </is>
       </c>
       <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -21354,6 +21707,7 @@
         </is>
       </c>
       <c r="U346" t="inlineStr"/>
+      <c r="V346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -21417,6 +21771,7 @@
         </is>
       </c>
       <c r="U347" t="inlineStr"/>
+      <c r="V347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -21480,6 +21835,7 @@
         </is>
       </c>
       <c r="U348" t="inlineStr"/>
+      <c r="V348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -21543,6 +21899,7 @@
         </is>
       </c>
       <c r="U349" t="inlineStr"/>
+      <c r="V349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -21602,6 +21959,7 @@
         </is>
       </c>
       <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -21661,6 +22019,7 @@
         </is>
       </c>
       <c r="U351" t="inlineStr"/>
+      <c r="V351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -21724,6 +22083,7 @@
         </is>
       </c>
       <c r="U352" t="inlineStr"/>
+      <c r="V352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -21787,6 +22147,7 @@
         </is>
       </c>
       <c r="U353" t="inlineStr"/>
+      <c r="V353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -21850,6 +22211,7 @@
         </is>
       </c>
       <c r="U354" t="inlineStr"/>
+      <c r="V354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -21909,6 +22271,7 @@
         </is>
       </c>
       <c r="U355" t="inlineStr"/>
+      <c r="V355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -21972,6 +22335,7 @@
         </is>
       </c>
       <c r="U356" t="inlineStr"/>
+      <c r="V356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -22043,6 +22407,7 @@
         </is>
       </c>
       <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -22114,6 +22479,7 @@
         </is>
       </c>
       <c r="U358" t="inlineStr"/>
+      <c r="V358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -22173,6 +22539,7 @@
         </is>
       </c>
       <c r="U359" t="inlineStr"/>
+      <c r="V359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -22228,6 +22595,7 @@
         </is>
       </c>
       <c r="U360" t="inlineStr"/>
+      <c r="V360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -22295,6 +22663,7 @@
         </is>
       </c>
       <c r="U361" t="inlineStr"/>
+      <c r="V361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -22366,6 +22735,7 @@
         </is>
       </c>
       <c r="U362" t="inlineStr"/>
+      <c r="V362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -22437,6 +22807,7 @@
         </is>
       </c>
       <c r="U363" t="inlineStr"/>
+      <c r="V363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -22504,6 +22875,7 @@
         </is>
       </c>
       <c r="U364" t="inlineStr"/>
+      <c r="V364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -22575,6 +22947,7 @@
         </is>
       </c>
       <c r="U365" t="inlineStr"/>
+      <c r="V365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -22646,6 +23019,7 @@
         </is>
       </c>
       <c r="U366" t="inlineStr"/>
+      <c r="V366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -22709,6 +23083,7 @@
         </is>
       </c>
       <c r="U367" t="inlineStr"/>
+      <c r="V367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -22780,6 +23155,7 @@
         </is>
       </c>
       <c r="U368" t="inlineStr"/>
+      <c r="V368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -22839,6 +23215,7 @@
         </is>
       </c>
       <c r="U369" t="inlineStr"/>
+      <c r="V369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -22906,6 +23283,7 @@
         </is>
       </c>
       <c r="U370" t="inlineStr"/>
+      <c r="V370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -22965,6 +23343,7 @@
         </is>
       </c>
       <c r="U371" t="inlineStr"/>
+      <c r="V371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -23036,6 +23415,7 @@
         </is>
       </c>
       <c r="U372" t="inlineStr"/>
+      <c r="V372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -23099,6 +23479,7 @@
         </is>
       </c>
       <c r="U373" t="inlineStr"/>
+      <c r="V373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -23162,6 +23543,7 @@
         </is>
       </c>
       <c r="U374" t="inlineStr"/>
+      <c r="V374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -23225,6 +23607,7 @@
         </is>
       </c>
       <c r="U375" t="inlineStr"/>
+      <c r="V375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -23292,6 +23675,7 @@
         </is>
       </c>
       <c r="U376" t="inlineStr"/>
+      <c r="V376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -23359,6 +23743,7 @@
         </is>
       </c>
       <c r="U377" t="inlineStr"/>
+      <c r="V377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -23426,6 +23811,7 @@
         </is>
       </c>
       <c r="U378" t="inlineStr"/>
+      <c r="V378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -23489,6 +23875,7 @@
         </is>
       </c>
       <c r="U379" t="inlineStr"/>
+      <c r="V379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -23552,6 +23939,7 @@
         </is>
       </c>
       <c r="U380" t="inlineStr"/>
+      <c r="V380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -23623,6 +24011,7 @@
         </is>
       </c>
       <c r="U381" t="inlineStr"/>
+      <c r="V381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -23690,6 +24079,7 @@
         </is>
       </c>
       <c r="U382" t="inlineStr"/>
+      <c r="V382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -23757,6 +24147,7 @@
         </is>
       </c>
       <c r="U383" t="inlineStr"/>
+      <c r="V383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -23824,6 +24215,7 @@
         </is>
       </c>
       <c r="U384" t="inlineStr"/>
+      <c r="V384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -23887,6 +24279,7 @@
         </is>
       </c>
       <c r="U385" t="inlineStr"/>
+      <c r="V385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -23942,6 +24335,7 @@
         </is>
       </c>
       <c r="U386" t="inlineStr"/>
+      <c r="V386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -24009,6 +24403,7 @@
         </is>
       </c>
       <c r="U387" t="inlineStr"/>
+      <c r="V387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -24064,6 +24459,7 @@
         </is>
       </c>
       <c r="U388" t="inlineStr"/>
+      <c r="V388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -24119,6 +24515,7 @@
         </is>
       </c>
       <c r="U389" t="inlineStr"/>
+      <c r="V389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -24178,6 +24575,7 @@
         </is>
       </c>
       <c r="U390" t="inlineStr"/>
+      <c r="V390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -24237,6 +24635,7 @@
         </is>
       </c>
       <c r="U391" t="inlineStr"/>
+      <c r="V391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -24296,6 +24695,7 @@
         </is>
       </c>
       <c r="U392" t="inlineStr"/>
+      <c r="V392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -24355,6 +24755,7 @@
         </is>
       </c>
       <c r="U393" t="inlineStr"/>
+      <c r="V393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -24414,6 +24815,7 @@
         </is>
       </c>
       <c r="U394" t="inlineStr"/>
+      <c r="V394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -24485,6 +24887,7 @@
         </is>
       </c>
       <c r="U395" t="inlineStr"/>
+      <c r="V395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -24552,6 +24955,7 @@
         </is>
       </c>
       <c r="U396" t="inlineStr"/>
+      <c r="V396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -24623,6 +25027,7 @@
         </is>
       </c>
       <c r="U397" t="inlineStr"/>
+      <c r="V397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -24678,6 +25083,7 @@
         </is>
       </c>
       <c r="U398" t="inlineStr"/>
+      <c r="V398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -24729,6 +25135,7 @@
         </is>
       </c>
       <c r="U399" t="inlineStr"/>
+      <c r="V399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -24796,6 +25203,7 @@
         </is>
       </c>
       <c r="U400" t="inlineStr"/>
+      <c r="V400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -24847,6 +25255,7 @@
         </is>
       </c>
       <c r="U401" t="inlineStr"/>
+      <c r="V401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -24906,6 +25315,7 @@
         </is>
       </c>
       <c r="U402" t="inlineStr"/>
+      <c r="V402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -24961,6 +25371,7 @@
         </is>
       </c>
       <c r="U403" t="inlineStr"/>
+      <c r="V403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -25012,6 +25423,7 @@
         </is>
       </c>
       <c r="U404" t="inlineStr"/>
+      <c r="V404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -25083,6 +25495,7 @@
         </is>
       </c>
       <c r="U405" t="inlineStr"/>
+      <c r="V405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -25154,6 +25567,7 @@
         </is>
       </c>
       <c r="U406" t="inlineStr"/>
+      <c r="V406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -25205,6 +25619,7 @@
         </is>
       </c>
       <c r="U407" t="inlineStr"/>
+      <c r="V407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -25272,6 +25687,7 @@
         </is>
       </c>
       <c r="U408" t="inlineStr"/>
+      <c r="V408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -25339,6 +25755,7 @@
         </is>
       </c>
       <c r="U409" t="inlineStr"/>
+      <c r="V409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -25394,6 +25811,7 @@
         </is>
       </c>
       <c r="U410" t="inlineStr"/>
+      <c r="V410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -25457,6 +25875,7 @@
         </is>
       </c>
       <c r="U411" t="inlineStr"/>
+      <c r="V411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -25528,6 +25947,7 @@
         </is>
       </c>
       <c r="U412" t="inlineStr"/>
+      <c r="V412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -25595,6 +26015,7 @@
         </is>
       </c>
       <c r="U413" t="inlineStr"/>
+      <c r="V413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -25650,6 +26071,7 @@
         </is>
       </c>
       <c r="U414" t="inlineStr"/>
+      <c r="V414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -25705,6 +26127,7 @@
         </is>
       </c>
       <c r="U415" t="inlineStr"/>
+      <c r="V415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -25760,6 +26183,7 @@
         </is>
       </c>
       <c r="U416" t="inlineStr"/>
+      <c r="V416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -25823,6 +26247,7 @@
         </is>
       </c>
       <c r="U417" t="inlineStr"/>
+      <c r="V417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -25894,6 +26319,7 @@
         </is>
       </c>
       <c r="U418" t="inlineStr"/>
+      <c r="V418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -25961,6 +26387,7 @@
         </is>
       </c>
       <c r="U419" t="inlineStr"/>
+      <c r="V419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -26024,6 +26451,7 @@
         </is>
       </c>
       <c r="U420" t="inlineStr"/>
+      <c r="V420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -26083,6 +26511,7 @@
         </is>
       </c>
       <c r="U421" t="inlineStr"/>
+      <c r="V421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -26138,6 +26567,7 @@
         </is>
       </c>
       <c r="U422" t="inlineStr"/>
+      <c r="V422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -26201,6 +26631,7 @@
         </is>
       </c>
       <c r="U423" t="inlineStr"/>
+      <c r="V423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -26260,6 +26691,7 @@
         </is>
       </c>
       <c r="U424" t="inlineStr"/>
+      <c r="V424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -26319,6 +26751,7 @@
         </is>
       </c>
       <c r="U425" t="inlineStr"/>
+      <c r="V425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -26378,6 +26811,7 @@
         </is>
       </c>
       <c r="U426" t="inlineStr"/>
+      <c r="V426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -26445,6 +26879,7 @@
         </is>
       </c>
       <c r="U427" t="inlineStr"/>
+      <c r="V427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -26508,6 +26943,7 @@
         </is>
       </c>
       <c r="U428" t="inlineStr"/>
+      <c r="V428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -26571,6 +27007,7 @@
         </is>
       </c>
       <c r="U429" t="inlineStr"/>
+      <c r="V429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -26634,6 +27071,7 @@
         </is>
       </c>
       <c r="U430" t="inlineStr"/>
+      <c r="V430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -26697,6 +27135,7 @@
         </is>
       </c>
       <c r="U431" t="inlineStr"/>
+      <c r="V431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -26760,6 +27199,7 @@
         </is>
       </c>
       <c r="U432" t="inlineStr"/>
+      <c r="V432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -26827,6 +27267,7 @@
         </is>
       </c>
       <c r="U433" t="inlineStr"/>
+      <c r="V433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -26874,6 +27315,7 @@
         </is>
       </c>
       <c r="U434" t="inlineStr"/>
+      <c r="V434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -26921,6 +27363,7 @@
         </is>
       </c>
       <c r="U435" t="inlineStr"/>
+      <c r="V435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -26984,6 +27427,7 @@
         </is>
       </c>
       <c r="U436" t="inlineStr"/>
+      <c r="V436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -27051,6 +27495,7 @@
         </is>
       </c>
       <c r="U437" t="inlineStr"/>
+      <c r="V437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -27110,6 +27555,7 @@
         </is>
       </c>
       <c r="U438" t="inlineStr"/>
+      <c r="V438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -27165,6 +27611,7 @@
         </is>
       </c>
       <c r="U439" t="inlineStr"/>
+      <c r="V439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -27228,6 +27675,7 @@
         </is>
       </c>
       <c r="U440" t="inlineStr"/>
+      <c r="V440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -27283,6 +27731,7 @@
         </is>
       </c>
       <c r="U441" t="inlineStr"/>
+      <c r="V441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -27338,6 +27787,7 @@
         </is>
       </c>
       <c r="U442" t="inlineStr"/>
+      <c r="V442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -27401,6 +27851,7 @@
         </is>
       </c>
       <c r="U443" t="inlineStr"/>
+      <c r="V443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -27468,6 +27919,7 @@
         </is>
       </c>
       <c r="U444" t="inlineStr"/>
+      <c r="V444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -27539,6 +27991,7 @@
         </is>
       </c>
       <c r="U445" t="inlineStr"/>
+      <c r="V445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -27602,6 +28055,7 @@
         </is>
       </c>
       <c r="U446" t="inlineStr"/>
+      <c r="V446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -27669,6 +28123,7 @@
         </is>
       </c>
       <c r="U447" t="inlineStr"/>
+      <c r="V447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -27732,6 +28187,7 @@
         </is>
       </c>
       <c r="U448" t="inlineStr"/>
+      <c r="V448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -27795,6 +28251,7 @@
         </is>
       </c>
       <c r="U449" t="inlineStr"/>
+      <c r="V449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -27858,6 +28315,7 @@
         </is>
       </c>
       <c r="U450" t="inlineStr"/>
+      <c r="V450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -27921,6 +28379,7 @@
         </is>
       </c>
       <c r="U451" t="inlineStr"/>
+      <c r="V451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -27984,6 +28443,7 @@
         </is>
       </c>
       <c r="U452" t="inlineStr"/>
+      <c r="V452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -28047,6 +28507,7 @@
         </is>
       </c>
       <c r="U453" t="inlineStr"/>
+      <c r="V453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -28110,6 +28571,7 @@
         </is>
       </c>
       <c r="U454" t="inlineStr"/>
+      <c r="V454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -28181,6 +28643,7 @@
         </is>
       </c>
       <c r="U455" t="inlineStr"/>
+      <c r="V455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -28236,6 +28699,7 @@
         </is>
       </c>
       <c r="U456" t="inlineStr"/>
+      <c r="V456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -28291,6 +28755,7 @@
         </is>
       </c>
       <c r="U457" t="inlineStr"/>
+      <c r="V457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -28354,6 +28819,7 @@
         </is>
       </c>
       <c r="U458" t="inlineStr"/>
+      <c r="V458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -28421,6 +28887,7 @@
         </is>
       </c>
       <c r="U459" t="inlineStr"/>
+      <c r="V459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -28476,6 +28943,7 @@
         </is>
       </c>
       <c r="U460" t="inlineStr"/>
+      <c r="V460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -28527,6 +28995,7 @@
         </is>
       </c>
       <c r="U461" t="inlineStr"/>
+      <c r="V461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -28582,6 +29051,7 @@
         </is>
       </c>
       <c r="U462" t="inlineStr"/>
+      <c r="V462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -28637,6 +29107,7 @@
         </is>
       </c>
       <c r="U463" t="inlineStr"/>
+      <c r="V463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -28700,6 +29171,7 @@
         </is>
       </c>
       <c r="U464" t="inlineStr"/>
+      <c r="V464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -28763,6 +29235,7 @@
         </is>
       </c>
       <c r="U465" t="inlineStr"/>
+      <c r="V465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -28822,6 +29295,7 @@
         </is>
       </c>
       <c r="U466" t="inlineStr"/>
+      <c r="V466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -28873,6 +29347,7 @@
         </is>
       </c>
       <c r="U467" t="inlineStr"/>
+      <c r="V467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -28944,6 +29419,7 @@
         </is>
       </c>
       <c r="U468" t="inlineStr"/>
+      <c r="V468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -29003,6 +29479,7 @@
         </is>
       </c>
       <c r="U469" t="inlineStr"/>
+      <c r="V469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -29066,6 +29543,7 @@
         </is>
       </c>
       <c r="U470" t="inlineStr"/>
+      <c r="V470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -29137,6 +29615,7 @@
         </is>
       </c>
       <c r="U471" t="inlineStr"/>
+      <c r="V471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -29200,6 +29679,7 @@
         </is>
       </c>
       <c r="U472" t="inlineStr"/>
+      <c r="V472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -29259,6 +29739,7 @@
         </is>
       </c>
       <c r="U473" t="inlineStr"/>
+      <c r="V473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -29322,6 +29803,7 @@
         </is>
       </c>
       <c r="U474" t="inlineStr"/>
+      <c r="V474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -29393,6 +29875,7 @@
         </is>
       </c>
       <c r="U475" t="inlineStr"/>
+      <c r="V475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -29456,6 +29939,7 @@
         </is>
       </c>
       <c r="U476" t="inlineStr"/>
+      <c r="V476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -29519,6 +30003,7 @@
         </is>
       </c>
       <c r="U477" t="inlineStr"/>
+      <c r="V477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -29574,6 +30059,7 @@
         </is>
       </c>
       <c r="U478" t="inlineStr"/>
+      <c r="V478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -29641,6 +30127,7 @@
         </is>
       </c>
       <c r="U479" t="inlineStr"/>
+      <c r="V479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -29704,6 +30191,7 @@
         </is>
       </c>
       <c r="U480" t="inlineStr"/>
+      <c r="V480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -29759,6 +30247,7 @@
         </is>
       </c>
       <c r="U481" t="inlineStr"/>
+      <c r="V481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -29814,6 +30303,7 @@
         </is>
       </c>
       <c r="U482" t="inlineStr"/>
+      <c r="V482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -29869,6 +30359,7 @@
         </is>
       </c>
       <c r="U483" t="inlineStr"/>
+      <c r="V483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -29932,6 +30423,7 @@
         </is>
       </c>
       <c r="U484" t="inlineStr"/>
+      <c r="V484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -29987,6 +30479,7 @@
         </is>
       </c>
       <c r="U485" t="inlineStr"/>
+      <c r="V485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -30050,6 +30543,7 @@
         </is>
       </c>
       <c r="U486" t="inlineStr"/>
+      <c r="V486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -30117,6 +30611,7 @@
         </is>
       </c>
       <c r="U487" t="inlineStr"/>
+      <c r="V487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -30180,6 +30675,7 @@
         </is>
       </c>
       <c r="U488" t="inlineStr"/>
+      <c r="V488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -30239,6 +30735,7 @@
         </is>
       </c>
       <c r="U489" t="inlineStr"/>
+      <c r="V489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -30302,6 +30799,7 @@
         </is>
       </c>
       <c r="U490" t="inlineStr"/>
+      <c r="V490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -30361,6 +30859,7 @@
         </is>
       </c>
       <c r="U491" t="inlineStr"/>
+      <c r="V491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -30424,6 +30923,7 @@
         </is>
       </c>
       <c r="U492" t="inlineStr"/>
+      <c r="V492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -30478,7 +30978,7 @@
       </c>
       <c r="S493" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T493" t="inlineStr">
@@ -30487,6 +30987,7 @@
         </is>
       </c>
       <c r="U493" t="inlineStr"/>
+      <c r="V493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -30558,6 +31059,7 @@
         </is>
       </c>
       <c r="U494" t="inlineStr"/>
+      <c r="V494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -30629,6 +31131,7 @@
         </is>
       </c>
       <c r="U495" t="inlineStr"/>
+      <c r="V495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -30700,6 +31203,7 @@
         </is>
       </c>
       <c r="U496" t="inlineStr"/>
+      <c r="V496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -30763,6 +31267,7 @@
         </is>
       </c>
       <c r="U497" t="inlineStr"/>
+      <c r="V497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -30826,6 +31331,7 @@
         </is>
       </c>
       <c r="U498" t="inlineStr"/>
+      <c r="V498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -30897,6 +31403,7 @@
         </is>
       </c>
       <c r="U499" t="inlineStr"/>
+      <c r="V499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -30964,6 +31471,7 @@
         </is>
       </c>
       <c r="U500" t="inlineStr"/>
+      <c r="V500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -31027,6 +31535,7 @@
         </is>
       </c>
       <c r="U501" t="inlineStr"/>
+      <c r="V501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -31090,6 +31599,7 @@
         </is>
       </c>
       <c r="U502" t="inlineStr"/>
+      <c r="V502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -31145,6 +31655,7 @@
         </is>
       </c>
       <c r="U503" t="inlineStr"/>
+      <c r="V503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -31212,6 +31723,7 @@
         </is>
       </c>
       <c r="U504" t="inlineStr"/>
+      <c r="V504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -31279,6 +31791,7 @@
         </is>
       </c>
       <c r="U505" t="inlineStr"/>
+      <c r="V505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -31338,6 +31851,7 @@
         </is>
       </c>
       <c r="U506" t="inlineStr"/>
+      <c r="V506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -31397,6 +31911,7 @@
         </is>
       </c>
       <c r="U507" t="inlineStr"/>
+      <c r="V507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -31452,6 +31967,7 @@
         </is>
       </c>
       <c r="U508" t="inlineStr"/>
+      <c r="V508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -31515,6 +32031,7 @@
         </is>
       </c>
       <c r="U509" t="inlineStr"/>
+      <c r="V509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -31574,6 +32091,7 @@
         </is>
       </c>
       <c r="U510" t="inlineStr"/>
+      <c r="V510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -31633,6 +32151,7 @@
         </is>
       </c>
       <c r="U511" t="inlineStr"/>
+      <c r="V511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -31704,6 +32223,7 @@
         </is>
       </c>
       <c r="U512" t="inlineStr"/>
+      <c r="V512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -31771,6 +32291,7 @@
         </is>
       </c>
       <c r="U513" t="inlineStr"/>
+      <c r="V513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -31834,6 +32355,7 @@
         </is>
       </c>
       <c r="U514" t="inlineStr"/>
+      <c r="V514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -31897,6 +32419,7 @@
         </is>
       </c>
       <c r="U515" t="inlineStr"/>
+      <c r="V515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -31952,6 +32475,7 @@
         </is>
       </c>
       <c r="U516" t="inlineStr"/>
+      <c r="V516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -32015,6 +32539,7 @@
         </is>
       </c>
       <c r="U517" t="inlineStr"/>
+      <c r="V517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -32078,6 +32603,7 @@
         </is>
       </c>
       <c r="U518" t="inlineStr"/>
+      <c r="V518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -32141,6 +32667,7 @@
         </is>
       </c>
       <c r="U519" t="inlineStr"/>
+      <c r="V519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -32200,6 +32727,7 @@
         </is>
       </c>
       <c r="U520" t="inlineStr"/>
+      <c r="V520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -32263,6 +32791,7 @@
         </is>
       </c>
       <c r="U521" t="inlineStr"/>
+      <c r="V521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -32326,6 +32855,7 @@
         </is>
       </c>
       <c r="U522" t="inlineStr"/>
+      <c r="V522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -32389,6 +32919,7 @@
         </is>
       </c>
       <c r="U523" t="inlineStr"/>
+      <c r="V523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -32452,6 +32983,7 @@
         </is>
       </c>
       <c r="U524" t="inlineStr"/>
+      <c r="V524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -32515,6 +33047,7 @@
         </is>
       </c>
       <c r="U525" t="inlineStr"/>
+      <c r="V525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -32578,6 +33111,7 @@
         </is>
       </c>
       <c r="U526" t="inlineStr"/>
+      <c r="V526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -32640,7 +33174,7 @@
       </c>
       <c r="S527" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="T527" t="inlineStr">
@@ -32649,6 +33183,7 @@
         </is>
       </c>
       <c r="U527" t="inlineStr"/>
+      <c r="V527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -32708,6 +33243,7 @@
         </is>
       </c>
       <c r="U528" t="inlineStr"/>
+      <c r="V528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -32763,6 +33299,7 @@
         </is>
       </c>
       <c r="U529" t="inlineStr"/>
+      <c r="V529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -32818,6 +33355,7 @@
         </is>
       </c>
       <c r="U530" t="inlineStr"/>
+      <c r="V530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -32877,6 +33415,7 @@
         </is>
       </c>
       <c r="U531" t="inlineStr"/>
+      <c r="V531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -32940,6 +33479,7 @@
         </is>
       </c>
       <c r="U532" t="inlineStr"/>
+      <c r="V532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -33011,6 +33551,7 @@
         </is>
       </c>
       <c r="U533" t="inlineStr"/>
+      <c r="V533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -33082,6 +33623,7 @@
         </is>
       </c>
       <c r="U534" t="inlineStr"/>
+      <c r="V534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -33133,6 +33675,7 @@
         </is>
       </c>
       <c r="U535" t="inlineStr"/>
+      <c r="V535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -33200,6 +33743,7 @@
         </is>
       </c>
       <c r="U536" t="inlineStr"/>
+      <c r="V536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -33259,6 +33803,7 @@
         </is>
       </c>
       <c r="U537" t="inlineStr"/>
+      <c r="V537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -33322,6 +33867,7 @@
         </is>
       </c>
       <c r="U538" t="inlineStr"/>
+      <c r="V538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -33385,6 +33931,7 @@
         </is>
       </c>
       <c r="U539" t="inlineStr"/>
+      <c r="V539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -33456,6 +34003,7 @@
         </is>
       </c>
       <c r="U540" t="inlineStr"/>
+      <c r="V540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -33523,6 +34071,7 @@
         </is>
       </c>
       <c r="U541" t="inlineStr"/>
+      <c r="V541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -33590,6 +34139,7 @@
         </is>
       </c>
       <c r="U542" t="inlineStr"/>
+      <c r="V542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -33637,6 +34187,7 @@
         </is>
       </c>
       <c r="U543" t="inlineStr"/>
+      <c r="V543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -33708,6 +34259,7 @@
         </is>
       </c>
       <c r="U544" t="inlineStr"/>
+      <c r="V544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -33775,6 +34327,7 @@
         </is>
       </c>
       <c r="U545" t="inlineStr"/>
+      <c r="V545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -33834,6 +34387,7 @@
         </is>
       </c>
       <c r="U546" t="inlineStr"/>
+      <c r="V546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -33889,6 +34443,7 @@
         </is>
       </c>
       <c r="U547" t="inlineStr"/>
+      <c r="V547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -33936,6 +34491,7 @@
         </is>
       </c>
       <c r="U548" t="inlineStr"/>
+      <c r="V548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -33999,6 +34555,7 @@
         </is>
       </c>
       <c r="U549" t="inlineStr"/>
+      <c r="V549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -34046,6 +34603,7 @@
         </is>
       </c>
       <c r="U550" t="inlineStr"/>
+      <c r="V550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -34093,6 +34651,7 @@
         </is>
       </c>
       <c r="U551" t="inlineStr"/>
+      <c r="V551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -34152,6 +34711,7 @@
         </is>
       </c>
       <c r="U552" t="inlineStr"/>
+      <c r="V552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -34223,6 +34783,7 @@
         </is>
       </c>
       <c r="U553" t="inlineStr"/>
+      <c r="V553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -34290,6 +34851,7 @@
         </is>
       </c>
       <c r="U554" t="inlineStr"/>
+      <c r="V554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -34361,6 +34923,7 @@
         </is>
       </c>
       <c r="U555" t="inlineStr"/>
+      <c r="V555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -34432,6 +34995,7 @@
         </is>
       </c>
       <c r="U556" t="inlineStr"/>
+      <c r="V556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -34503,6 +35067,7 @@
         </is>
       </c>
       <c r="U557" t="inlineStr"/>
+      <c r="V557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -34574,6 +35139,7 @@
         </is>
       </c>
       <c r="U558" t="inlineStr"/>
+      <c r="V558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -34625,6 +35191,7 @@
         </is>
       </c>
       <c r="U559" t="inlineStr"/>
+      <c r="V559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -34696,6 +35263,7 @@
         </is>
       </c>
       <c r="U560" t="inlineStr"/>
+      <c r="V560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -34759,6 +35327,7 @@
         </is>
       </c>
       <c r="U561" t="inlineStr"/>
+      <c r="V561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -34810,6 +35379,7 @@
         </is>
       </c>
       <c r="U562" t="inlineStr"/>
+      <c r="V562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -34869,6 +35439,7 @@
         </is>
       </c>
       <c r="U563" t="inlineStr"/>
+      <c r="V563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -34920,6 +35491,7 @@
         </is>
       </c>
       <c r="U564" t="inlineStr"/>
+      <c r="V564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -34983,6 +35555,7 @@
         </is>
       </c>
       <c r="U565" t="inlineStr"/>
+      <c r="V565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -35034,6 +35607,7 @@
         </is>
       </c>
       <c r="U566" t="inlineStr"/>
+      <c r="V566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -35097,6 +35671,7 @@
         </is>
       </c>
       <c r="U567" t="inlineStr"/>
+      <c r="V567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -35156,6 +35731,7 @@
         </is>
       </c>
       <c r="U568" t="inlineStr"/>
+      <c r="V568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -35215,6 +35791,7 @@
         </is>
       </c>
       <c r="U569" t="inlineStr"/>
+      <c r="V569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -35274,6 +35851,7 @@
         </is>
       </c>
       <c r="U570" t="inlineStr"/>
+      <c r="V570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -35345,6 +35923,7 @@
         </is>
       </c>
       <c r="U571" t="inlineStr"/>
+      <c r="V571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -35416,6 +35995,7 @@
         </is>
       </c>
       <c r="U572" t="inlineStr"/>
+      <c r="V572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -35487,6 +36067,7 @@
         </is>
       </c>
       <c r="U573" t="inlineStr"/>
+      <c r="V573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -35558,6 +36139,7 @@
         </is>
       </c>
       <c r="U574" t="inlineStr"/>
+      <c r="V574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -35629,6 +36211,7 @@
         </is>
       </c>
       <c r="U575" t="inlineStr"/>
+      <c r="V575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -35696,6 +36279,7 @@
         </is>
       </c>
       <c r="U576" t="inlineStr"/>
+      <c r="V576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -35759,6 +36343,7 @@
         </is>
       </c>
       <c r="U577" t="inlineStr"/>
+      <c r="V577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -35826,6 +36411,7 @@
         </is>
       </c>
       <c r="U578" t="inlineStr"/>
+      <c r="V578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -35885,6 +36471,7 @@
         </is>
       </c>
       <c r="U579" t="inlineStr"/>
+      <c r="V579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -35952,6 +36539,7 @@
         </is>
       </c>
       <c r="U580" t="inlineStr"/>
+      <c r="V580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -36023,6 +36611,7 @@
         </is>
       </c>
       <c r="U581" t="inlineStr"/>
+      <c r="V581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -36094,6 +36683,7 @@
         </is>
       </c>
       <c r="U582" t="inlineStr"/>
+      <c r="V582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -36165,6 +36755,7 @@
         </is>
       </c>
       <c r="U583" t="inlineStr"/>
+      <c r="V583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -36236,6 +36827,7 @@
         </is>
       </c>
       <c r="U584" t="inlineStr"/>
+      <c r="V584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -36299,6 +36891,7 @@
         </is>
       </c>
       <c r="U585" t="inlineStr"/>
+      <c r="V585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -36354,6 +36947,7 @@
         </is>
       </c>
       <c r="U586" t="inlineStr"/>
+      <c r="V586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -36409,6 +37003,7 @@
         </is>
       </c>
       <c r="U587" t="inlineStr"/>
+      <c r="V587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -36468,6 +37063,7 @@
         </is>
       </c>
       <c r="U588" t="inlineStr"/>
+      <c r="V588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -36523,6 +37119,7 @@
         </is>
       </c>
       <c r="U589" t="inlineStr"/>
+      <c r="V589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -36594,6 +37191,7 @@
         </is>
       </c>
       <c r="U590" t="inlineStr"/>
+      <c r="V590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -36665,6 +37263,7 @@
         </is>
       </c>
       <c r="U591" t="inlineStr"/>
+      <c r="V591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -36732,6 +37331,7 @@
         </is>
       </c>
       <c r="U592" t="inlineStr"/>
+      <c r="V592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -36791,6 +37391,7 @@
         </is>
       </c>
       <c r="U593" t="inlineStr"/>
+      <c r="V593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -36858,6 +37459,7 @@
         </is>
       </c>
       <c r="U594" t="inlineStr"/>
+      <c r="V594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -36917,6 +37519,7 @@
         </is>
       </c>
       <c r="U595" t="inlineStr"/>
+      <c r="V595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -36980,6 +37583,7 @@
         </is>
       </c>
       <c r="U596" t="inlineStr"/>
+      <c r="V596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -37043,6 +37647,7 @@
         </is>
       </c>
       <c r="U597" t="inlineStr"/>
+      <c r="V597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -37094,6 +37699,7 @@
         </is>
       </c>
       <c r="U598" t="inlineStr"/>
+      <c r="V598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -37141,6 +37747,7 @@
         </is>
       </c>
       <c r="U599" t="inlineStr"/>
+      <c r="V599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -37204,6 +37811,7 @@
         </is>
       </c>
       <c r="U600" t="inlineStr"/>
+      <c r="V600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -37271,6 +37879,7 @@
         </is>
       </c>
       <c r="U601" t="inlineStr"/>
+      <c r="V601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -37342,6 +37951,7 @@
         </is>
       </c>
       <c r="U602" t="inlineStr"/>
+      <c r="V602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -37411,6 +38021,7 @@
         </is>
       </c>
       <c r="U603" t="inlineStr"/>
+      <c r="V603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -37480,6 +38091,7 @@
         </is>
       </c>
       <c r="U604" t="inlineStr"/>
+      <c r="V604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -37549,6 +38161,7 @@
         </is>
       </c>
       <c r="U605" t="inlineStr"/>
+      <c r="V605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -37618,6 +38231,7 @@
         </is>
       </c>
       <c r="U606" t="inlineStr"/>
+      <c r="V606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -37683,6 +38297,7 @@
         </is>
       </c>
       <c r="U607" t="inlineStr"/>
+      <c r="V607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -37750,6 +38365,7 @@
         </is>
       </c>
       <c r="U608" t="inlineStr"/>
+      <c r="V608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -37801,6 +38417,7 @@
         </is>
       </c>
       <c r="U609" t="inlineStr"/>
+      <c r="V609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -37852,6 +38469,7 @@
         </is>
       </c>
       <c r="U610" t="inlineStr"/>
+      <c r="V610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -37911,6 +38529,7 @@
         </is>
       </c>
       <c r="U611" t="inlineStr"/>
+      <c r="V611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -37970,6 +38589,7 @@
         </is>
       </c>
       <c r="U612" t="inlineStr"/>
+      <c r="V612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -38029,6 +38649,7 @@
         </is>
       </c>
       <c r="U613" t="inlineStr"/>
+      <c r="V613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -38088,6 +38709,7 @@
         </is>
       </c>
       <c r="U614" t="inlineStr"/>
+      <c r="V614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -38147,6 +38769,7 @@
         </is>
       </c>
       <c r="U615" t="inlineStr"/>
+      <c r="V615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -38202,6 +38825,7 @@
         </is>
       </c>
       <c r="U616" t="inlineStr"/>
+      <c r="V616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -38259,6 +38883,7 @@
         </is>
       </c>
       <c r="U617" t="inlineStr"/>
+      <c r="V617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -38320,6 +38945,7 @@
         </is>
       </c>
       <c r="U618" t="inlineStr"/>
+      <c r="V618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -38379,6 +39005,7 @@
         </is>
       </c>
       <c r="U619" t="inlineStr"/>
+      <c r="V619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -38438,6 +39065,7 @@
         </is>
       </c>
       <c r="U620" t="inlineStr"/>
+      <c r="V620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -38497,6 +39125,7 @@
         </is>
       </c>
       <c r="U621" t="inlineStr"/>
+      <c r="V621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -38556,6 +39185,7 @@
         </is>
       </c>
       <c r="U622" t="inlineStr"/>
+      <c r="V622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -38615,6 +39245,7 @@
         </is>
       </c>
       <c r="U623" t="inlineStr"/>
+      <c r="V623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -38662,6 +39293,7 @@
         </is>
       </c>
       <c r="U624" t="inlineStr"/>
+      <c r="V624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -38721,6 +39353,7 @@
         </is>
       </c>
       <c r="U625" t="inlineStr"/>
+      <c r="V625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -38780,6 +39413,7 @@
         </is>
       </c>
       <c r="U626" t="inlineStr"/>
+      <c r="V626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -38835,6 +39469,7 @@
         </is>
       </c>
       <c r="U627" t="inlineStr"/>
+      <c r="V627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -38888,6 +39523,7 @@
         </is>
       </c>
       <c r="U628" t="inlineStr"/>
+      <c r="V628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -38941,6 +39577,7 @@
         </is>
       </c>
       <c r="U629" t="inlineStr"/>
+      <c r="V629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -38994,6 +39631,7 @@
         </is>
       </c>
       <c r="U630" t="inlineStr"/>
+      <c r="V630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -39047,6 +39685,7 @@
         </is>
       </c>
       <c r="U631" t="inlineStr"/>
+      <c r="V631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -39100,6 +39739,7 @@
         </is>
       </c>
       <c r="U632" t="inlineStr"/>
+      <c r="V632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -39161,6 +39801,7 @@
         </is>
       </c>
       <c r="U633" t="inlineStr"/>
+      <c r="V633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -39222,6 +39863,7 @@
         </is>
       </c>
       <c r="U634" t="inlineStr"/>
+      <c r="V634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -39281,6 +39923,7 @@
         </is>
       </c>
       <c r="U635" t="inlineStr"/>
+      <c r="V635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -39350,6 +39993,7 @@
         </is>
       </c>
       <c r="U636" t="inlineStr"/>
+      <c r="V636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -39415,6 +40059,7 @@
         </is>
       </c>
       <c r="U637" t="inlineStr"/>
+      <c r="V637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -39476,6 +40121,7 @@
         </is>
       </c>
       <c r="U638" t="inlineStr"/>
+      <c r="V638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -39541,6 +40187,7 @@
         </is>
       </c>
       <c r="U639" t="inlineStr"/>
+      <c r="V639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -39602,6 +40249,7 @@
         </is>
       </c>
       <c r="U640" t="inlineStr"/>
+      <c r="V640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -39661,6 +40309,7 @@
         </is>
       </c>
       <c r="U641" t="inlineStr"/>
+      <c r="V641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -39726,6 +40375,7 @@
         </is>
       </c>
       <c r="U642" t="inlineStr"/>
+      <c r="V642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -39783,6 +40433,7 @@
         </is>
       </c>
       <c r="U643" t="inlineStr"/>
+      <c r="V643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -39844,6 +40495,7 @@
         </is>
       </c>
       <c r="U644" t="inlineStr"/>
+      <c r="V644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -39897,6 +40549,7 @@
         </is>
       </c>
       <c r="U645" t="inlineStr"/>
+      <c r="V645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -39950,6 +40603,7 @@
         </is>
       </c>
       <c r="U646" t="inlineStr"/>
+      <c r="V646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -40003,6 +40657,7 @@
         </is>
       </c>
       <c r="U647" t="inlineStr"/>
+      <c r="V647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -40056,6 +40711,7 @@
         </is>
       </c>
       <c r="U648" t="inlineStr"/>
+      <c r="V648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -40109,6 +40765,7 @@
         </is>
       </c>
       <c r="U649" t="inlineStr"/>
+      <c r="V649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -40164,6 +40821,7 @@
         </is>
       </c>
       <c r="U650" t="inlineStr"/>
+      <c r="V650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -40215,6 +40873,7 @@
         </is>
       </c>
       <c r="U651" t="inlineStr"/>
+      <c r="V651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -40270,6 +40929,7 @@
         </is>
       </c>
       <c r="U652" t="inlineStr"/>
+      <c r="V652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -40337,6 +40997,7 @@
         </is>
       </c>
       <c r="U653" t="inlineStr"/>
+      <c r="V653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -40388,6 +41049,7 @@
         </is>
       </c>
       <c r="U654" t="inlineStr"/>
+      <c r="V654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -40457,6 +41119,7 @@
         </is>
       </c>
       <c r="U655" t="inlineStr"/>
+      <c r="V655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -40526,6 +41189,7 @@
         </is>
       </c>
       <c r="U656" t="inlineStr"/>
+      <c r="V656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -40587,6 +41251,7 @@
         </is>
       </c>
       <c r="U657" t="inlineStr"/>
+      <c r="V657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -40652,6 +41317,7 @@
         </is>
       </c>
       <c r="U658" t="inlineStr"/>
+      <c r="V658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -40721,6 +41387,7 @@
         </is>
       </c>
       <c r="U659" t="inlineStr"/>
+      <c r="V659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -40790,6 +41457,7 @@
         </is>
       </c>
       <c r="U660" t="inlineStr"/>
+      <c r="V660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -40859,6 +41527,7 @@
         </is>
       </c>
       <c r="U661" t="inlineStr"/>
+      <c r="V661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -40928,6 +41597,7 @@
         </is>
       </c>
       <c r="U662" t="inlineStr"/>
+      <c r="V662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -40997,6 +41667,7 @@
         </is>
       </c>
       <c r="U663" t="inlineStr"/>
+      <c r="V663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -41062,6 +41733,7 @@
         </is>
       </c>
       <c r="U664" t="inlineStr"/>
+      <c r="V664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -41127,6 +41799,7 @@
         </is>
       </c>
       <c r="U665" t="inlineStr"/>
+      <c r="V665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -41180,6 +41853,7 @@
         </is>
       </c>
       <c r="U666" t="inlineStr"/>
+      <c r="V666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -41233,6 +41907,7 @@
         </is>
       </c>
       <c r="U667" t="inlineStr"/>
+      <c r="V667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -41302,6 +41977,7 @@
         </is>
       </c>
       <c r="U668" t="inlineStr"/>
+      <c r="V668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -41371,6 +42047,7 @@
         </is>
       </c>
       <c r="U669" t="inlineStr"/>
+      <c r="V669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -41432,6 +42109,7 @@
         </is>
       </c>
       <c r="U670" t="inlineStr"/>
+      <c r="V670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -41485,6 +42163,7 @@
         </is>
       </c>
       <c r="U671" t="inlineStr"/>
+      <c r="V671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -41546,6 +42225,7 @@
         </is>
       </c>
       <c r="U672" t="inlineStr"/>
+      <c r="V672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -41599,6 +42279,7 @@
         </is>
       </c>
       <c r="U673" t="inlineStr"/>
+      <c r="V673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -41652,6 +42333,7 @@
         </is>
       </c>
       <c r="U674" t="inlineStr"/>
+      <c r="V674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -41703,6 +42385,7 @@
         </is>
       </c>
       <c r="U675" t="inlineStr"/>
+      <c r="V675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -41766,6 +42449,7 @@
         </is>
       </c>
       <c r="U676" t="inlineStr"/>
+      <c r="V676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -41821,6 +42505,7 @@
         </is>
       </c>
       <c r="U677" t="inlineStr"/>
+      <c r="V677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -41872,6 +42557,7 @@
         </is>
       </c>
       <c r="U678" t="inlineStr"/>
+      <c r="V678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -41937,6 +42623,7 @@
         </is>
       </c>
       <c r="U679" t="inlineStr"/>
+      <c r="V679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -41998,6 +42685,7 @@
         </is>
       </c>
       <c r="U680" t="inlineStr"/>
+      <c r="V680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -42055,6 +42743,7 @@
         </is>
       </c>
       <c r="U681" t="inlineStr"/>
+      <c r="V681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -42116,6 +42805,7 @@
         </is>
       </c>
       <c r="U682" t="inlineStr"/>
+      <c r="V682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -42173,6 +42863,7 @@
         </is>
       </c>
       <c r="U683" t="inlineStr"/>
+      <c r="V683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -42236,6 +42927,7 @@
         </is>
       </c>
       <c r="U684" t="inlineStr"/>
+      <c r="V684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -42295,6 +42987,7 @@
         </is>
       </c>
       <c r="U685" t="inlineStr"/>
+      <c r="V685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -42358,6 +43051,7 @@
         </is>
       </c>
       <c r="U686" t="inlineStr"/>
+      <c r="V686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -42427,6 +43121,7 @@
         </is>
       </c>
       <c r="U687" t="inlineStr"/>
+      <c r="V687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -42496,6 +43191,7 @@
         </is>
       </c>
       <c r="U688" t="inlineStr"/>
+      <c r="V688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -42565,6 +43261,7 @@
         </is>
       </c>
       <c r="U689" t="inlineStr"/>
+      <c r="V689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -42626,6 +43323,7 @@
         </is>
       </c>
       <c r="U690" t="inlineStr"/>
+      <c r="V690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -42687,6 +43385,7 @@
         </is>
       </c>
       <c r="U691" t="inlineStr"/>
+      <c r="V691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -42748,6 +43447,7 @@
         </is>
       </c>
       <c r="U692" t="inlineStr"/>
+      <c r="V692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -42801,6 +43501,7 @@
         </is>
       </c>
       <c r="U693" t="inlineStr"/>
+      <c r="V693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -42854,6 +43555,7 @@
         </is>
       </c>
       <c r="U694" t="inlineStr"/>
+      <c r="V694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -42907,6 +43609,7 @@
         </is>
       </c>
       <c r="U695" t="inlineStr"/>
+      <c r="V695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -42960,6 +43663,7 @@
         </is>
       </c>
       <c r="U696" t="inlineStr"/>
+      <c r="V696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -43012,7 +43716,7 @@
       </c>
       <c r="S697" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T697" t="inlineStr">
@@ -43021,6 +43725,7 @@
         </is>
       </c>
       <c r="U697" t="inlineStr"/>
+      <c r="V697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -43078,6 +43783,7 @@
         </is>
       </c>
       <c r="U698" t="inlineStr"/>
+      <c r="V698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -43147,6 +43853,7 @@
         </is>
       </c>
       <c r="U699" t="inlineStr"/>
+      <c r="V699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -43212,6 +43919,7 @@
         </is>
       </c>
       <c r="U700" t="inlineStr"/>
+      <c r="V700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -43277,6 +43985,7 @@
         </is>
       </c>
       <c r="U701" t="inlineStr"/>
+      <c r="V701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -43334,6 +44043,7 @@
         </is>
       </c>
       <c r="U702" t="inlineStr"/>
+      <c r="V702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -43385,6 +44095,7 @@
         </is>
       </c>
       <c r="U703" t="inlineStr"/>
+      <c r="V703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -43438,6 +44149,7 @@
         </is>
       </c>
       <c r="U704" t="inlineStr"/>
+      <c r="V704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -43491,6 +44203,7 @@
         </is>
       </c>
       <c r="U705" t="inlineStr"/>
+      <c r="V705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -43556,6 +44269,7 @@
         </is>
       </c>
       <c r="U706" t="inlineStr"/>
+      <c r="V706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -43621,6 +44335,7 @@
         </is>
       </c>
       <c r="U707" t="inlineStr"/>
+      <c r="V707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -43688,6 +44403,7 @@
         </is>
       </c>
       <c r="U708" t="inlineStr"/>
+      <c r="V708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -43757,6 +44473,7 @@
         </is>
       </c>
       <c r="U709" t="inlineStr"/>
+      <c r="V709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -43810,6 +44527,7 @@
         </is>
       </c>
       <c r="U710" t="inlineStr"/>
+      <c r="V710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -43865,6 +44583,7 @@
         </is>
       </c>
       <c r="U711" t="inlineStr"/>
+      <c r="V711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -43926,6 +44645,7 @@
         </is>
       </c>
       <c r="U712" t="inlineStr"/>
+      <c r="V712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -43977,6 +44697,7 @@
         </is>
       </c>
       <c r="U713" t="inlineStr"/>
+      <c r="V713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -44028,6 +44749,7 @@
         </is>
       </c>
       <c r="U714" t="inlineStr"/>
+      <c r="V714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -44087,6 +44809,7 @@
         </is>
       </c>
       <c r="U715" t="inlineStr"/>
+      <c r="V715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -44140,6 +44863,7 @@
         </is>
       </c>
       <c r="U716" t="inlineStr"/>
+      <c r="V716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -44193,6 +44917,7 @@
         </is>
       </c>
       <c r="U717" t="inlineStr"/>
+      <c r="V717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -44250,6 +44975,7 @@
         </is>
       </c>
       <c r="U718" t="inlineStr"/>
+      <c r="V718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -44303,6 +45029,7 @@
         </is>
       </c>
       <c r="U719" t="inlineStr"/>
+      <c r="V719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -44356,6 +45083,7 @@
         </is>
       </c>
       <c r="U720" t="inlineStr"/>
+      <c r="V720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -44409,6 +45137,7 @@
         </is>
       </c>
       <c r="U721" t="inlineStr"/>
+      <c r="V721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -44462,6 +45191,7 @@
         </is>
       </c>
       <c r="U722" t="inlineStr"/>
+      <c r="V722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -44515,6 +45245,7 @@
         </is>
       </c>
       <c r="U723" t="inlineStr"/>
+      <c r="V723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -44568,6 +45299,7 @@
         </is>
       </c>
       <c r="U724" t="inlineStr"/>
+      <c r="V724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -44621,6 +45353,7 @@
         </is>
       </c>
       <c r="U725" t="inlineStr"/>
+      <c r="V725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -44682,6 +45415,7 @@
         </is>
       </c>
       <c r="U726" t="inlineStr"/>
+      <c r="V726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -44747,6 +45481,7 @@
         </is>
       </c>
       <c r="U727" t="inlineStr"/>
+      <c r="V727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -44812,6 +45547,7 @@
         </is>
       </c>
       <c r="U728" t="inlineStr"/>
+      <c r="V728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -44859,6 +45595,7 @@
         </is>
       </c>
       <c r="U729" t="inlineStr"/>
+      <c r="V729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -44906,6 +45643,7 @@
         </is>
       </c>
       <c r="U730" t="inlineStr"/>
+      <c r="V730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -44953,6 +45691,7 @@
         </is>
       </c>
       <c r="U731" t="inlineStr"/>
+      <c r="V731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -45000,6 +45739,7 @@
         </is>
       </c>
       <c r="U732" t="inlineStr"/>
+      <c r="V732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -45051,6 +45791,7 @@
         </is>
       </c>
       <c r="U733" t="inlineStr"/>
+      <c r="V733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -45102,6 +45843,7 @@
         </is>
       </c>
       <c r="U734" t="inlineStr"/>
+      <c r="V734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -45151,6 +45893,7 @@
         </is>
       </c>
       <c r="U735" t="inlineStr"/>
+      <c r="V735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -45198,6 +45941,7 @@
         </is>
       </c>
       <c r="U736" t="inlineStr"/>
+      <c r="V736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -45245,6 +45989,7 @@
         </is>
       </c>
       <c r="U737" t="inlineStr"/>
+      <c r="V737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -45300,6 +46045,7 @@
         </is>
       </c>
       <c r="U738" t="inlineStr"/>
+      <c r="V738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -45349,6 +46095,7 @@
         </is>
       </c>
       <c r="U739" t="inlineStr"/>
+      <c r="V739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -45406,6 +46153,7 @@
         </is>
       </c>
       <c r="U740" t="inlineStr"/>
+      <c r="V740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -45459,6 +46207,7 @@
         </is>
       </c>
       <c r="U741" t="inlineStr"/>
+      <c r="V741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -45512,6 +46261,7 @@
         </is>
       </c>
       <c r="U742" t="inlineStr"/>
+      <c r="V742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -45565,6 +46315,7 @@
         </is>
       </c>
       <c r="U743" t="inlineStr"/>
+      <c r="V743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -45622,6 +46373,7 @@
         </is>
       </c>
       <c r="U744" t="inlineStr"/>
+      <c r="V744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -45675,6 +46427,7 @@
         </is>
       </c>
       <c r="U745" t="inlineStr"/>
+      <c r="V745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -45728,6 +46481,7 @@
         </is>
       </c>
       <c r="U746" t="inlineStr"/>
+      <c r="V746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -45781,6 +46535,7 @@
         </is>
       </c>
       <c r="U747" t="inlineStr"/>
+      <c r="V747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -45834,6 +46589,7 @@
         </is>
       </c>
       <c r="U748" t="inlineStr"/>
+      <c r="V748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -45887,6 +46643,7 @@
         </is>
       </c>
       <c r="U749" t="inlineStr"/>
+      <c r="V749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -45940,6 +46697,7 @@
         </is>
       </c>
       <c r="U750" t="inlineStr"/>
+      <c r="V750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -45993,6 +46751,7 @@
         </is>
       </c>
       <c r="U751" t="inlineStr"/>
+      <c r="V751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -46046,6 +46805,7 @@
         </is>
       </c>
       <c r="U752" t="inlineStr"/>
+      <c r="V752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -46099,6 +46859,7 @@
         </is>
       </c>
       <c r="U753" t="inlineStr"/>
+      <c r="V753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -46152,6 +46913,7 @@
         </is>
       </c>
       <c r="U754" t="inlineStr"/>
+      <c r="V754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -46205,6 +46967,7 @@
         </is>
       </c>
       <c r="U755" t="inlineStr"/>
+      <c r="V755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -46258,6 +47021,7 @@
         </is>
       </c>
       <c r="U756" t="inlineStr"/>
+      <c r="V756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -46311,6 +47075,7 @@
         </is>
       </c>
       <c r="U757" t="inlineStr"/>
+      <c r="V757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -46364,6 +47129,7 @@
         </is>
       </c>
       <c r="U758" t="inlineStr"/>
+      <c r="V758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -46417,6 +47183,7 @@
         </is>
       </c>
       <c r="U759" t="inlineStr"/>
+      <c r="V759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -46470,6 +47237,7 @@
         </is>
       </c>
       <c r="U760" t="inlineStr"/>
+      <c r="V760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -46523,6 +47291,7 @@
         </is>
       </c>
       <c r="U761" t="inlineStr"/>
+      <c r="V761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -46576,6 +47345,7 @@
         </is>
       </c>
       <c r="U762" t="inlineStr"/>
+      <c r="V762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -46625,6 +47395,7 @@
         </is>
       </c>
       <c r="U763" t="inlineStr"/>
+      <c r="V763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -46674,6 +47445,7 @@
         </is>
       </c>
       <c r="U764" t="inlineStr"/>
+      <c r="V764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -46723,6 +47495,7 @@
         </is>
       </c>
       <c r="U765" t="inlineStr"/>
+      <c r="V765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -46776,6 +47549,7 @@
         </is>
       </c>
       <c r="U766" t="inlineStr"/>
+      <c r="V766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -46827,6 +47601,7 @@
         </is>
       </c>
       <c r="U767" t="inlineStr"/>
+      <c r="V767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -46882,6 +47657,7 @@
         </is>
       </c>
       <c r="U768" t="inlineStr"/>
+      <c r="V768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -46929,6 +47705,7 @@
         </is>
       </c>
       <c r="U769" t="inlineStr"/>
+      <c r="V769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -46978,6 +47755,7 @@
         </is>
       </c>
       <c r="U770" t="inlineStr"/>
+      <c r="V770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -47027,6 +47805,7 @@
         </is>
       </c>
       <c r="U771" t="inlineStr"/>
+      <c r="V771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -47076,6 +47855,7 @@
         </is>
       </c>
       <c r="U772" t="inlineStr"/>
+      <c r="V772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -47125,6 +47905,7 @@
         </is>
       </c>
       <c r="U773" t="inlineStr"/>
+      <c r="V773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -47174,6 +47955,7 @@
         </is>
       </c>
       <c r="U774" t="inlineStr"/>
+      <c r="V774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -47223,6 +48005,7 @@
         </is>
       </c>
       <c r="U775" t="inlineStr"/>
+      <c r="V775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -47272,6 +48055,7 @@
         </is>
       </c>
       <c r="U776" t="inlineStr"/>
+      <c r="V776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -47321,6 +48105,7 @@
         </is>
       </c>
       <c r="U777" t="inlineStr"/>
+      <c r="V777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -47370,6 +48155,7 @@
         </is>
       </c>
       <c r="U778" t="inlineStr"/>
+      <c r="V778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -47419,6 +48205,7 @@
         </is>
       </c>
       <c r="U779" t="inlineStr"/>
+      <c r="V779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -47468,6 +48255,7 @@
         </is>
       </c>
       <c r="U780" t="inlineStr"/>
+      <c r="V780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -47517,6 +48305,7 @@
         </is>
       </c>
       <c r="U781" t="inlineStr"/>
+      <c r="V781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -47566,6 +48355,7 @@
         </is>
       </c>
       <c r="U782" t="inlineStr"/>
+      <c r="V782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -47615,6 +48405,7 @@
         </is>
       </c>
       <c r="U783" t="inlineStr"/>
+      <c r="V783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -47664,6 +48455,7 @@
         </is>
       </c>
       <c r="U784" t="inlineStr"/>
+      <c r="V784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -47729,6 +48521,7 @@
         </is>
       </c>
       <c r="U785" t="inlineStr"/>
+      <c r="V785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -47776,6 +48569,7 @@
         </is>
       </c>
       <c r="U786" t="inlineStr"/>
+      <c r="V786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -47823,6 +48617,7 @@
         </is>
       </c>
       <c r="U787" t="inlineStr"/>
+      <c r="V787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -47870,6 +48665,7 @@
         </is>
       </c>
       <c r="U788" t="inlineStr"/>
+      <c r="V788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -47931,6 +48727,7 @@
         </is>
       </c>
       <c r="U789" t="inlineStr"/>
+      <c r="V789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -47984,6 +48781,7 @@
         </is>
       </c>
       <c r="U790" t="inlineStr"/>
+      <c r="V790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -48033,6 +48831,7 @@
         </is>
       </c>
       <c r="U791" t="inlineStr"/>
+      <c r="V791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -48082,6 +48881,7 @@
         </is>
       </c>
       <c r="U792" t="inlineStr"/>
+      <c r="V792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -48137,6 +48937,7 @@
         </is>
       </c>
       <c r="U793" t="inlineStr"/>
+      <c r="V793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -48190,6 +48991,7 @@
         </is>
       </c>
       <c r="U794" t="inlineStr"/>
+      <c r="V794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -48237,6 +49039,7 @@
         </is>
       </c>
       <c r="U795" t="inlineStr"/>
+      <c r="V795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -48284,6 +49087,7 @@
         </is>
       </c>
       <c r="U796" t="inlineStr"/>
+      <c r="V796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -48345,6 +49149,7 @@
         </is>
       </c>
       <c r="U797" t="inlineStr"/>
+      <c r="V797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -48410,6 +49215,7 @@
         </is>
       </c>
       <c r="U798" t="inlineStr"/>
+      <c r="V798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -48471,6 +49277,7 @@
         </is>
       </c>
       <c r="U799" t="inlineStr"/>
+      <c r="V799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -48524,6 +49331,7 @@
         </is>
       </c>
       <c r="U800" t="inlineStr"/>
+      <c r="V800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -48579,6 +49387,7 @@
         </is>
       </c>
       <c r="U801" t="inlineStr"/>
+      <c r="V801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -48640,6 +49449,7 @@
         </is>
       </c>
       <c r="U802" t="inlineStr"/>
+      <c r="V802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -48693,6 +49503,7 @@
         </is>
       </c>
       <c r="U803" t="inlineStr"/>
+      <c r="V803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -48754,6 +49565,7 @@
         </is>
       </c>
       <c r="U804" t="inlineStr"/>
+      <c r="V804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -48815,6 +49627,7 @@
         </is>
       </c>
       <c r="U805" t="inlineStr"/>
+      <c r="V805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -48876,6 +49689,7 @@
         </is>
       </c>
       <c r="U806" t="inlineStr"/>
+      <c r="V806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -48929,6 +49743,7 @@
         </is>
       </c>
       <c r="U807" t="inlineStr"/>
+      <c r="V807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -48982,6 +49797,7 @@
         </is>
       </c>
       <c r="U808" t="inlineStr"/>
+      <c r="V808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -49035,6 +49851,7 @@
         </is>
       </c>
       <c r="U809" t="inlineStr"/>
+      <c r="V809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -49100,6 +49917,7 @@
         </is>
       </c>
       <c r="U810" t="inlineStr"/>
+      <c r="V810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -49157,6 +49975,7 @@
         </is>
       </c>
       <c r="U811" t="inlineStr"/>
+      <c r="V811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -49204,6 +50023,7 @@
         </is>
       </c>
       <c r="U812" t="inlineStr"/>
+      <c r="V812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -49249,6 +50069,7 @@
         </is>
       </c>
       <c r="U813" t="inlineStr"/>
+      <c r="V813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -49298,6 +50119,7 @@
         </is>
       </c>
       <c r="U814" t="inlineStr"/>
+      <c r="V814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -49359,6 +50181,7 @@
         </is>
       </c>
       <c r="U815" t="inlineStr"/>
+      <c r="V815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -49406,6 +50229,7 @@
         </is>
       </c>
       <c r="U816" t="inlineStr"/>
+      <c r="V816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -49453,6 +50277,7 @@
         </is>
       </c>
       <c r="U817" t="inlineStr"/>
+      <c r="V817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -49500,6 +50325,7 @@
         </is>
       </c>
       <c r="U818" t="inlineStr"/>
+      <c r="V818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -49555,6 +50381,7 @@
         </is>
       </c>
       <c r="U819" t="inlineStr"/>
+      <c r="V819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -49604,6 +50431,7 @@
         </is>
       </c>
       <c r="U820" t="inlineStr"/>
+      <c r="V820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -49661,6 +50489,7 @@
         </is>
       </c>
       <c r="U821" t="inlineStr"/>
+      <c r="V821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -49716,6 +50545,7 @@
         </is>
       </c>
       <c r="U822" t="inlineStr"/>
+      <c r="V822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -49763,6 +50593,7 @@
         </is>
       </c>
       <c r="U823" t="inlineStr"/>
+      <c r="V823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -49812,6 +50643,7 @@
         </is>
       </c>
       <c r="U824" t="inlineStr"/>
+      <c r="V824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
@@ -49869,6 +50701,7 @@
         </is>
       </c>
       <c r="U825" t="inlineStr"/>
+      <c r="V825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -49926,6 +50759,7 @@
         </is>
       </c>
       <c r="U826" t="inlineStr"/>
+      <c r="V826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
@@ -49995,6 +50829,7 @@
         </is>
       </c>
       <c r="U827" t="inlineStr"/>
+      <c r="V827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
@@ -50064,6 +50899,7 @@
         </is>
       </c>
       <c r="U828" t="inlineStr"/>
+      <c r="V828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -50133,6 +50969,7 @@
         </is>
       </c>
       <c r="U829" t="inlineStr"/>
+      <c r="V829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
@@ -50198,6 +51035,7 @@
         </is>
       </c>
       <c r="U830" t="inlineStr"/>
+      <c r="V830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -50263,6 +51101,7 @@
         </is>
       </c>
       <c r="U831" t="inlineStr"/>
+      <c r="V831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -50320,6 +51159,7 @@
         </is>
       </c>
       <c r="U832" t="inlineStr"/>
+      <c r="V832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -50373,6 +51213,7 @@
         </is>
       </c>
       <c r="U833" t="inlineStr"/>
+      <c r="V833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -50438,6 +51279,7 @@
         </is>
       </c>
       <c r="U834" t="inlineStr"/>
+      <c r="V834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -50495,6 +51337,7 @@
         </is>
       </c>
       <c r="U835" t="inlineStr"/>
+      <c r="V835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -50556,6 +51399,7 @@
         </is>
       </c>
       <c r="U836" t="inlineStr"/>
+      <c r="V836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -50609,6 +51453,7 @@
         </is>
       </c>
       <c r="U837" t="inlineStr"/>
+      <c r="V837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -50674,6 +51519,7 @@
         </is>
       </c>
       <c r="U838" t="inlineStr"/>
+      <c r="V838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -50739,6 +51585,7 @@
         </is>
       </c>
       <c r="U839" t="inlineStr"/>
+      <c r="V839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
@@ -50808,6 +51655,7 @@
         </is>
       </c>
       <c r="U840" t="inlineStr"/>
+      <c r="V840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
@@ -50877,6 +51725,7 @@
         </is>
       </c>
       <c r="U841" t="inlineStr"/>
+      <c r="V841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
@@ -50926,6 +51775,7 @@
         </is>
       </c>
       <c r="U842" t="inlineStr"/>
+      <c r="V842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
@@ -50975,6 +51825,7 @@
         </is>
       </c>
       <c r="U843" t="inlineStr"/>
+      <c r="V843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -51036,6 +51887,7 @@
         </is>
       </c>
       <c r="U844" t="inlineStr"/>
+      <c r="V844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
@@ -51097,6 +51949,7 @@
         </is>
       </c>
       <c r="U845" t="inlineStr"/>
+      <c r="V845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -51150,6 +52003,7 @@
         </is>
       </c>
       <c r="U846" t="inlineStr"/>
+      <c r="V846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
@@ -51211,6 +52065,7 @@
         </is>
       </c>
       <c r="U847" t="inlineStr"/>
+      <c r="V847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -51272,6 +52127,7 @@
         </is>
       </c>
       <c r="U848" t="inlineStr"/>
+      <c r="V848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -51329,6 +52185,7 @@
         </is>
       </c>
       <c r="U849" t="inlineStr"/>
+      <c r="V849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -51394,6 +52251,7 @@
         </is>
       </c>
       <c r="U850" t="inlineStr"/>
+      <c r="V850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -51459,6 +52317,7 @@
         </is>
       </c>
       <c r="U851" t="inlineStr"/>
+      <c r="V851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -51524,6 +52383,7 @@
         </is>
       </c>
       <c r="U852" t="inlineStr"/>
+      <c r="V852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -51589,6 +52449,7 @@
         </is>
       </c>
       <c r="U853" t="inlineStr"/>
+      <c r="V853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -51650,6 +52511,7 @@
         </is>
       </c>
       <c r="U854" t="inlineStr"/>
+      <c r="V854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -51711,6 +52573,7 @@
         </is>
       </c>
       <c r="U855" t="inlineStr"/>
+      <c r="V855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -51772,6 +52635,7 @@
         </is>
       </c>
       <c r="U856" t="inlineStr"/>
+      <c r="V856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -51835,6 +52699,7 @@
         </is>
       </c>
       <c r="U857" t="inlineStr"/>
+      <c r="V857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -51896,6 +52761,7 @@
         </is>
       </c>
       <c r="U858" t="inlineStr"/>
+      <c r="V858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -51957,6 +52823,7 @@
         </is>
       </c>
       <c r="U859" t="inlineStr"/>
+      <c r="V859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
@@ -52018,6 +52885,7 @@
         </is>
       </c>
       <c r="U860" t="inlineStr"/>
+      <c r="V860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
@@ -52079,6 +52947,7 @@
         </is>
       </c>
       <c r="U861" t="inlineStr"/>
+      <c r="V861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -52140,6 +53009,7 @@
         </is>
       </c>
       <c r="U862" t="inlineStr"/>
+      <c r="V862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -52201,6 +53071,7 @@
         </is>
       </c>
       <c r="U863" t="inlineStr"/>
+      <c r="V863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
@@ -52254,6 +53125,7 @@
         </is>
       </c>
       <c r="U864" t="inlineStr"/>
+      <c r="V864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -52311,6 +53183,7 @@
         </is>
       </c>
       <c r="U865" t="inlineStr"/>
+      <c r="V865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -52372,6 +53245,7 @@
         </is>
       </c>
       <c r="U866" t="inlineStr"/>
+      <c r="V866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -52441,6 +53315,7 @@
         </is>
       </c>
       <c r="U867" t="inlineStr"/>
+      <c r="V867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -52498,6 +53373,7 @@
         </is>
       </c>
       <c r="U868" t="inlineStr"/>
+      <c r="V868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
@@ -52567,6 +53443,7 @@
         </is>
       </c>
       <c r="U869" t="inlineStr"/>
+      <c r="V869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -52636,6 +53513,7 @@
         </is>
       </c>
       <c r="U870" t="inlineStr"/>
+      <c r="V870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -52705,6 +53583,7 @@
         </is>
       </c>
       <c r="U871" t="inlineStr"/>
+      <c r="V871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -52774,6 +53653,7 @@
         </is>
       </c>
       <c r="U872" t="inlineStr"/>
+      <c r="V872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -52841,6 +53721,7 @@
         </is>
       </c>
       <c r="U873" t="inlineStr"/>
+      <c r="V873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -52910,6 +53791,7 @@
         </is>
       </c>
       <c r="U874" t="inlineStr"/>
+      <c r="V874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -52977,6 +53859,7 @@
         </is>
       </c>
       <c r="U875" t="inlineStr"/>
+      <c r="V875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
@@ -53046,6 +53929,7 @@
         </is>
       </c>
       <c r="U876" t="inlineStr"/>
+      <c r="V876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -53113,6 +53997,7 @@
         </is>
       </c>
       <c r="U877" t="inlineStr"/>
+      <c r="V877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -53180,6 +54065,7 @@
         </is>
       </c>
       <c r="U878" t="inlineStr"/>
+      <c r="V878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
@@ -53247,6 +54133,7 @@
         </is>
       </c>
       <c r="U879" t="inlineStr"/>
+      <c r="V879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
@@ -53308,6 +54195,7 @@
         </is>
       </c>
       <c r="U880" t="inlineStr"/>
+      <c r="V880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
@@ -53369,6 +54257,7 @@
         </is>
       </c>
       <c r="U881" t="inlineStr"/>
+      <c r="V881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -53426,6 +54315,7 @@
         </is>
       </c>
       <c r="U882" t="inlineStr"/>
+      <c r="V882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -53487,6 +54377,7 @@
         </is>
       </c>
       <c r="U883" t="inlineStr"/>
+      <c r="V883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -53548,6 +54439,7 @@
         </is>
       </c>
       <c r="U884" t="inlineStr"/>
+      <c r="V884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -53597,6 +54489,7 @@
         </is>
       </c>
       <c r="U885" t="inlineStr"/>
+      <c r="V885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -53646,6 +54539,7 @@
         </is>
       </c>
       <c r="U886" t="inlineStr"/>
+      <c r="V886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -53699,6 +54593,7 @@
         </is>
       </c>
       <c r="U887" t="inlineStr"/>
+      <c r="V887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -53768,6 +54663,7 @@
         </is>
       </c>
       <c r="U888" t="inlineStr"/>
+      <c r="V888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -53833,6 +54729,7 @@
         </is>
       </c>
       <c r="U889" t="inlineStr"/>
+      <c r="V889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -53890,6 +54787,7 @@
         </is>
       </c>
       <c r="U890" t="inlineStr"/>
+      <c r="V890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -53947,6 +54845,7 @@
         </is>
       </c>
       <c r="U891" t="inlineStr"/>
+      <c r="V891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -54004,6 +54903,7 @@
         </is>
       </c>
       <c r="U892" t="inlineStr"/>
+      <c r="V892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -54061,6 +54961,7 @@
         </is>
       </c>
       <c r="U893" t="inlineStr"/>
+      <c r="V893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -54118,6 +55019,7 @@
         </is>
       </c>
       <c r="U894" t="inlineStr"/>
+      <c r="V894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
@@ -54169,6 +55071,7 @@
         </is>
       </c>
       <c r="U895" t="inlineStr"/>
+      <c r="V895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -54230,6 +55133,7 @@
         </is>
       </c>
       <c r="U896" t="inlineStr"/>
+      <c r="V896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -54291,6 +55195,7 @@
         </is>
       </c>
       <c r="U897" t="inlineStr"/>
+      <c r="V897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -54356,6 +55261,7 @@
         </is>
       </c>
       <c r="U898" t="inlineStr"/>
+      <c r="V898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -54417,6 +55323,7 @@
         </is>
       </c>
       <c r="U899" t="inlineStr"/>
+      <c r="V899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
@@ -54474,6 +55381,7 @@
         </is>
       </c>
       <c r="U900" t="inlineStr"/>
+      <c r="V900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
@@ -54535,6 +55443,7 @@
         </is>
       </c>
       <c r="U901" t="inlineStr"/>
+      <c r="V901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
@@ -54592,6 +55501,7 @@
         </is>
       </c>
       <c r="U902" t="inlineStr"/>
+      <c r="V902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -54647,6 +55557,7 @@
         </is>
       </c>
       <c r="U903" t="inlineStr"/>
+      <c r="V903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -54696,6 +55607,7 @@
         </is>
       </c>
       <c r="U904" t="inlineStr"/>
+      <c r="V904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
@@ -54751,6 +55663,7 @@
         </is>
       </c>
       <c r="U905" t="inlineStr"/>
+      <c r="V905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -54806,6 +55719,7 @@
         </is>
       </c>
       <c r="U906" t="inlineStr"/>
+      <c r="V906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
@@ -54861,6 +55775,7 @@
         </is>
       </c>
       <c r="U907" t="inlineStr"/>
+      <c r="V907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
@@ -54916,6 +55831,7 @@
         </is>
       </c>
       <c r="U908" t="inlineStr"/>
+      <c r="V908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
@@ -54971,6 +55887,7 @@
         </is>
       </c>
       <c r="U909" t="inlineStr"/>
+      <c r="V909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
@@ -55026,6 +55943,7 @@
         </is>
       </c>
       <c r="U910" t="inlineStr"/>
+      <c r="V910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -55081,6 +55999,7 @@
         </is>
       </c>
       <c r="U911" t="inlineStr"/>
+      <c r="V911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
@@ -55128,6 +56047,7 @@
         </is>
       </c>
       <c r="U912" t="inlineStr"/>
+      <c r="V912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -55175,6 +56095,7 @@
         </is>
       </c>
       <c r="U913" t="inlineStr"/>
+      <c r="V913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
@@ -55222,6 +56143,7 @@
         </is>
       </c>
       <c r="U914" t="inlineStr"/>
+      <c r="V914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
@@ -55277,6 +56199,7 @@
         </is>
       </c>
       <c r="U915" t="inlineStr"/>
+      <c r="V915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -55332,6 +56255,7 @@
         </is>
       </c>
       <c r="U916" t="inlineStr"/>
+      <c r="V916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
@@ -55403,6 +56327,7 @@
         </is>
       </c>
       <c r="U917" t="inlineStr"/>
+      <c r="V917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
@@ -55474,6 +56399,7 @@
         </is>
       </c>
       <c r="U918" t="inlineStr"/>
+      <c r="V918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
@@ -55541,6 +56467,7 @@
         </is>
       </c>
       <c r="U919" t="inlineStr"/>
+      <c r="V919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -55612,6 +56539,7 @@
         </is>
       </c>
       <c r="U920" t="inlineStr"/>
+      <c r="V920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
@@ -55679,6 +56607,7 @@
         </is>
       </c>
       <c r="U921" t="inlineStr"/>
+      <c r="V921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
@@ -55738,6 +56667,7 @@
         </is>
       </c>
       <c r="U922" t="inlineStr"/>
+      <c r="V922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -55785,6 +56715,7 @@
         </is>
       </c>
       <c r="U923" t="inlineStr"/>
+      <c r="V923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
@@ -55844,6 +56775,7 @@
         </is>
       </c>
       <c r="U924" t="inlineStr"/>
+      <c r="V924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -55899,6 +56831,7 @@
         </is>
       </c>
       <c r="U925" t="inlineStr"/>
+      <c r="V925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -55962,6 +56895,7 @@
         </is>
       </c>
       <c r="U926" t="inlineStr"/>
+      <c r="V926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -56025,6 +56959,7 @@
         </is>
       </c>
       <c r="U927" t="inlineStr"/>
+      <c r="V927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -56088,6 +57023,7 @@
         </is>
       </c>
       <c r="U928" t="inlineStr"/>
+      <c r="V928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -56155,6 +57091,7 @@
         </is>
       </c>
       <c r="U929" t="inlineStr"/>
+      <c r="V929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -56210,6 +57147,7 @@
         </is>
       </c>
       <c r="U930" t="inlineStr"/>
+      <c r="V930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -56281,6 +57219,7 @@
         </is>
       </c>
       <c r="U931" t="inlineStr"/>
+      <c r="V931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -56332,6 +57271,7 @@
         </is>
       </c>
       <c r="U932" t="inlineStr"/>
+      <c r="V932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -56391,6 +57331,7 @@
         </is>
       </c>
       <c r="U933" t="inlineStr"/>
+      <c r="V933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -56446,6 +57387,7 @@
         </is>
       </c>
       <c r="U934" t="inlineStr"/>
+      <c r="V934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
@@ -56509,6 +57451,7 @@
         </is>
       </c>
       <c r="U935" t="inlineStr"/>
+      <c r="V935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
@@ -56564,6 +57507,7 @@
         </is>
       </c>
       <c r="U936" t="inlineStr"/>
+      <c r="V936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
@@ -56623,6 +57567,7 @@
         </is>
       </c>
       <c r="U937" t="inlineStr"/>
+      <c r="V937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
@@ -56678,6 +57623,7 @@
         </is>
       </c>
       <c r="U938" t="inlineStr"/>
+      <c r="V938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
@@ -56747,6 +57693,7 @@
         </is>
       </c>
       <c r="U939" t="inlineStr"/>
+      <c r="V939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
@@ -56810,6 +57757,7 @@
         </is>
       </c>
       <c r="U940" t="inlineStr"/>
+      <c r="V940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
@@ -56873,6 +57821,7 @@
         </is>
       </c>
       <c r="U941" t="inlineStr"/>
+      <c r="V941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
@@ -56936,6 +57885,7 @@
         </is>
       </c>
       <c r="U942" t="inlineStr"/>
+      <c r="V942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -56999,6 +57949,7 @@
         </is>
       </c>
       <c r="U943" t="inlineStr"/>
+      <c r="V943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -57070,6 +58021,7 @@
         </is>
       </c>
       <c r="U944" t="inlineStr"/>
+      <c r="V944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
@@ -57133,6 +58085,7 @@
         </is>
       </c>
       <c r="U945" t="inlineStr"/>
+      <c r="V945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -57188,6 +58141,7 @@
         </is>
       </c>
       <c r="U946" t="inlineStr"/>
+      <c r="V946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -57243,6 +58197,7 @@
         </is>
       </c>
       <c r="U947" t="inlineStr"/>
+      <c r="V947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
@@ -57298,6 +58253,7 @@
         </is>
       </c>
       <c r="U948" t="inlineStr"/>
+      <c r="V948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -57361,6 +58317,7 @@
         </is>
       </c>
       <c r="U949" t="inlineStr"/>
+      <c r="V949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -57420,6 +58377,7 @@
         </is>
       </c>
       <c r="U950" t="inlineStr"/>
+      <c r="V950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
@@ -57479,6 +58437,7 @@
         </is>
       </c>
       <c r="U951" t="inlineStr"/>
+      <c r="V951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
@@ -57538,6 +58497,7 @@
         </is>
       </c>
       <c r="U952" t="inlineStr"/>
+      <c r="V952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
@@ -57601,6 +58561,7 @@
         </is>
       </c>
       <c r="U953" t="inlineStr"/>
+      <c r="V953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
@@ -57660,6 +58621,7 @@
         </is>
       </c>
       <c r="U954" t="inlineStr"/>
+      <c r="V954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
@@ -57727,6 +58689,7 @@
         </is>
       </c>
       <c r="U955" t="inlineStr"/>
+      <c r="V955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -57794,6 +58757,7 @@
         </is>
       </c>
       <c r="U956" t="inlineStr"/>
+      <c r="V956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
@@ -57861,6 +58825,7 @@
         </is>
       </c>
       <c r="U957" t="inlineStr"/>
+      <c r="V957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
@@ -57916,6 +58881,7 @@
         </is>
       </c>
       <c r="U958" t="inlineStr"/>
+      <c r="V958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
@@ -57979,6 +58945,7 @@
         </is>
       </c>
       <c r="U959" t="inlineStr"/>
+      <c r="V959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
@@ -58034,6 +59001,7 @@
         </is>
       </c>
       <c r="U960" t="inlineStr"/>
+      <c r="V960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
@@ -58073,6 +59041,7 @@
         </is>
       </c>
       <c r="U961" t="inlineStr"/>
+      <c r="V961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -58128,6 +59097,7 @@
         </is>
       </c>
       <c r="U962" t="inlineStr"/>
+      <c r="V962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
@@ -58183,6 +59153,7 @@
         </is>
       </c>
       <c r="U963" t="inlineStr"/>
+      <c r="V963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
@@ -58246,6 +59217,7 @@
         </is>
       </c>
       <c r="U964" t="inlineStr"/>
+      <c r="V964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
@@ -58301,6 +59273,7 @@
         </is>
       </c>
       <c r="U965" t="inlineStr"/>
+      <c r="V965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
@@ -58352,6 +59325,7 @@
         </is>
       </c>
       <c r="U966" t="inlineStr"/>
+      <c r="V966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -58411,6 +59385,7 @@
         </is>
       </c>
       <c r="U967" t="inlineStr"/>
+      <c r="V967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
@@ -58470,6 +59445,7 @@
         </is>
       </c>
       <c r="U968" t="inlineStr"/>
+      <c r="V968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
@@ -58533,6 +59509,7 @@
         </is>
       </c>
       <c r="U969" t="inlineStr"/>
+      <c r="V969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
@@ -58588,6 +59565,7 @@
         </is>
       </c>
       <c r="U970" t="inlineStr"/>
+      <c r="V970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
@@ -58647,6 +59625,7 @@
         </is>
       </c>
       <c r="U971" t="inlineStr"/>
+      <c r="V971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
@@ -58706,6 +59685,7 @@
         </is>
       </c>
       <c r="U972" t="inlineStr"/>
+      <c r="V972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -58769,6 +59749,7 @@
         </is>
       </c>
       <c r="U973" t="inlineStr"/>
+      <c r="V973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
@@ -58828,6 +59809,7 @@
         </is>
       </c>
       <c r="U974" t="inlineStr"/>
+      <c r="V974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
@@ -58887,6 +59869,7 @@
         </is>
       </c>
       <c r="U975" t="inlineStr"/>
+      <c r="V975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
@@ -58946,6 +59929,7 @@
         </is>
       </c>
       <c r="U976" t="inlineStr"/>
+      <c r="V976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
@@ -59005,6 +59989,7 @@
         </is>
       </c>
       <c r="U977" t="inlineStr"/>
+      <c r="V977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
@@ -59060,6 +60045,7 @@
         </is>
       </c>
       <c r="U978" t="inlineStr"/>
+      <c r="V978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
@@ -59123,6 +60109,7 @@
         </is>
       </c>
       <c r="U979" t="inlineStr"/>
+      <c r="V979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
@@ -59174,6 +60161,7 @@
         </is>
       </c>
       <c r="U980" t="inlineStr"/>
+      <c r="V980" t="inlineStr"/>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
@@ -59225,6 +60213,7 @@
         </is>
       </c>
       <c r="U981" t="inlineStr"/>
+      <c r="V981" t="inlineStr"/>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
@@ -59261,7 +60250,7 @@
       <c r="R982" t="inlineStr"/>
       <c r="S982" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T982" t="inlineStr">
@@ -59270,6 +60259,7 @@
         </is>
       </c>
       <c r="U982" t="inlineStr"/>
+      <c r="V982" t="inlineStr"/>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
@@ -59326,7 +60316,7 @@
       <c r="R983" t="inlineStr"/>
       <c r="S983" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T983" t="inlineStr">
@@ -59335,6 +60325,7 @@
         </is>
       </c>
       <c r="U983" t="inlineStr"/>
+      <c r="V983" t="inlineStr"/>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
@@ -59395,7 +60386,7 @@
       <c r="R984" t="inlineStr"/>
       <c r="S984" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T984" t="inlineStr">
@@ -59404,6 +60395,7 @@
         </is>
       </c>
       <c r="U984" t="inlineStr"/>
+      <c r="V984" t="inlineStr"/>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
@@ -59452,7 +60444,7 @@
       <c r="R985" t="inlineStr"/>
       <c r="S985" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T985" t="inlineStr">
@@ -59461,6 +60453,7 @@
         </is>
       </c>
       <c r="U985" t="inlineStr"/>
+      <c r="V985" t="inlineStr"/>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
@@ -59508,6 +60501,7 @@
         </is>
       </c>
       <c r="U986" t="inlineStr"/>
+      <c r="V986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
@@ -59555,6 +60549,7 @@
         </is>
       </c>
       <c r="U987" t="inlineStr"/>
+      <c r="V987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
@@ -59602,6 +60597,7 @@
         </is>
       </c>
       <c r="U988" t="inlineStr"/>
+      <c r="V988" t="inlineStr"/>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
@@ -59649,6 +60645,7 @@
         </is>
       </c>
       <c r="U989" t="inlineStr"/>
+      <c r="V989" t="inlineStr"/>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
@@ -59696,6 +60693,7 @@
         </is>
       </c>
       <c r="U990" t="inlineStr"/>
+      <c r="V990" t="inlineStr"/>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
@@ -59743,6 +60741,7 @@
         </is>
       </c>
       <c r="U991" t="inlineStr"/>
+      <c r="V991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
@@ -59790,6 +60789,7 @@
         </is>
       </c>
       <c r="U992" t="inlineStr"/>
+      <c r="V992" t="inlineStr"/>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
@@ -59837,6 +60837,7 @@
         </is>
       </c>
       <c r="U993" t="inlineStr"/>
+      <c r="V993" t="inlineStr"/>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
@@ -59884,6 +60885,7 @@
         </is>
       </c>
       <c r="U994" t="inlineStr"/>
+      <c r="V994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
@@ -59931,6 +60933,7 @@
         </is>
       </c>
       <c r="U995" t="inlineStr"/>
+      <c r="V995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
@@ -59978,6 +60981,7 @@
         </is>
       </c>
       <c r="U996" t="inlineStr"/>
+      <c r="V996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
@@ -60025,6 +61029,7 @@
         </is>
       </c>
       <c r="U997" t="inlineStr"/>
+      <c r="V997" t="inlineStr"/>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
@@ -60072,6 +61077,7 @@
         </is>
       </c>
       <c r="U998" t="inlineStr"/>
+      <c r="V998" t="inlineStr"/>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
@@ -60119,6 +61125,7 @@
         </is>
       </c>
       <c r="U999" t="inlineStr"/>
+      <c r="V999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
@@ -60166,6 +61173,7 @@
         </is>
       </c>
       <c r="U1000" t="inlineStr"/>
+      <c r="V1000" t="inlineStr"/>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
@@ -60213,6 +61221,7 @@
         </is>
       </c>
       <c r="U1001" t="inlineStr"/>
+      <c r="V1001" t="inlineStr"/>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
@@ -60260,6 +61269,7 @@
         </is>
       </c>
       <c r="U1002" t="inlineStr"/>
+      <c r="V1002" t="inlineStr"/>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
@@ -60307,6 +61317,7 @@
         </is>
       </c>
       <c r="U1003" t="inlineStr"/>
+      <c r="V1003" t="inlineStr"/>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
@@ -60354,6 +61365,7 @@
         </is>
       </c>
       <c r="U1004" t="inlineStr"/>
+      <c r="V1004" t="inlineStr"/>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
@@ -60401,6 +61413,7 @@
         </is>
       </c>
       <c r="U1005" t="inlineStr"/>
+      <c r="V1005" t="inlineStr"/>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
@@ -60448,6 +61461,7 @@
         </is>
       </c>
       <c r="U1006" t="inlineStr"/>
+      <c r="V1006" t="inlineStr"/>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
@@ -60495,6 +61509,7 @@
         </is>
       </c>
       <c r="U1007" t="inlineStr"/>
+      <c r="V1007" t="inlineStr"/>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -60542,6 +61557,7 @@
         </is>
       </c>
       <c r="U1008" t="inlineStr"/>
+      <c r="V1008" t="inlineStr"/>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
@@ -60589,6 +61605,7 @@
         </is>
       </c>
       <c r="U1009" t="inlineStr"/>
+      <c r="V1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
@@ -60636,6 +61653,7 @@
         </is>
       </c>
       <c r="U1010" t="inlineStr"/>
+      <c r="V1010" t="inlineStr"/>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
@@ -60683,6 +61701,7 @@
         </is>
       </c>
       <c r="U1011" t="inlineStr"/>
+      <c r="V1011" t="inlineStr"/>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
@@ -60730,6 +61749,7 @@
         </is>
       </c>
       <c r="U1012" t="inlineStr"/>
+      <c r="V1012" t="inlineStr"/>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -60777,6 +61797,7 @@
         </is>
       </c>
       <c r="U1013" t="inlineStr"/>
+      <c r="V1013" t="inlineStr"/>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -60824,6 +61845,7 @@
         </is>
       </c>
       <c r="U1014" t="inlineStr"/>
+      <c r="V1014" t="inlineStr"/>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
@@ -60871,6 +61893,7 @@
         </is>
       </c>
       <c r="U1015" t="inlineStr"/>
+      <c r="V1015" t="inlineStr"/>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
@@ -60918,6 +61941,7 @@
         </is>
       </c>
       <c r="U1016" t="inlineStr"/>
+      <c r="V1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
@@ -60965,6 +61989,7 @@
         </is>
       </c>
       <c r="U1017" t="inlineStr"/>
+      <c r="V1017" t="inlineStr"/>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
@@ -61012,6 +62037,7 @@
         </is>
       </c>
       <c r="U1018" t="inlineStr"/>
+      <c r="V1018" t="inlineStr"/>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
@@ -61059,6 +62085,7 @@
         </is>
       </c>
       <c r="U1019" t="inlineStr"/>
+      <c r="V1019" t="inlineStr"/>
     </row>
     <row r="1020">
       <c r="A1020" t="inlineStr">
@@ -61106,6 +62133,7 @@
         </is>
       </c>
       <c r="U1020" t="inlineStr"/>
+      <c r="V1020" t="inlineStr"/>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
@@ -61149,6 +62177,7 @@
       </c>
       <c r="T1021" t="inlineStr"/>
       <c r="U1021" t="inlineStr"/>
+      <c r="V1021" t="inlineStr"/>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
@@ -61192,6 +62221,7 @@
       </c>
       <c r="T1022" t="inlineStr"/>
       <c r="U1022" t="inlineStr"/>
+      <c r="V1022" t="inlineStr"/>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
@@ -61235,6 +62265,7 @@
       </c>
       <c r="T1023" t="inlineStr"/>
       <c r="U1023" t="inlineStr"/>
+      <c r="V1023" t="inlineStr"/>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
@@ -61278,6 +62309,7 @@
       </c>
       <c r="T1024" t="inlineStr"/>
       <c r="U1024" t="inlineStr"/>
+      <c r="V1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
@@ -61321,6 +62353,7 @@
       </c>
       <c r="T1025" t="inlineStr"/>
       <c r="U1025" t="inlineStr"/>
+      <c r="V1025" t="inlineStr"/>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
@@ -61364,6 +62397,7 @@
       </c>
       <c r="T1026" t="inlineStr"/>
       <c r="U1026" t="inlineStr"/>
+      <c r="V1026" t="inlineStr"/>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
@@ -61407,6 +62441,7 @@
       </c>
       <c r="T1027" t="inlineStr"/>
       <c r="U1027" t="inlineStr"/>
+      <c r="V1027" t="inlineStr"/>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
@@ -61450,6 +62485,7 @@
       </c>
       <c r="T1028" t="inlineStr"/>
       <c r="U1028" t="inlineStr"/>
+      <c r="V1028" t="inlineStr"/>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
@@ -61493,6 +62529,7 @@
       </c>
       <c r="T1029" t="inlineStr"/>
       <c r="U1029" t="inlineStr"/>
+      <c r="V1029" t="inlineStr"/>
     </row>
     <row r="1030">
       <c r="A1030" t="inlineStr">
@@ -61536,6 +62573,7 @@
       </c>
       <c r="T1030" t="inlineStr"/>
       <c r="U1030" t="inlineStr"/>
+      <c r="V1030" t="inlineStr"/>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
@@ -61579,6 +62617,7 @@
       </c>
       <c r="T1031" t="inlineStr"/>
       <c r="U1031" t="inlineStr"/>
+      <c r="V1031" t="inlineStr"/>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
@@ -61622,6 +62661,7 @@
       </c>
       <c r="T1032" t="inlineStr"/>
       <c r="U1032" t="inlineStr"/>
+      <c r="V1032" t="inlineStr"/>
     </row>
     <row r="1033">
       <c r="A1033" t="inlineStr">
@@ -61665,6 +62705,7 @@
       </c>
       <c r="T1033" t="inlineStr"/>
       <c r="U1033" t="inlineStr"/>
+      <c r="V1033" t="inlineStr"/>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
@@ -61708,6 +62749,7 @@
       </c>
       <c r="T1034" t="inlineStr"/>
       <c r="U1034" t="inlineStr"/>
+      <c r="V1034" t="inlineStr"/>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
@@ -61751,6 +62793,7 @@
       </c>
       <c r="T1035" t="inlineStr"/>
       <c r="U1035" t="inlineStr"/>
+      <c r="V1035" t="inlineStr"/>
     </row>
     <row r="1036">
       <c r="A1036" t="inlineStr">
@@ -61794,6 +62837,7 @@
       </c>
       <c r="T1036" t="inlineStr"/>
       <c r="U1036" t="inlineStr"/>
+      <c r="V1036" t="inlineStr"/>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
@@ -61837,6 +62881,7 @@
       </c>
       <c r="T1037" t="inlineStr"/>
       <c r="U1037" t="inlineStr"/>
+      <c r="V1037" t="inlineStr"/>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
@@ -61880,6 +62925,7 @@
       </c>
       <c r="T1038" t="inlineStr"/>
       <c r="U1038" t="inlineStr"/>
+      <c r="V1038" t="inlineStr"/>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
@@ -61923,6 +62969,7 @@
       </c>
       <c r="T1039" t="inlineStr"/>
       <c r="U1039" t="inlineStr"/>
+      <c r="V1039" t="inlineStr"/>
     </row>
     <row r="1040">
       <c r="A1040" t="inlineStr">
@@ -61966,6 +63013,7 @@
       </c>
       <c r="T1040" t="inlineStr"/>
       <c r="U1040" t="inlineStr"/>
+      <c r="V1040" t="inlineStr"/>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
@@ -62009,6 +63057,7 @@
       </c>
       <c r="T1041" t="inlineStr"/>
       <c r="U1041" t="inlineStr"/>
+      <c r="V1041" t="inlineStr"/>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
@@ -62052,6 +63101,7 @@
       </c>
       <c r="T1042" t="inlineStr"/>
       <c r="U1042" t="inlineStr"/>
+      <c r="V1042" t="inlineStr"/>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
@@ -62095,6 +63145,7 @@
       </c>
       <c r="T1043" t="inlineStr"/>
       <c r="U1043" t="inlineStr"/>
+      <c r="V1043" t="inlineStr"/>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
@@ -62138,6 +63189,7 @@
       </c>
       <c r="T1044" t="inlineStr"/>
       <c r="U1044" t="inlineStr"/>
+      <c r="V1044" t="inlineStr"/>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
@@ -62181,6 +63233,7 @@
       </c>
       <c r="T1045" t="inlineStr"/>
       <c r="U1045" t="inlineStr"/>
+      <c r="V1045" t="inlineStr"/>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
@@ -62224,6 +63277,7 @@
       </c>
       <c r="T1046" t="inlineStr"/>
       <c r="U1046" t="inlineStr"/>
+      <c r="V1046" t="inlineStr"/>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
@@ -62267,6 +63321,7 @@
       </c>
       <c r="T1047" t="inlineStr"/>
       <c r="U1047" t="inlineStr"/>
+      <c r="V1047" t="inlineStr"/>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
@@ -62305,11 +63360,12 @@
       <c r="R1048" t="inlineStr"/>
       <c r="S1048" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="T1048" t="inlineStr"/>
       <c r="U1048" t="inlineStr"/>
+      <c r="V1048" t="inlineStr"/>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
@@ -62353,6 +63409,7 @@
       </c>
       <c r="T1049" t="inlineStr"/>
       <c r="U1049" t="inlineStr"/>
+      <c r="V1049" t="inlineStr"/>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
@@ -62396,6 +63453,7 @@
       </c>
       <c r="T1050" t="inlineStr"/>
       <c r="U1050" t="inlineStr"/>
+      <c r="V1050" t="inlineStr"/>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
@@ -62439,6 +63497,7 @@
       </c>
       <c r="T1051" t="inlineStr"/>
       <c r="U1051" t="inlineStr"/>
+      <c r="V1051" t="inlineStr"/>
     </row>
     <row r="1052">
       <c r="A1052" t="inlineStr">
@@ -62482,6 +63541,7 @@
       </c>
       <c r="T1052" t="inlineStr"/>
       <c r="U1052" t="inlineStr"/>
+      <c r="V1052" t="inlineStr"/>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
@@ -62525,6 +63585,7 @@
       </c>
       <c r="T1053" t="inlineStr"/>
       <c r="U1053" t="inlineStr"/>
+      <c r="V1053" t="inlineStr"/>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
@@ -62568,6 +63629,7 @@
       </c>
       <c r="T1054" t="inlineStr"/>
       <c r="U1054" t="inlineStr"/>
+      <c r="V1054" t="inlineStr"/>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
@@ -62611,6 +63673,7 @@
       </c>
       <c r="T1055" t="inlineStr"/>
       <c r="U1055" t="inlineStr"/>
+      <c r="V1055" t="inlineStr"/>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
@@ -62654,6 +63717,7 @@
       </c>
       <c r="T1056" t="inlineStr"/>
       <c r="U1056" t="inlineStr"/>
+      <c r="V1056" t="inlineStr"/>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
@@ -62697,6 +63761,7 @@
       </c>
       <c r="T1057" t="inlineStr"/>
       <c r="U1057" t="inlineStr"/>
+      <c r="V1057" t="inlineStr"/>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
@@ -62740,6 +63805,7 @@
       </c>
       <c r="T1058" t="inlineStr"/>
       <c r="U1058" t="inlineStr"/>
+      <c r="V1058" t="inlineStr"/>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
@@ -62783,6 +63849,7 @@
       </c>
       <c r="T1059" t="inlineStr"/>
       <c r="U1059" t="inlineStr"/>
+      <c r="V1059" t="inlineStr"/>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
@@ -62826,6 +63893,7 @@
       </c>
       <c r="T1060" t="inlineStr"/>
       <c r="U1060" t="inlineStr"/>
+      <c r="V1060" t="inlineStr"/>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
@@ -62869,6 +63937,7 @@
       </c>
       <c r="T1061" t="inlineStr"/>
       <c r="U1061" t="inlineStr"/>
+      <c r="V1061" t="inlineStr"/>
     </row>
     <row r="1062">
       <c r="A1062" t="inlineStr">
@@ -62912,6 +63981,7 @@
       </c>
       <c r="T1062" t="inlineStr"/>
       <c r="U1062" t="inlineStr"/>
+      <c r="V1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -62955,6 +64025,7 @@
       </c>
       <c r="T1063" t="inlineStr"/>
       <c r="U1063" t="inlineStr"/>
+      <c r="V1063" t="inlineStr"/>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
@@ -62998,6 +64069,7 @@
       </c>
       <c r="T1064" t="inlineStr"/>
       <c r="U1064" t="inlineStr"/>
+      <c r="V1064" t="inlineStr"/>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
@@ -63041,6 +64113,7 @@
       </c>
       <c r="T1065" t="inlineStr"/>
       <c r="U1065" t="inlineStr"/>
+      <c r="V1065" t="inlineStr"/>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
@@ -63084,6 +64157,7 @@
       </c>
       <c r="T1066" t="inlineStr"/>
       <c r="U1066" t="inlineStr"/>
+      <c r="V1066" t="inlineStr"/>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
@@ -63127,6 +64201,7 @@
       </c>
       <c r="T1067" t="inlineStr"/>
       <c r="U1067" t="inlineStr"/>
+      <c r="V1067" t="inlineStr"/>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
@@ -63170,6 +64245,7 @@
       </c>
       <c r="T1068" t="inlineStr"/>
       <c r="U1068" t="inlineStr"/>
+      <c r="V1068" t="inlineStr"/>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
@@ -63213,6 +64289,7 @@
       </c>
       <c r="T1069" t="inlineStr"/>
       <c r="U1069" t="inlineStr"/>
+      <c r="V1069" t="inlineStr"/>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
@@ -63256,6 +64333,7 @@
       </c>
       <c r="T1070" t="inlineStr"/>
       <c r="U1070" t="inlineStr"/>
+      <c r="V1070" t="inlineStr"/>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
@@ -63299,6 +64377,7 @@
       </c>
       <c r="T1071" t="inlineStr"/>
       <c r="U1071" t="inlineStr"/>
+      <c r="V1071" t="inlineStr"/>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
@@ -63342,6 +64421,7 @@
       </c>
       <c r="T1072" t="inlineStr"/>
       <c r="U1072" t="inlineStr"/>
+      <c r="V1072" t="inlineStr"/>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
@@ -63385,6 +64465,7 @@
       </c>
       <c r="T1073" t="inlineStr"/>
       <c r="U1073" t="inlineStr"/>
+      <c r="V1073" t="inlineStr"/>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
@@ -63428,6 +64509,7 @@
       </c>
       <c r="T1074" t="inlineStr"/>
       <c r="U1074" t="inlineStr"/>
+      <c r="V1074" t="inlineStr"/>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
@@ -63471,6 +64553,7 @@
       </c>
       <c r="T1075" t="inlineStr"/>
       <c r="U1075" t="inlineStr"/>
+      <c r="V1075" t="inlineStr"/>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
@@ -63514,6 +64597,7 @@
       </c>
       <c r="T1076" t="inlineStr"/>
       <c r="U1076" t="inlineStr"/>
+      <c r="V1076" t="inlineStr"/>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
@@ -63557,6 +64641,7 @@
       </c>
       <c r="T1077" t="inlineStr"/>
       <c r="U1077" t="inlineStr"/>
+      <c r="V1077" t="inlineStr"/>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
@@ -63600,6 +64685,7 @@
       </c>
       <c r="T1078" t="inlineStr"/>
       <c r="U1078" t="inlineStr"/>
+      <c r="V1078" t="inlineStr"/>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
@@ -63643,6 +64729,7 @@
       </c>
       <c r="T1079" t="inlineStr"/>
       <c r="U1079" t="inlineStr"/>
+      <c r="V1079" t="inlineStr"/>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -63686,6 +64773,7 @@
       </c>
       <c r="T1080" t="inlineStr"/>
       <c r="U1080" t="inlineStr"/>
+      <c r="V1080" t="inlineStr"/>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
@@ -63729,6 +64817,7 @@
       </c>
       <c r="T1081" t="inlineStr"/>
       <c r="U1081" t="inlineStr"/>
+      <c r="V1081" t="inlineStr"/>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
@@ -63772,6 +64861,7 @@
       </c>
       <c r="T1082" t="inlineStr"/>
       <c r="U1082" t="inlineStr"/>
+      <c r="V1082" t="inlineStr"/>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
@@ -63815,6 +64905,7 @@
       </c>
       <c r="T1083" t="inlineStr"/>
       <c r="U1083" t="inlineStr"/>
+      <c r="V1083" t="inlineStr"/>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
@@ -63858,6 +64949,7 @@
       </c>
       <c r="T1084" t="inlineStr"/>
       <c r="U1084" t="inlineStr"/>
+      <c r="V1084" t="inlineStr"/>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
@@ -63901,6 +64993,7 @@
       </c>
       <c r="T1085" t="inlineStr"/>
       <c r="U1085" t="inlineStr"/>
+      <c r="V1085" t="inlineStr"/>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
@@ -63944,6 +65037,7 @@
       </c>
       <c r="T1086" t="inlineStr"/>
       <c r="U1086" t="inlineStr"/>
+      <c r="V1086" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/data/INSA_DB.xlsx
+++ b/static/data/INSA_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows11\OneDrive\문서\GitHub\Dong.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB668F07-8F9B-47A8-B2B1-65F0F4B4505C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F3F43-F755-4405-A6B0-0EC0FD65C268}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9510" uniqueCount="6362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9512" uniqueCount="6364">
   <si>
     <t>ID</t>
   </si>
@@ -19106,6 +19106,14 @@
   </si>
   <si>
     <t>2025-01-30(출근)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-01-31(출근)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-02-01(출근)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -19479,18 +19487,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1086"/>
+  <dimension ref="A1:Y1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="E976" workbookViewId="0">
+      <selection activeCell="X1045" sqref="X1045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="21" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19560,8 +19569,14 @@
       <c r="W1" s="1" t="s">
         <v>6361</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="1" t="s">
+        <v>6362</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -19587,7 +19602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -19610,7 +19625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -19656,8 +19671,14 @@
       <c r="W4" s="2">
         <v>45687.425694444442</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -19692,7 +19713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -19718,7 +19739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -19756,7 +19777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -19791,7 +19812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -19829,7 +19850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -19864,7 +19885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -19899,7 +19920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -19931,7 +19952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -19963,7 +19984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -20001,7 +20022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -20033,7 +20054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -20062,7 +20083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -20094,7 +20115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -20126,7 +20147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -20158,7 +20179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -20193,7 +20214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -20228,7 +20249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -20260,7 +20281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>186</v>
       </c>
@@ -20295,7 +20316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -20330,7 +20351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -20370,8 +20391,14 @@
       <c r="W25" s="2">
         <v>45687.425694444442</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X25" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -20406,7 +20433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -20438,7 +20465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>227</v>
       </c>
@@ -20473,7 +20500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -20499,7 +20526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -20524,8 +20551,14 @@
       <c r="W30" s="2">
         <v>45687.425694444442</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -20551,7 +20584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>252</v>
       </c>
@@ -21496,7 +21529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>467</v>
       </c>
@@ -21522,7 +21555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>473</v>
       </c>
@@ -21541,8 +21574,14 @@
       <c r="T66" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X66" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>476</v>
       </c>
@@ -21562,7 +21601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>478</v>
       </c>
@@ -21582,7 +21621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>481</v>
       </c>
@@ -21602,7 +21641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>483</v>
       </c>
@@ -21621,8 +21660,14 @@
       <c r="T70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X70" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>485</v>
       </c>
@@ -21639,7 +21684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>487</v>
       </c>
@@ -21659,7 +21704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>489</v>
       </c>
@@ -21679,7 +21724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>491</v>
       </c>
@@ -21699,7 +21744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>493</v>
       </c>
@@ -21719,7 +21764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>495</v>
       </c>
@@ -21739,7 +21784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>497</v>
       </c>
@@ -21759,7 +21804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>499</v>
       </c>
@@ -21779,7 +21824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -21799,7 +21844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -33157,7 +33202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>3047</v>
       </c>
@@ -33189,7 +33234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>3054</v>
       </c>
@@ -33221,7 +33266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>3061</v>
       </c>
@@ -33253,7 +33298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>3068</v>
       </c>
@@ -33285,7 +33330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>3075</v>
       </c>
@@ -33317,7 +33362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>3083</v>
       </c>
@@ -33349,7 +33394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>3090</v>
       </c>
@@ -33387,7 +33432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>3099</v>
       </c>
@@ -33413,7 +33458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>3104</v>
       </c>
@@ -33438,8 +33483,14 @@
       <c r="T457" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X457" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y457" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="458" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>3110</v>
       </c>
@@ -33471,7 +33522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>3117</v>
       </c>
@@ -33506,7 +33557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>3125</v>
       </c>
@@ -33532,7 +33583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>3130</v>
       </c>
@@ -33555,7 +33606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>3135</v>
       </c>
@@ -33581,7 +33632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>3140</v>
       </c>
@@ -33607,7 +33658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>3146</v>
       </c>
@@ -33639,7 +33690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>3154</v>
       </c>
@@ -33670,8 +33721,14 @@
       <c r="T465" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X465" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y465" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="466" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>3161</v>
       </c>
@@ -33700,7 +33757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>3168</v>
       </c>
@@ -33723,7 +33780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>3173</v>
       </c>
@@ -33761,7 +33818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>3181</v>
       </c>
@@ -33790,7 +33847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>3188</v>
       </c>
@@ -33821,8 +33878,14 @@
       <c r="T470" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X470" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y470" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="471" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>3196</v>
       </c>
@@ -33860,7 +33923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>3205</v>
       </c>
@@ -33892,7 +33955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>3213</v>
       </c>
@@ -33921,7 +33984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>3220</v>
       </c>
@@ -33953,7 +34016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>3228</v>
       </c>
@@ -33991,7 +34054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>3237</v>
       </c>
@@ -34022,8 +34085,14 @@
       <c r="T476" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X476" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y476" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="477" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>3245</v>
       </c>
@@ -34055,7 +34124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>3251</v>
       </c>
@@ -34081,7 +34150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>3256</v>
       </c>
@@ -34116,7 +34185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>3264</v>
       </c>
@@ -34148,7 +34217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>3271</v>
       </c>
@@ -34173,8 +34242,14 @@
       <c r="T481" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X481" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y481" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="482" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>3276</v>
       </c>
@@ -34200,7 +34275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>3281</v>
       </c>
@@ -34226,7 +34301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>3286</v>
       </c>
@@ -34257,8 +34332,14 @@
       <c r="T484" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X484" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y484" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="485" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>3294</v>
       </c>
@@ -34284,7 +34365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>3298</v>
       </c>
@@ -34316,7 +34397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>3304</v>
       </c>
@@ -34351,7 +34432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>3312</v>
       </c>
@@ -34382,8 +34463,14 @@
       <c r="T488" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X488" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y488" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>3320</v>
       </c>
@@ -34412,7 +34499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>3327</v>
       </c>
@@ -34444,7 +34531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>3334</v>
       </c>
@@ -34473,7 +34560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>3341</v>
       </c>
@@ -34505,7 +34592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>3348</v>
       </c>
@@ -34537,7 +34624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>3355</v>
       </c>
@@ -34575,7 +34662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>3364</v>
       </c>
@@ -34613,7 +34700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>3373</v>
       </c>
@@ -34651,7 +34738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>3380</v>
       </c>
@@ -34683,7 +34770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>3386</v>
       </c>
@@ -34715,7 +34802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>3393</v>
       </c>
@@ -34753,7 +34840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>3401</v>
       </c>
@@ -34788,7 +34875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>3409</v>
       </c>
@@ -34820,7 +34907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>3416</v>
       </c>
@@ -34852,7 +34939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>3423</v>
       </c>
@@ -34878,7 +34965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>3428</v>
       </c>
@@ -34912,8 +34999,14 @@
       <c r="T504" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X504" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y504" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="505" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>3436</v>
       </c>
@@ -34948,7 +35041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>3443</v>
       </c>
@@ -34977,7 +35070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>3450</v>
       </c>
@@ -35006,7 +35099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>3456</v>
       </c>
@@ -35031,8 +35124,14 @@
       <c r="T508" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X508" s="2">
+        <v>45688.425694444442</v>
+      </c>
+      <c r="Y508" s="2">
+        <v>45689.425694444442</v>
+      </c>
+    </row>
+    <row r="509" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>3462</v>
       </c>
@@ -35064,7 +35163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>3469</v>
       </c>
@@ -35093,7 +35192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>3476</v>
       </c>
@@ -35122,7 +35221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>3483</v>
       </c>

--- a/static/data/INSA_DB.xlsx
+++ b/static/data/INSA_DB.xlsx
@@ -65238,17 +65238,27 @@
           <t>ADMIN</t>
         </is>
       </c>
-      <c r="B982" t="n">
-        <v>123456</v>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
           <t>이동성</t>
         </is>
       </c>
-      <c r="D982" t="inlineStr"/>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>이동성</t>
+        </is>
+      </c>
       <c r="E982" t="inlineStr"/>
-      <c r="F982" t="inlineStr"/>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>Korea, Republic of</t>
+        </is>
+      </c>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
